--- a/result/NCDC_weather_data/stations_imputed/58150099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58150099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">

--- a/result/NCDC_weather_data/stations_imputed/58150099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58150099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R489"/>
+  <dimension ref="A1:S489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>101.3</v>
       </c>
       <c r="H2" t="n">
-        <v>89.78</v>
+        <v>32.1</v>
       </c>
       <c r="I2" t="n">
         <v>102.82</v>
@@ -584,6 +589,9 @@
       <c r="R2" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S2" t="n">
+        <v>4.357591650533486</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -612,7 +620,7 @@
         <v>98.23999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>84.74000000000001</v>
+        <v>29.3</v>
       </c>
       <c r="I3" t="n">
         <v>102.94</v>
@@ -644,6 +652,9 @@
       <c r="R3" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S3" t="n">
+        <v>4.151277346935296</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -672,7 +683,7 @@
         <v>99.31999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>91.22</v>
+        <v>32.9</v>
       </c>
       <c r="I4" t="n">
         <v>102.7</v>
@@ -704,6 +715,9 @@
       <c r="R4" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S4" t="n">
+        <v>4.899720212167071</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -732,7 +746,7 @@
         <v>106.88</v>
       </c>
       <c r="H5" t="n">
-        <v>97.34</v>
+        <v>36.3</v>
       </c>
       <c r="I5" t="n">
         <v>102.77</v>
@@ -764,6 +778,9 @@
       <c r="R5" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S5" t="n">
+        <v>4.515589950174716</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -792,7 +809,7 @@
         <v>102.38</v>
       </c>
       <c r="H6" t="n">
-        <v>95.18000000000001</v>
+        <v>35.1</v>
       </c>
       <c r="I6" t="n">
         <v>102.83</v>
@@ -824,6 +841,9 @@
       <c r="R6" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S6" t="n">
+        <v>4.958317058488338</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -852,7 +872,7 @@
         <v>103.1</v>
       </c>
       <c r="H7" t="n">
-        <v>89.42</v>
+        <v>31.9</v>
       </c>
       <c r="I7" t="n">
         <v>103.31</v>
@@ -884,6 +904,9 @@
       <c r="R7" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S7" t="n">
+        <v>4.038108334608155</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -912,7 +935,7 @@
         <v>96.26000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>82.75999999999999</v>
+        <v>28.2</v>
       </c>
       <c r="I8" t="n">
         <v>103.09</v>
@@ -944,6 +967,9 @@
       <c r="R8" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S8" t="n">
+        <v>4.190975706075333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,7 +998,7 @@
         <v>98.42</v>
       </c>
       <c r="H9" t="n">
-        <v>86.53999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="I9" t="n">
         <v>102.68</v>
@@ -1004,6 +1030,9 @@
       <c r="R9" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S9" t="n">
+        <v>4.368381933389089</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1032,7 +1061,7 @@
         <v>97.52</v>
       </c>
       <c r="H10" t="n">
-        <v>90.86000000000001</v>
+        <v>32.7</v>
       </c>
       <c r="I10" t="n">
         <v>102.43</v>
@@ -1064,6 +1093,9 @@
       <c r="R10" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S10" t="n">
+        <v>5.176620295218759</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1092,7 +1124,7 @@
         <v>100.76</v>
       </c>
       <c r="H11" t="n">
-        <v>89.24000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="I11" t="n">
         <v>102.47</v>
@@ -1124,6 +1156,9 @@
       <c r="R11" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S11" t="n">
+        <v>4.368766567287271</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1152,7 +1187,7 @@
         <v>87.62</v>
       </c>
       <c r="H12" t="n">
-        <v>70.88</v>
+        <v>21.6</v>
       </c>
       <c r="I12" t="n">
         <v>102.85</v>
@@ -1184,6 +1219,9 @@
       <c r="R12" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S12" t="n">
+        <v>3.931870192238967</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1212,7 +1250,7 @@
         <v>98.42</v>
       </c>
       <c r="H13" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I13" t="n">
         <v>102.52</v>
@@ -1244,6 +1282,9 @@
       <c r="R13" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S13" t="n">
+        <v>3.440094070217337</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1272,7 +1313,7 @@
         <v>86.36</v>
       </c>
       <c r="H14" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
         <v>103.01</v>
@@ -1304,6 +1345,9 @@
       <c r="R14" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S14" t="n">
+        <v>3.102321561509856</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1332,7 +1376,7 @@
         <v>93.56</v>
       </c>
       <c r="H15" t="n">
-        <v>79.52</v>
+        <v>26.4</v>
       </c>
       <c r="I15" t="n">
         <v>102.52</v>
@@ -1364,6 +1408,9 @@
       <c r="R15" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S15" t="n">
+        <v>4.173535422732434</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1392,7 +1439,7 @@
         <v>104.18</v>
       </c>
       <c r="H16" t="n">
-        <v>87.62</v>
+        <v>30.9</v>
       </c>
       <c r="I16" t="n">
         <v>102.53</v>
@@ -1424,6 +1471,9 @@
       <c r="R16" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S16" t="n">
+        <v>3.670320687873003</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1452,7 +1502,7 @@
         <v>96.26000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>82.94</v>
+        <v>28.3</v>
       </c>
       <c r="I17" t="n">
         <v>102.99</v>
@@ -1484,6 +1534,9 @@
       <c r="R17" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S17" t="n">
+        <v>4.215465061664195</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1512,7 +1565,7 @@
         <v>97.7</v>
       </c>
       <c r="H18" t="n">
-        <v>85.81999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="I18" t="n">
         <v>103.05</v>
@@ -1544,6 +1597,9 @@
       <c r="R18" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S18" t="n">
+        <v>4.383974133786643</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1572,7 +1628,7 @@
         <v>99.31999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>88.88</v>
+        <v>31.6</v>
       </c>
       <c r="I19" t="n">
         <v>102.66</v>
@@ -1604,6 +1660,9 @@
       <c r="R19" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S19" t="n">
+        <v>4.552227443526062</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1632,7 +1691,7 @@
         <v>105.44</v>
       </c>
       <c r="H20" t="n">
-        <v>91.03999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="I20" t="n">
         <v>102.79</v>
@@ -1664,6 +1723,9 @@
       <c r="R20" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S20" t="n">
+        <v>3.909536294463646</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1692,7 +1754,7 @@
         <v>93.56</v>
       </c>
       <c r="H21" t="n">
-        <v>76.81999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="I21" t="n">
         <v>103.15</v>
@@ -1724,6 +1786,9 @@
       <c r="R21" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S21" t="n">
+        <v>3.817787064025349</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1752,7 +1817,7 @@
         <v>102.2</v>
       </c>
       <c r="H22" t="n">
-        <v>88.34</v>
+        <v>31.3</v>
       </c>
       <c r="I22" t="n">
         <v>102.78</v>
@@ -1784,6 +1849,9 @@
       <c r="R22" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S22" t="n">
+        <v>4.030872487858276</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1812,7 +1880,7 @@
         <v>110.84</v>
       </c>
       <c r="H23" t="n">
-        <v>105.8</v>
+        <v>41</v>
       </c>
       <c r="I23" t="n">
         <v>102.24</v>
@@ -1844,6 +1912,9 @@
       <c r="R23" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S23" t="n">
+        <v>5.075066343798999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1872,7 +1943,7 @@
         <v>104.72</v>
       </c>
       <c r="H24" t="n">
-        <v>97.52</v>
+        <v>36.4</v>
       </c>
       <c r="I24" t="n">
         <v>102.34</v>
@@ -1904,6 +1975,9 @@
       <c r="R24" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S24" t="n">
+        <v>4.899837058273808</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1932,7 +2006,7 @@
         <v>96.62</v>
       </c>
       <c r="H25" t="n">
-        <v>83.30000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="I25" t="n">
         <v>102.48</v>
@@ -1964,6 +2038,9 @@
       <c r="R25" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S25" t="n">
+        <v>4.208034985707405</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1992,7 +2069,7 @@
         <v>97.34</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14</v>
+        <v>27.3</v>
       </c>
       <c r="I26" t="n">
         <v>102.55</v>
@@ -2024,6 +2101,9 @@
       <c r="R26" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S26" t="n">
+        <v>3.819715039539261</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2052,7 +2132,7 @@
         <v>103.64</v>
       </c>
       <c r="H27" t="n">
-        <v>89.42</v>
+        <v>31.9</v>
       </c>
       <c r="I27" t="n">
         <v>102.72</v>
@@ -2084,6 +2164,9 @@
       <c r="R27" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S27" t="n">
+        <v>3.960878069625822</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2112,7 +2195,7 @@
         <v>100.94</v>
       </c>
       <c r="H28" t="n">
-        <v>82.40000000000001</v>
+        <v>28</v>
       </c>
       <c r="I28" t="n">
         <v>102.99</v>
@@ -2144,6 +2227,9 @@
       <c r="R28" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S28" t="n">
+        <v>3.487558116880566</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2172,7 +2258,7 @@
         <v>97.34</v>
       </c>
       <c r="H29" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I29" t="n">
         <v>102.9</v>
@@ -2204,6 +2290,9 @@
       <c r="R29" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S29" t="n">
+        <v>3.177781457986382</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2232,7 +2321,7 @@
         <v>96.44</v>
       </c>
       <c r="H30" t="n">
-        <v>78.08000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="I30" t="n">
         <v>102.55</v>
@@ -2264,6 +2353,9 @@
       <c r="R30" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S30" t="n">
+        <v>3.572347955171153</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2292,7 +2384,7 @@
         <v>91.58000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>73.03999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="I31" t="n">
         <v>102.71</v>
@@ -2324,6 +2416,9 @@
       <c r="R31" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S31" t="n">
+        <v>3.62801392212199</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2352,7 +2447,7 @@
         <v>97.7</v>
       </c>
       <c r="H32" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I32" t="n">
         <v>102.76</v>
@@ -2384,6 +2479,9 @@
       <c r="R32" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S32" t="n">
+        <v>3.368913371472221</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2412,7 +2510,7 @@
         <v>92.30000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>69.80000000000001</v>
+        <v>21</v>
       </c>
       <c r="I33" t="n">
         <v>103.23</v>
@@ -2444,6 +2542,9 @@
       <c r="R33" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S33" t="n">
+        <v>3.161982696500689</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2472,7 +2573,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>78.25999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="I34" t="n">
         <v>103.08</v>
@@ -2504,6 +2605,9 @@
       <c r="R34" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S34" t="n">
+        <v>3.923139521016574</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2532,7 +2636,7 @@
         <v>92.48</v>
       </c>
       <c r="H35" t="n">
-        <v>77.53999999999999</v>
+        <v>25.3</v>
       </c>
       <c r="I35" t="n">
         <v>102.9</v>
@@ -2564,6 +2668,9 @@
       <c r="R35" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S35" t="n">
+        <v>4.073732661938293</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2592,7 +2699,7 @@
         <v>96.44</v>
       </c>
       <c r="H36" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I36" t="n">
         <v>103.04</v>
@@ -2624,6 +2731,9 @@
       <c r="R36" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S36" t="n">
+        <v>3.056384377374092</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2652,7 +2762,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>54.32</v>
+        <v>12.4</v>
       </c>
       <c r="I37" t="n">
         <v>103.41</v>
@@ -2684,6 +2794,9 @@
       <c r="R37" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S37" t="n">
+        <v>2.256756413004624</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2712,7 +2825,7 @@
         <v>94.46000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>70.52</v>
+        <v>21.4</v>
       </c>
       <c r="I38" t="n">
         <v>103.13</v>
@@ -2744,6 +2857,9 @@
       <c r="R38" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S38" t="n">
+        <v>2.985807691024982</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2772,7 +2888,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>90.68000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="I39" t="n">
         <v>102.87</v>
@@ -2804,6 +2920,9 @@
       <c r="R39" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S39" t="n">
+        <v>5.849314629370221</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2832,7 +2951,7 @@
         <v>96.08</v>
       </c>
       <c r="H40" t="n">
-        <v>82.03999999999999</v>
+        <v>27.8</v>
       </c>
       <c r="I40" t="n">
         <v>102.96</v>
@@ -2864,6 +2983,9 @@
       <c r="R40" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S40" t="n">
+        <v>4.121832613410833</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2892,7 +3014,7 @@
         <v>97.52</v>
       </c>
       <c r="H41" t="n">
-        <v>85.28</v>
+        <v>29.6</v>
       </c>
       <c r="I41" t="n">
         <v>102.6</v>
@@ -2924,6 +3046,9 @@
       <c r="R41" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S41" t="n">
+        <v>4.337612428710012</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2952,7 +3077,7 @@
         <v>99.31999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>89.06</v>
+        <v>31.7</v>
       </c>
       <c r="I42" t="n">
         <v>102.57</v>
@@ -2984,6 +3109,9 @@
       <c r="R42" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S42" t="n">
+        <v>4.578172530657307</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3012,7 +3140,7 @@
         <v>108.32</v>
       </c>
       <c r="H43" t="n">
-        <v>95.18000000000001</v>
+        <v>35.1</v>
       </c>
       <c r="I43" t="n">
         <v>102.62</v>
@@ -3044,6 +3172,9 @@
       <c r="R43" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S43" t="n">
+        <v>4.019023514360978</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3072,7 +3203,7 @@
         <v>111.38</v>
       </c>
       <c r="H44" t="n">
-        <v>99.86000000000001</v>
+        <v>37.7</v>
       </c>
       <c r="I44" t="n">
         <v>102.44</v>
@@ -3104,6 +3235,9 @@
       <c r="R44" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S44" t="n">
+        <v>4.171942533212567</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3132,7 +3266,7 @@
         <v>98.78</v>
       </c>
       <c r="H45" t="n">
-        <v>93.92</v>
+        <v>34.4</v>
       </c>
       <c r="I45" t="n">
         <v>102.38</v>
@@ -3164,6 +3298,9 @@
       <c r="R45" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S45" t="n">
+        <v>5.435775735509703</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3192,7 +3329,7 @@
         <v>101.66</v>
       </c>
       <c r="H46" t="n">
-        <v>87.44</v>
+        <v>30.8</v>
       </c>
       <c r="I46" t="n">
         <v>102.68</v>
@@ -3224,6 +3361,9 @@
       <c r="R46" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S46" t="n">
+        <v>3.994483194877776</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3252,7 +3392,7 @@
         <v>93.56</v>
       </c>
       <c r="H47" t="n">
-        <v>80.24000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="I47" t="n">
         <v>102.73</v>
@@ -3284,6 +3424,9 @@
       <c r="R47" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S47" t="n">
+        <v>4.273163895756954</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3312,7 +3455,7 @@
         <v>92.66</v>
       </c>
       <c r="H48" t="n">
-        <v>74.12</v>
+        <v>23.4</v>
       </c>
       <c r="I48" t="n">
         <v>102.92</v>
@@ -3344,6 +3487,9 @@
       <c r="R48" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S48" t="n">
+        <v>3.610164244104431</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3372,7 +3518,7 @@
         <v>93.73999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>73.75999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="I49" t="n">
         <v>103.07</v>
@@ -3404,6 +3550,9 @@
       <c r="R49" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S49" t="n">
+        <v>3.423538019124765</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3432,7 +3581,7 @@
         <v>99.31999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>87.62</v>
+        <v>30.9</v>
       </c>
       <c r="I50" t="n">
         <v>102.92</v>
@@ -3464,6 +3613,9 @@
       <c r="R50" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S50" t="n">
+        <v>4.374175088795049</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3492,7 +3644,7 @@
         <v>93.02</v>
       </c>
       <c r="H51" t="n">
-        <v>56.12</v>
+        <v>13.4</v>
       </c>
       <c r="I51" t="n">
         <v>103.22</v>
@@ -3524,6 +3676,9 @@
       <c r="R51" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S51" t="n">
+        <v>1.901318631268581</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3552,7 +3707,7 @@
         <v>86.72</v>
       </c>
       <c r="H52" t="n">
-        <v>55.58</v>
+        <v>13.1</v>
       </c>
       <c r="I52" t="n">
         <v>103.28</v>
@@ -3584,6 +3739,9 @@
       <c r="R52" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S52" t="n">
+        <v>2.379510270937543</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3612,7 +3770,7 @@
         <v>100.4</v>
       </c>
       <c r="H53" t="n">
-        <v>68.18000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="I53" t="n">
         <v>103.19</v>
@@ -3644,6 +3802,9 @@
       <c r="R53" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S53" t="n">
+        <v>2.211933830935885</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3672,7 +3833,7 @@
         <v>100.58</v>
       </c>
       <c r="H54" t="n">
-        <v>73.22</v>
+        <v>22.9</v>
       </c>
       <c r="I54" t="n">
         <v>103.54</v>
@@ -3704,6 +3865,9 @@
       <c r="R54" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S54" t="n">
+        <v>2.608776222436686</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3732,7 +3896,7 @@
         <v>89.42</v>
       </c>
       <c r="H55" t="n">
-        <v>69.62</v>
+        <v>20.9</v>
       </c>
       <c r="I55" t="n">
         <v>103.61</v>
@@ -3764,6 +3928,9 @@
       <c r="R55" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S55" t="n">
+        <v>3.510960322500214</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3792,7 +3959,7 @@
         <v>98.60000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>71.78</v>
+        <v>22.1</v>
       </c>
       <c r="I56" t="n">
         <v>103.23</v>
@@ -3824,6 +3991,9 @@
       <c r="R56" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S56" t="n">
+        <v>2.671415195880719</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3852,7 +4022,7 @@
         <v>108.86</v>
       </c>
       <c r="H57" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I57" t="n">
         <v>102.58</v>
@@ -3884,6 +4054,9 @@
       <c r="R57" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S57" t="n">
+        <v>2.259613782500965</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3912,7 +4085,7 @@
         <v>111.02</v>
       </c>
       <c r="H58" t="n">
-        <v>82.75999999999999</v>
+        <v>28.2</v>
       </c>
       <c r="I58" t="n">
         <v>102.3</v>
@@ -3944,6 +4117,9 @@
       <c r="R58" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S58" t="n">
+        <v>2.473645381766536</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3972,7 +4148,7 @@
         <v>112.1</v>
       </c>
       <c r="H59" t="n">
-        <v>87.98</v>
+        <v>31.1</v>
       </c>
       <c r="I59" t="n">
         <v>102.26</v>
@@ -4004,6 +4180,9 @@
       <c r="R59" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S59" t="n">
+        <v>2.818131364293802</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4032,7 +4211,7 @@
         <v>124.52</v>
       </c>
       <c r="H60" t="n">
-        <v>114.44</v>
+        <v>45.8</v>
       </c>
       <c r="I60" t="n">
         <v>101.62</v>
@@ -4064,6 +4243,9 @@
       <c r="R60" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S60" t="n">
+        <v>4.153280919924971</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4092,7 +4274,7 @@
         <v>103.28</v>
       </c>
       <c r="H61" t="n">
-        <v>87.80000000000001</v>
+        <v>31</v>
       </c>
       <c r="I61" t="n">
         <v>102.27</v>
@@ -4124,6 +4306,9 @@
       <c r="R61" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S61" t="n">
+        <v>3.81182852330894</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4152,7 +4337,7 @@
         <v>112.64</v>
       </c>
       <c r="H62" t="n">
-        <v>86.53999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="I62" t="n">
         <v>102.02</v>
@@ -4184,6 +4369,9 @@
       <c r="R62" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S62" t="n">
+        <v>2.643083273722761</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4212,7 +4400,7 @@
         <v>127.22</v>
       </c>
       <c r="H63" t="n">
-        <v>100.58</v>
+        <v>38.1</v>
       </c>
       <c r="I63" t="n">
         <v>101.59</v>
@@ -4244,6 +4432,9 @@
       <c r="R63" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S63" t="n">
+        <v>2.539777116532068</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4272,7 +4463,7 @@
         <v>132.62</v>
       </c>
       <c r="H64" t="n">
-        <v>94.28</v>
+        <v>34.6</v>
       </c>
       <c r="I64" t="n">
         <v>101.46</v>
@@ -4304,6 +4495,9 @@
       <c r="R64" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S64" t="n">
+        <v>1.773844240514543</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4332,7 +4526,7 @@
         <v>107.42</v>
       </c>
       <c r="H65" t="n">
-        <v>76.28</v>
+        <v>24.6</v>
       </c>
       <c r="I65" t="n">
         <v>102.41</v>
@@ -4364,6 +4558,9 @@
       <c r="R65" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S65" t="n">
+        <v>2.264956087565531</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4392,7 +4589,7 @@
         <v>107.06</v>
       </c>
       <c r="H66" t="n">
-        <v>84.92</v>
+        <v>29.4</v>
       </c>
       <c r="I66" t="n">
         <v>102.48</v>
@@ -4424,6 +4621,9 @@
       <c r="R66" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S66" t="n">
+        <v>3.041723131895972</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4452,7 +4652,7 @@
         <v>117.68</v>
       </c>
       <c r="H67" t="n">
-        <v>93.2</v>
+        <v>34</v>
       </c>
       <c r="I67" t="n">
         <v>102.03</v>
@@ -4484,6 +4684,9 @@
       <c r="R67" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S67" t="n">
+        <v>2.753540386552192</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4512,7 +4715,7 @@
         <v>124.16</v>
       </c>
       <c r="H68" t="n">
-        <v>108.32</v>
+        <v>42.4</v>
       </c>
       <c r="I68" t="n">
         <v>101.84</v>
@@ -4544,6 +4747,9 @@
       <c r="R68" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S68" t="n">
+        <v>3.52005743774157</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4572,7 +4778,7 @@
         <v>126.5</v>
       </c>
       <c r="H69" t="n">
-        <v>106.7</v>
+        <v>41.5</v>
       </c>
       <c r="I69" t="n">
         <v>101.97</v>
@@ -4604,6 +4810,9 @@
       <c r="R69" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S69" t="n">
+        <v>3.11721650022832</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4632,7 +4841,7 @@
         <v>130.82</v>
       </c>
       <c r="H70" t="n">
-        <v>121.1</v>
+        <v>49.5</v>
       </c>
       <c r="I70" t="n">
         <v>101.48</v>
@@ -4664,6 +4873,9 @@
       <c r="R70" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S70" t="n">
+        <v>4.116233059765093</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4692,7 +4904,7 @@
         <v>119.84</v>
       </c>
       <c r="H71" t="n">
-        <v>117.86</v>
+        <v>47.7</v>
       </c>
       <c r="I71" t="n">
         <v>101.71</v>
@@ -4724,6 +4936,9 @@
       <c r="R71" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S71" t="n">
+        <v>5.320293568701362</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4752,7 +4967,7 @@
         <v>138.56</v>
       </c>
       <c r="H72" t="n">
-        <v>129.92</v>
+        <v>54.4</v>
       </c>
       <c r="I72" t="n">
         <v>101.04</v>
@@ -4784,6 +4999,9 @@
       <c r="R72" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S72" t="n">
+        <v>4.152112121146241</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4812,7 +5030,7 @@
         <v>122.9</v>
       </c>
       <c r="H73" t="n">
-        <v>121.28</v>
+        <v>49.6</v>
       </c>
       <c r="I73" t="n">
         <v>101.26</v>
@@ -4844,6 +5062,9 @@
       <c r="R73" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S73" t="n">
+        <v>5.303738113693292</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4872,7 +5093,7 @@
         <v>124.16</v>
       </c>
       <c r="H74" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I74" t="n">
         <v>101.63</v>
@@ -4904,6 +5125,9 @@
       <c r="R74" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S74" t="n">
+        <v>3.671025166094231</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4932,7 +5156,7 @@
         <v>130.46</v>
       </c>
       <c r="H75" t="n">
-        <v>113.9</v>
+        <v>45.5</v>
       </c>
       <c r="I75" t="n">
         <v>101.24</v>
@@ -4964,6 +5188,9 @@
       <c r="R75" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S75" t="n">
+        <v>3.396529406725489</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4992,7 +5219,7 @@
         <v>125.6</v>
       </c>
       <c r="H76" t="n">
-        <v>118.4</v>
+        <v>48</v>
       </c>
       <c r="I76" t="n">
         <v>101.52</v>
@@ -5024,6 +5251,9 @@
       <c r="R76" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S76" t="n">
+        <v>4.490371422154462</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5052,7 +5282,7 @@
         <v>107.42</v>
       </c>
       <c r="H77" t="n">
-        <v>102.56</v>
+        <v>39.2</v>
       </c>
       <c r="I77" t="n">
         <v>101.6</v>
@@ -5084,6 +5314,9 @@
       <c r="R77" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S77" t="n">
+        <v>5.188195336949375</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5112,7 +5345,7 @@
         <v>115.7</v>
       </c>
       <c r="H78" t="n">
-        <v>99.31999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="I78" t="n">
         <v>101.28</v>
@@ -5144,6 +5377,9 @@
       <c r="R78" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S78" t="n">
+        <v>3.547437854386416</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5172,7 +5408,7 @@
         <v>103.82</v>
       </c>
       <c r="H79" t="n">
-        <v>87.98</v>
+        <v>31.1</v>
       </c>
       <c r="I79" t="n">
         <v>101.97</v>
@@ -5204,6 +5440,9 @@
       <c r="R79" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S79" t="n">
+        <v>3.76040448891151</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5232,7 +5471,7 @@
         <v>105.62</v>
       </c>
       <c r="H80" t="n">
-        <v>93.38</v>
+        <v>34.1</v>
       </c>
       <c r="I80" t="n">
         <v>102.27</v>
@@ -5264,6 +5503,9 @@
       <c r="R80" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S80" t="n">
+        <v>4.178643523979183</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5292,7 +5534,7 @@
         <v>110.66</v>
       </c>
       <c r="H81" t="n">
-        <v>100.94</v>
+        <v>38.3</v>
       </c>
       <c r="I81" t="n">
         <v>102.44</v>
@@ -5324,6 +5566,9 @@
       <c r="R81" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S81" t="n">
+        <v>4.41765280842003</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5352,7 +5597,7 @@
         <v>112.82</v>
       </c>
       <c r="H82" t="n">
-        <v>98.96000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="I82" t="n">
         <v>102.46</v>
@@ -5384,6 +5629,9 @@
       <c r="R82" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S82" t="n">
+        <v>3.865646334305886</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5412,7 +5660,7 @@
         <v>118.04</v>
       </c>
       <c r="H83" t="n">
-        <v>101.3</v>
+        <v>38.5</v>
       </c>
       <c r="I83" t="n">
         <v>101.9</v>
@@ -5444,6 +5692,9 @@
       <c r="R83" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S83" t="n">
+        <v>3.484923663541303</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5472,7 +5723,7 @@
         <v>129.38</v>
       </c>
       <c r="H84" t="n">
-        <v>116.06</v>
+        <v>46.7</v>
       </c>
       <c r="I84" t="n">
         <v>101.33</v>
@@ -5504,6 +5755,9 @@
       <c r="R84" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S84" t="n">
+        <v>3.734604788477859</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5532,7 +5786,7 @@
         <v>132.98</v>
       </c>
       <c r="H85" t="n">
-        <v>129.74</v>
+        <v>54.3</v>
       </c>
       <c r="I85" t="n">
         <v>100.53</v>
@@ -5564,6 +5818,9 @@
       <c r="R85" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S85" t="n">
+        <v>4.882622623412651</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5592,7 +5849,7 @@
         <v>127.58</v>
       </c>
       <c r="H86" t="n">
-        <v>97.16000000000001</v>
+        <v>36.2</v>
       </c>
       <c r="I86" t="n">
         <v>101.68</v>
@@ -5624,6 +5881,9 @@
       <c r="R86" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S86" t="n">
+        <v>2.263754370449039</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5652,7 +5912,7 @@
         <v>116.78</v>
       </c>
       <c r="H87" t="n">
-        <v>97.16000000000001</v>
+        <v>36.2</v>
       </c>
       <c r="I87" t="n">
         <v>102.38</v>
@@ -5684,6 +5944,9 @@
       <c r="R87" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S87" t="n">
+        <v>3.204647473036786</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5712,7 +5975,7 @@
         <v>114.8</v>
       </c>
       <c r="H88" t="n">
-        <v>95.18000000000001</v>
+        <v>35.1</v>
       </c>
       <c r="I88" t="n">
         <v>102.55</v>
@@ -5744,6 +6007,9 @@
       <c r="R88" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S88" t="n">
+        <v>3.221542633658133</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5772,7 +6038,7 @@
         <v>126.5</v>
       </c>
       <c r="H89" t="n">
-        <v>111.92</v>
+        <v>44.4</v>
       </c>
       <c r="I89" t="n">
         <v>101.92</v>
@@ -5804,6 +6070,9 @@
       <c r="R89" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S89" t="n">
+        <v>3.629197906767451</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5832,7 +6101,7 @@
         <v>128.3</v>
       </c>
       <c r="H90" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I90" t="n">
         <v>102.29</v>
@@ -5864,6 +6133,9 @@
       <c r="R90" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S90" t="n">
+        <v>3.961653754417245</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5892,7 +6164,7 @@
         <v>118.22</v>
       </c>
       <c r="H91" t="n">
-        <v>91.94</v>
+        <v>33.3</v>
       </c>
       <c r="I91" t="n">
         <v>103.16</v>
@@ -5924,6 +6196,9 @@
       <c r="R91" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S91" t="n">
+        <v>2.600991346385796</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5952,7 +6227,7 @@
         <v>109.04</v>
       </c>
       <c r="H92" t="n">
-        <v>88.88</v>
+        <v>31.6</v>
       </c>
       <c r="I92" t="n">
         <v>103.27</v>
@@ -5984,6 +6259,9 @@
       <c r="R92" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S92" t="n">
+        <v>3.220626556748297</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6012,7 +6290,7 @@
         <v>111.92</v>
       </c>
       <c r="H93" t="n">
-        <v>92.48</v>
+        <v>33.6</v>
       </c>
       <c r="I93" t="n">
         <v>103</v>
@@ -6044,6 +6322,9 @@
       <c r="R93" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S93" t="n">
+        <v>3.265999066596888</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6072,7 +6353,7 @@
         <v>118.94</v>
       </c>
       <c r="H94" t="n">
-        <v>98.96000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="I94" t="n">
         <v>102.91</v>
@@ -6104,6 +6385,9 @@
       <c r="R94" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S94" t="n">
+        <v>3.152614154272996</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6132,7 +6416,7 @@
         <v>126.86</v>
       </c>
       <c r="H95" t="n">
-        <v>105.44</v>
+        <v>40.8</v>
       </c>
       <c r="I95" t="n">
         <v>102.59</v>
@@ -6164,6 +6448,9 @@
       <c r="R95" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S95" t="n">
+        <v>2.969713030420647</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6192,7 +6479,7 @@
         <v>130.82</v>
       </c>
       <c r="H96" t="n">
-        <v>119.12</v>
+        <v>48.4</v>
       </c>
       <c r="I96" t="n">
         <v>102.02</v>
@@ -6224,6 +6511,9 @@
       <c r="R96" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S96" t="n">
+        <v>3.894635345230648</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6252,7 +6542,7 @@
         <v>132.26</v>
       </c>
       <c r="H97" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I97" t="n">
         <v>102.02</v>
@@ -6284,6 +6574,9 @@
       <c r="R97" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S97" t="n">
+        <v>4.223740778679817</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6312,7 +6605,7 @@
         <v>125.24</v>
       </c>
       <c r="H98" t="n">
-        <v>123.08</v>
+        <v>50.6</v>
       </c>
       <c r="I98" t="n">
         <v>101.95</v>
@@ -6344,6 +6637,9 @@
       <c r="R98" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S98" t="n">
+        <v>5.174825704618188</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6372,7 +6668,7 @@
         <v>157.1</v>
       </c>
       <c r="H99" t="n">
-        <v>123.98</v>
+        <v>51.1</v>
       </c>
       <c r="I99" t="n">
         <v>101.32</v>
@@ -6404,6 +6700,9 @@
       <c r="R99" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S99" t="n">
+        <v>2.097258886958827</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6432,7 +6731,7 @@
         <v>156.2</v>
       </c>
       <c r="H100" t="n">
-        <v>126.5</v>
+        <v>52.5</v>
       </c>
       <c r="I100" t="n">
         <v>101.1</v>
@@ -6464,6 +6763,9 @@
       <c r="R100" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S100" t="n">
+        <v>2.302264865772472</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6492,7 +6794,7 @@
         <v>149.36</v>
       </c>
       <c r="H101" t="n">
-        <v>140.72</v>
+        <v>60.4</v>
       </c>
       <c r="I101" t="n">
         <v>100.97</v>
@@ -6524,6 +6826,9 @@
       <c r="R101" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S101" t="n">
+        <v>4.051888379559109</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6552,7 +6857,7 @@
         <v>159.44</v>
       </c>
       <c r="H102" t="n">
-        <v>144.14</v>
+        <v>62.3</v>
       </c>
       <c r="I102" t="n">
         <v>100.83</v>
@@ -6584,6 +6889,9 @@
       <c r="R102" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S102" t="n">
+        <v>3.364135123997142</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6612,7 +6920,7 @@
         <v>137.3</v>
       </c>
       <c r="H103" t="n">
-        <v>124.52</v>
+        <v>51.4</v>
       </c>
       <c r="I103" t="n">
         <v>101.21</v>
@@ -6644,6 +6952,9 @@
       <c r="R103" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S103" t="n">
+        <v>3.720841242411985</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6672,7 +6983,7 @@
         <v>125.6</v>
       </c>
       <c r="H104" t="n">
-        <v>113.9</v>
+        <v>45.5</v>
       </c>
       <c r="I104" t="n">
         <v>101.44</v>
@@ -6704,6 +7015,9 @@
       <c r="R104" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S104" t="n">
+        <v>3.952114070844789</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6732,7 +7046,7 @@
         <v>126.32</v>
       </c>
       <c r="H105" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I105" t="n">
         <v>102.02</v>
@@ -6764,6 +7078,9 @@
       <c r="R105" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S105" t="n">
+        <v>4.004942972395343</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6792,7 +7109,7 @@
         <v>130.28</v>
       </c>
       <c r="H106" t="n">
-        <v>99.31999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="I106" t="n">
         <v>102.36</v>
@@ -6824,6 +7141,9 @@
       <c r="R106" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S106" t="n">
+        <v>2.223282989072298</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6852,7 +7172,7 @@
         <v>124.88</v>
       </c>
       <c r="H107" t="n">
-        <v>90.13999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="I107" t="n">
         <v>102.23</v>
@@ -6884,6 +7204,9 @@
       <c r="R107" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S107" t="n">
+        <v>1.982743038879552</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6912,7 +7235,7 @@
         <v>134.42</v>
       </c>
       <c r="H108" t="n">
-        <v>104.18</v>
+        <v>40.1</v>
       </c>
       <c r="I108" t="n">
         <v>101.96</v>
@@ -6944,6 +7267,9 @@
       <c r="R108" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S108" t="n">
+        <v>2.267576536423368</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6972,7 +7298,7 @@
         <v>135.5</v>
       </c>
       <c r="H109" t="n">
-        <v>112.28</v>
+        <v>44.6</v>
       </c>
       <c r="I109" t="n">
         <v>101.9</v>
@@ -7004,6 +7330,9 @@
       <c r="R109" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S109" t="n">
+        <v>2.782198775402663</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7032,7 +7361,7 @@
         <v>151.7</v>
       </c>
       <c r="H110" t="n">
-        <v>130.28</v>
+        <v>54.6</v>
       </c>
       <c r="I110" t="n">
         <v>100.85</v>
@@ -7064,6 +7393,9 @@
       <c r="R110" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S110" t="n">
+        <v>2.883103270385092</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7092,7 +7424,7 @@
         <v>151.7</v>
       </c>
       <c r="H111" t="n">
-        <v>134.42</v>
+        <v>56.9</v>
       </c>
       <c r="I111" t="n">
         <v>101.1</v>
@@ -7124,6 +7456,9 @@
       <c r="R111" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S111" t="n">
+        <v>3.219986621824369</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7152,7 +7487,7 @@
         <v>141.44</v>
       </c>
       <c r="H112" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I112" t="n">
         <v>101.06</v>
@@ -7184,6 +7519,9 @@
       <c r="R112" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S112" t="n">
+        <v>4.386832497310284</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7212,7 +7550,7 @@
         <v>157.1</v>
       </c>
       <c r="H113" t="n">
-        <v>145.94</v>
+        <v>63.3</v>
       </c>
       <c r="I113" t="n">
         <v>100.87</v>
@@ -7244,6 +7582,9 @@
       <c r="R113" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S113" t="n">
+        <v>3.748685743521756</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7272,7 +7613,7 @@
         <v>140.54</v>
       </c>
       <c r="H114" t="n">
-        <v>140.54</v>
+        <v>60.3</v>
       </c>
       <c r="I114" t="n">
         <v>100.37</v>
@@ -7304,6 +7645,9 @@
       <c r="R114" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S114" t="n">
+        <v>5.186466961943744</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7332,7 +7676,7 @@
         <v>129.92</v>
       </c>
       <c r="H115" t="n">
-        <v>114.62</v>
+        <v>45.9</v>
       </c>
       <c r="I115" t="n">
         <v>101.76</v>
@@ -7364,6 +7708,9 @@
       <c r="R115" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S115" t="n">
+        <v>3.525316307258036</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7392,7 +7739,7 @@
         <v>127.58</v>
       </c>
       <c r="H116" t="n">
-        <v>111.92</v>
+        <v>44.4</v>
       </c>
       <c r="I116" t="n">
         <v>102.08</v>
@@ -7424,6 +7771,9 @@
       <c r="R116" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S116" t="n">
+        <v>3.508424280597342</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7452,7 +7802,7 @@
         <v>134.78</v>
       </c>
       <c r="H117" t="n">
-        <v>120.74</v>
+        <v>49.3</v>
       </c>
       <c r="I117" t="n">
         <v>102.06</v>
@@ -7484,6 +7834,9 @@
       <c r="R117" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S117" t="n">
+        <v>3.61314194403032</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7512,7 +7865,7 @@
         <v>138.02</v>
       </c>
       <c r="H118" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I118" t="n">
         <v>101.68</v>
@@ -7544,6 +7897,9 @@
       <c r="R118" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S118" t="n">
+        <v>2.399662110242281</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7572,7 +7928,7 @@
         <v>144.5</v>
       </c>
       <c r="H119" t="n">
-        <v>124.7</v>
+        <v>51.5</v>
       </c>
       <c r="I119" t="n">
         <v>101.74</v>
@@ -7604,6 +7960,9 @@
       <c r="R119" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S119" t="n">
+        <v>3.032005054911485</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7632,7 +7991,7 @@
         <v>148.28</v>
       </c>
       <c r="H120" t="n">
-        <v>123.44</v>
+        <v>50.8</v>
       </c>
       <c r="I120" t="n">
         <v>101.6</v>
@@ -7664,6 +8023,9 @@
       <c r="R120" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S120" t="n">
+        <v>2.631463830344464</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7692,7 +8054,7 @@
         <v>157.64</v>
       </c>
       <c r="H121" t="n">
-        <v>140.54</v>
+        <v>60.3</v>
       </c>
       <c r="I121" t="n">
         <v>101.29</v>
@@ -7724,6 +8086,9 @@
       <c r="R121" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S121" t="n">
+        <v>3.217029314569626</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7752,7 +8117,7 @@
         <v>159.08</v>
       </c>
       <c r="H122" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I122" t="n">
         <v>101.37</v>
@@ -7784,6 +8149,9 @@
       <c r="R122" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S122" t="n">
+        <v>3.621329813115005</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7812,7 +8180,7 @@
         <v>132.26</v>
       </c>
       <c r="H123" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I123" t="n">
         <v>102.06</v>
@@ -7844,6 +8212,9 @@
       <c r="R123" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S123" t="n">
+        <v>4.394387333614861</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7872,7 +8243,7 @@
         <v>139.46</v>
       </c>
       <c r="H124" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I124" t="n">
         <v>101.94</v>
@@ -7904,6 +8275,9 @@
       <c r="R124" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S124" t="n">
+        <v>2.686750639318555</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7932,7 +8306,7 @@
         <v>134.96</v>
       </c>
       <c r="H125" t="n">
-        <v>124.7</v>
+        <v>51.5</v>
       </c>
       <c r="I125" t="n">
         <v>101.78</v>
@@ -7964,6 +8338,9 @@
       <c r="R125" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S125" t="n">
+        <v>4.009860896670469</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7992,7 +8369,7 @@
         <v>143.96</v>
       </c>
       <c r="H126" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I126" t="n">
         <v>101.52</v>
@@ -8024,6 +8401,9 @@
       <c r="R126" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S126" t="n">
+        <v>4.079239191422951</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8052,7 +8432,7 @@
         <v>145.22</v>
       </c>
       <c r="H127" t="n">
-        <v>129.02</v>
+        <v>53.9</v>
       </c>
       <c r="I127" t="n">
         <v>101.35</v>
@@ -8084,6 +8464,9 @@
       <c r="R127" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S127" t="n">
+        <v>3.341387588173027</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8112,7 +8495,7 @@
         <v>129.92</v>
       </c>
       <c r="H128" t="n">
-        <v>122.54</v>
+        <v>50.3</v>
       </c>
       <c r="I128" t="n">
         <v>101.53</v>
@@ -8144,6 +8527,9 @@
       <c r="R128" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S128" t="n">
+        <v>4.404505278985467</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8172,7 +8558,7 @@
         <v>145.94</v>
       </c>
       <c r="H129" t="n">
-        <v>117.5</v>
+        <v>47.5</v>
       </c>
       <c r="I129" t="n">
         <v>101.76</v>
@@ -8204,6 +8590,9 @@
       <c r="R129" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S129" t="n">
+        <v>2.381512573282579</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8232,7 +8621,7 @@
         <v>142.88</v>
       </c>
       <c r="H130" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I130" t="n">
         <v>101.53</v>
@@ -8264,6 +8653,9 @@
       <c r="R130" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S130" t="n">
+        <v>2.115226237092061</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8292,7 +8684,7 @@
         <v>162.32</v>
       </c>
       <c r="H131" t="n">
-        <v>125.78</v>
+        <v>52.1</v>
       </c>
       <c r="I131" t="n">
         <v>101.3</v>
@@ -8324,6 +8716,9 @@
       <c r="R131" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S131" t="n">
+        <v>1.919156767781868</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8352,7 +8747,7 @@
         <v>160.88</v>
       </c>
       <c r="H132" t="n">
-        <v>127.4</v>
+        <v>53</v>
       </c>
       <c r="I132" t="n">
         <v>101.68</v>
@@ -8384,6 +8779,9 @@
       <c r="R132" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S132" t="n">
+        <v>2.083029451489529</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8412,7 +8810,7 @@
         <v>156.74</v>
       </c>
       <c r="H133" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I133" t="n">
         <v>101.47</v>
@@ -8444,6 +8842,9 @@
       <c r="R133" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S133" t="n">
+        <v>2.181421868594748</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8472,7 +8873,7 @@
         <v>161.6</v>
       </c>
       <c r="H134" t="n">
-        <v>132.26</v>
+        <v>55.7</v>
       </c>
       <c r="I134" t="n">
         <v>101.2</v>
@@ -8504,6 +8905,9 @@
       <c r="R134" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S134" t="n">
+        <v>2.32999119717423</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8532,7 +8936,7 @@
         <v>156.56</v>
       </c>
       <c r="H135" t="n">
-        <v>140.36</v>
+        <v>60.2</v>
       </c>
       <c r="I135" t="n">
         <v>100.99</v>
@@ -8564,6 +8968,9 @@
       <c r="R135" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S135" t="n">
+        <v>3.296136190071571</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8592,7 +8999,7 @@
         <v>162.68</v>
       </c>
       <c r="H136" t="n">
-        <v>134.96</v>
+        <v>57.2</v>
       </c>
       <c r="I136" t="n">
         <v>100.87</v>
@@ -8624,6 +9031,9 @@
       <c r="R136" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S136" t="n">
+        <v>2.433568503881001</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8652,7 +9062,7 @@
         <v>162.32</v>
       </c>
       <c r="H137" t="n">
-        <v>136.76</v>
+        <v>58.2</v>
       </c>
       <c r="I137" t="n">
         <v>101.2</v>
@@ -8684,6 +9094,9 @@
       <c r="R137" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S137" t="n">
+        <v>2.575858183549755</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8712,7 +9125,7 @@
         <v>152.6</v>
       </c>
       <c r="H138" t="n">
-        <v>138.56</v>
+        <v>59.2</v>
       </c>
       <c r="I138" t="n">
         <v>101.07</v>
@@ -8744,6 +9157,9 @@
       <c r="R138" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S138" t="n">
+        <v>3.50247644632052</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8772,7 +9188,7 @@
         <v>146.48</v>
       </c>
       <c r="H139" t="n">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="I139" t="n">
         <v>100.73</v>
@@ -8804,6 +9220,9 @@
       <c r="R139" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S139" t="n">
+        <v>3.400552613116648</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8832,7 +9251,7 @@
         <v>167</v>
       </c>
       <c r="H140" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I140" t="n">
         <v>100.5</v>
@@ -8864,6 +9283,9 @@
       <c r="R140" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S140" t="n">
+        <v>2.166517509988767</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8892,7 +9314,7 @@
         <v>167</v>
       </c>
       <c r="H141" t="n">
-        <v>147.56</v>
+        <v>64.2</v>
       </c>
       <c r="I141" t="n">
         <v>100.24</v>
@@ -8924,6 +9346,9 @@
       <c r="R141" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S141" t="n">
+        <v>3.014389522502719</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8952,7 +9377,7 @@
         <v>159.8</v>
       </c>
       <c r="H142" t="n">
-        <v>154.4</v>
+        <v>68</v>
       </c>
       <c r="I142" t="n">
         <v>100.1</v>
@@ -8984,6 +9409,9 @@
       <c r="R142" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S142" t="n">
+        <v>4.310708336090636</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9012,7 +9440,7 @@
         <v>145.58</v>
       </c>
       <c r="H143" t="n">
-        <v>127.4</v>
+        <v>53</v>
       </c>
       <c r="I143" t="n">
         <v>100.78</v>
@@ -9044,6 +9472,9 @@
       <c r="R143" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S143" t="n">
+        <v>3.165242750481292</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9072,7 +9503,7 @@
         <v>162.14</v>
       </c>
       <c r="H144" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I144" t="n">
         <v>100.41</v>
@@ -9104,6 +9535,9 @@
       <c r="R144" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S144" t="n">
+        <v>3.005859881921209</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9132,7 +9566,7 @@
         <v>169.7</v>
       </c>
       <c r="H145" t="n">
-        <v>156.38</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I145" t="n">
         <v>100.51</v>
@@ -9164,6 +9598,9 @@
       <c r="R145" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S145" t="n">
+        <v>3.504664207810108</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9192,7 +9629,7 @@
         <v>163.76</v>
       </c>
       <c r="H146" t="n">
-        <v>163.58</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I146" t="n">
         <v>100.28</v>
@@ -9224,6 +9661,9 @@
       <c r="R146" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S146" t="n">
+        <v>4.854321723838777</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9252,7 +9692,7 @@
         <v>157.82</v>
       </c>
       <c r="H147" t="n">
-        <v>154.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I147" t="n">
         <v>100.04</v>
@@ -9284,6 +9724,9 @@
       <c r="R147" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S147" t="n">
+        <v>4.523574166997552</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9312,7 +9755,7 @@
         <v>166.82</v>
       </c>
       <c r="H148" t="n">
-        <v>151.52</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I148" t="n">
         <v>100.25</v>
@@ -9344,6 +9787,9 @@
       <c r="R148" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S148" t="n">
+        <v>3.34431981646555</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9372,7 +9818,7 @@
         <v>154.4</v>
       </c>
       <c r="H149" t="n">
-        <v>135.5</v>
+        <v>57.5</v>
       </c>
       <c r="I149" t="n">
         <v>100.94</v>
@@ -9404,6 +9850,9 @@
       <c r="R149" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S149" t="n">
+        <v>3.077295984729095</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9432,7 +9881,7 @@
         <v>161.42</v>
       </c>
       <c r="H150" t="n">
-        <v>147.92</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I150" t="n">
         <v>100.88</v>
@@ -9464,6 +9913,9 @@
       <c r="R150" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S150" t="n">
+        <v>3.514580797834196</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9492,7 +9944,7 @@
         <v>169.16</v>
       </c>
       <c r="H151" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I151" t="n">
         <v>100.98</v>
@@ -9524,6 +9976,9 @@
       <c r="R151" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S151" t="n">
+        <v>3.537132853136223</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9552,7 +10007,7 @@
         <v>162.68</v>
       </c>
       <c r="H152" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I152" t="n">
         <v>101.01</v>
@@ -9584,6 +10039,9 @@
       <c r="R152" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S152" t="n">
+        <v>3.926299133817076</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9612,7 +10070,7 @@
         <v>158.18</v>
       </c>
       <c r="H153" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I153" t="n">
         <v>100.55</v>
@@ -9644,6 +10102,9 @@
       <c r="R153" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S153" t="n">
+        <v>3.899158582852099</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9672,7 +10133,7 @@
         <v>170.78</v>
       </c>
       <c r="H154" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I154" t="n">
         <v>100.69</v>
@@ -9704,6 +10165,9 @@
       <c r="R154" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S154" t="n">
+        <v>2.879372491997165</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9732,7 +10196,7 @@
         <v>181.4</v>
       </c>
       <c r="H155" t="n">
-        <v>159.44</v>
+        <v>70.8</v>
       </c>
       <c r="I155" t="n">
         <v>100.44</v>
@@ -9764,6 +10228,9 @@
       <c r="R155" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S155" t="n">
+        <v>2.8343470302325</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9792,7 +10259,7 @@
         <v>185.54</v>
       </c>
       <c r="H156" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I156" t="n">
         <v>100.38</v>
@@ -9824,6 +10291,9 @@
       <c r="R156" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S156" t="n">
+        <v>2.814991010441497</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9852,7 +10322,7 @@
         <v>182.3</v>
       </c>
       <c r="H157" t="n">
-        <v>161.24</v>
+        <v>71.8</v>
       </c>
       <c r="I157" t="n">
         <v>100.36</v>
@@ -9884,6 +10354,9 @@
       <c r="R157" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S157" t="n">
+        <v>2.897434759443291</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9912,7 +10385,7 @@
         <v>184.28</v>
       </c>
       <c r="H158" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I158" t="n">
         <v>100.29</v>
@@ -9944,6 +10417,9 @@
       <c r="R158" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S158" t="n">
+        <v>3.765384003505978</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9972,7 +10448,7 @@
         <v>194.18</v>
       </c>
       <c r="H159" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I159" t="n">
         <v>100.21</v>
@@ -10004,6 +10480,9 @@
       <c r="R159" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S159" t="n">
+        <v>2.75975181659329</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10032,7 +10511,7 @@
         <v>181.58</v>
       </c>
       <c r="H160" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I160" t="n">
         <v>100.66</v>
@@ -10064,6 +10543,9 @@
       <c r="R160" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S160" t="n">
+        <v>3.438346166098706</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10092,7 +10574,7 @@
         <v>182.12</v>
       </c>
       <c r="H161" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I161" t="n">
         <v>100.85</v>
@@ -10124,6 +10606,9 @@
       <c r="R161" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S161" t="n">
+        <v>3.496279769385999</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10152,7 +10637,7 @@
         <v>178.34</v>
       </c>
       <c r="H162" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I162" t="n">
         <v>100.35</v>
@@ -10184,6 +10669,9 @@
       <c r="R162" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S162" t="n">
+        <v>4.302539928312815</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10212,7 +10700,7 @@
         <v>190.04</v>
       </c>
       <c r="H163" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I163" t="n">
         <v>99.95</v>
@@ -10244,6 +10732,9 @@
       <c r="R163" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S163" t="n">
+        <v>3.173722826723297</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10272,7 +10763,7 @@
         <v>179.6</v>
       </c>
       <c r="H164" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I164" t="n">
         <v>100.41</v>
@@ -10304,6 +10795,9 @@
       <c r="R164" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S164" t="n">
+        <v>3.888744926393533</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10332,7 +10826,7 @@
         <v>186.44</v>
       </c>
       <c r="H165" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I165" t="n">
         <v>100.28</v>
@@ -10364,6 +10858,9 @@
       <c r="R165" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S165" t="n">
+        <v>3.639460286892425</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10392,7 +10889,7 @@
         <v>190.22</v>
       </c>
       <c r="H166" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I166" t="n">
         <v>100.28</v>
@@ -10424,6 +10921,9 @@
       <c r="R166" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S166" t="n">
+        <v>3.200309157123096</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10452,7 +10952,7 @@
         <v>194.54</v>
       </c>
       <c r="H167" t="n">
-        <v>179.78</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="I167" t="n">
         <v>100.14</v>
@@ -10484,6 +10984,9 @@
       <c r="R167" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S167" t="n">
+        <v>3.364071158488392</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10512,7 +11015,7 @@
         <v>182.84</v>
       </c>
       <c r="H168" t="n">
-        <v>176.72</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I168" t="n">
         <v>100.19</v>
@@ -10544,6 +11047,9 @@
       <c r="R168" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S168" t="n">
+        <v>4.109710768145048</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10572,7 +11078,7 @@
         <v>177.62</v>
       </c>
       <c r="H169" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I169" t="n">
         <v>100.04</v>
@@ -10604,6 +11110,9 @@
       <c r="R169" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S169" t="n">
+        <v>4.306242717587044</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10632,7 +11141,7 @@
         <v>180.86</v>
       </c>
       <c r="H170" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I170" t="n">
         <v>100.43</v>
@@ -10664,6 +11173,9 @@
       <c r="R170" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S170" t="n">
+        <v>3.602814181958251</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10692,7 +11204,7 @@
         <v>170.6</v>
       </c>
       <c r="H171" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I171" t="n">
         <v>100.45</v>
@@ -10724,6 +11236,9 @@
       <c r="R171" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S171" t="n">
+        <v>4.710326060104493</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10752,7 +11267,7 @@
         <v>177.98</v>
       </c>
       <c r="H172" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I172" t="n">
         <v>100.83</v>
@@ -10784,6 +11299,9 @@
       <c r="R172" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S172" t="n">
+        <v>3.6546954207805</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10812,7 +11330,7 @@
         <v>183.38</v>
       </c>
       <c r="H173" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I173" t="n">
         <v>100.59</v>
@@ -10844,6 +11362,9 @@
       <c r="R173" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S173" t="n">
+        <v>3.308647190096039</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10872,7 +11393,7 @@
         <v>174.38</v>
       </c>
       <c r="H174" t="n">
-        <v>161.42</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I174" t="n">
         <v>100.7</v>
@@ -10904,6 +11425,9 @@
       <c r="R174" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S174" t="n">
+        <v>3.524250188909957</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10932,7 +11456,7 @@
         <v>178.16</v>
       </c>
       <c r="H175" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I175" t="n">
         <v>100.62</v>
@@ -10964,6 +11488,9 @@
       <c r="R175" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S175" t="n">
+        <v>3.992602641019454</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10992,7 +11519,7 @@
         <v>179.78</v>
       </c>
       <c r="H176" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I176" t="n">
         <v>100.48</v>
@@ -11024,6 +11551,9 @@
       <c r="R176" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S176" t="n">
+        <v>4.087475779503304</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11052,7 +11582,7 @@
         <v>177.44</v>
       </c>
       <c r="H177" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I177" t="n">
         <v>100.28</v>
@@ -11084,6 +11614,9 @@
       <c r="R177" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S177" t="n">
+        <v>4.343077694449044</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -11112,7 +11645,7 @@
         <v>181.4</v>
       </c>
       <c r="H178" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I178" t="n">
         <v>100.54</v>
@@ -11144,6 +11677,9 @@
       <c r="R178" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S178" t="n">
+        <v>3.867282845669359</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11172,7 +11708,7 @@
         <v>188.6</v>
       </c>
       <c r="H179" t="n">
-        <v>176.54</v>
+        <v>80.3</v>
       </c>
       <c r="I179" t="n">
         <v>100.82</v>
@@ -11204,6 +11740,9 @@
       <c r="R179" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S179" t="n">
+        <v>3.57770174408614</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -11232,7 +11771,7 @@
         <v>183.56</v>
       </c>
       <c r="H180" t="n">
-        <v>178.52</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="I180" t="n">
         <v>100.78</v>
@@ -11264,6 +11803,9 @@
       <c r="R180" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S180" t="n">
+        <v>4.208995516260591</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11292,7 +11834,7 @@
         <v>190.4</v>
       </c>
       <c r="H181" t="n">
-        <v>180.14</v>
+        <v>82.3</v>
       </c>
       <c r="I181" t="n">
         <v>100.67</v>
@@ -11324,6 +11866,9 @@
       <c r="R181" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S181" t="n">
+        <v>3.724691268812722</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11352,7 +11897,7 @@
         <v>187.52</v>
       </c>
       <c r="H182" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I182" t="n">
         <v>100.44</v>
@@ -11384,6 +11929,9 @@
       <c r="R182" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S182" t="n">
+        <v>3.225941303431528</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11412,7 +11960,7 @@
         <v>195.98</v>
       </c>
       <c r="H183" t="n">
-        <v>174.56</v>
+        <v>79.2</v>
       </c>
       <c r="I183" t="n">
         <v>100.42</v>
@@ -11444,6 +11992,9 @@
       <c r="R183" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S183" t="n">
+        <v>2.89276558980051</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11472,7 +12023,7 @@
         <v>187.34</v>
       </c>
       <c r="H184" t="n">
-        <v>179.24</v>
+        <v>81.8</v>
       </c>
       <c r="I184" t="n">
         <v>100.45</v>
@@ -11504,6 +12055,9 @@
       <c r="R184" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S184" t="n">
+        <v>3.916169966476999</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11532,7 +12086,7 @@
         <v>188.42</v>
       </c>
       <c r="H185" t="n">
-        <v>182.84</v>
+        <v>83.8</v>
       </c>
       <c r="I185" t="n">
         <v>100.51</v>
@@ -11564,6 +12118,9 @@
       <c r="R185" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S185" t="n">
+        <v>4.141118767684818</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11592,7 +12149,7 @@
         <v>194.54</v>
       </c>
       <c r="H186" t="n">
-        <v>178.88</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="I186" t="n">
         <v>100.36</v>
@@ -11624,6 +12181,9 @@
       <c r="R186" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S186" t="n">
+        <v>3.296390659434218</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11652,7 +12212,7 @@
         <v>194.72</v>
       </c>
       <c r="H187" t="n">
-        <v>176.36</v>
+        <v>80.2</v>
       </c>
       <c r="I187" t="n">
         <v>100.24</v>
@@ -11684,6 +12244,9 @@
       <c r="R187" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S187" t="n">
+        <v>3.100467649214784</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11712,7 +12275,7 @@
         <v>178.16</v>
       </c>
       <c r="H188" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I188" t="n">
         <v>100.76</v>
@@ -11744,6 +12307,9 @@
       <c r="R188" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S188" t="n">
+        <v>3.780167856383322</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11772,7 +12338,7 @@
         <v>165.02</v>
       </c>
       <c r="H189" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I189" t="n">
         <v>101</v>
@@ -11804,6 +12370,9 @@
       <c r="R189" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S189" t="n">
+        <v>3.597702578655682</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11832,7 +12401,7 @@
         <v>172.76</v>
       </c>
       <c r="H190" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I190" t="n">
         <v>100.95</v>
@@ -11864,6 +12433,9 @@
       <c r="R190" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S190" t="n">
+        <v>2.841051918222653</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11892,7 +12464,7 @@
         <v>163.94</v>
       </c>
       <c r="H191" t="n">
-        <v>141.08</v>
+        <v>60.6</v>
       </c>
       <c r="I191" t="n">
         <v>101.37</v>
@@ -11924,6 +12496,9 @@
       <c r="R191" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S191" t="n">
+        <v>2.763726092752738</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11952,7 +12527,7 @@
         <v>169.88</v>
       </c>
       <c r="H192" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I192" t="n">
         <v>101.23</v>
@@ -11984,6 +12559,9 @@
       <c r="R192" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S192" t="n">
+        <v>3.178693552944687</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -12012,7 +12590,7 @@
         <v>163.4</v>
       </c>
       <c r="H193" t="n">
-        <v>155.84</v>
+        <v>68.8</v>
       </c>
       <c r="I193" t="n">
         <v>101.28</v>
@@ -12044,6 +12622,9 @@
       <c r="R193" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S193" t="n">
+        <v>4.063709180602794</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -12072,7 +12653,7 @@
         <v>169.88</v>
       </c>
       <c r="H194" t="n">
-        <v>154.58</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I194" t="n">
         <v>101.54</v>
@@ -12104,6 +12685,9 @@
       <c r="R194" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S194" t="n">
+        <v>3.338055097040055</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -12132,7 +12716,7 @@
         <v>166.82</v>
       </c>
       <c r="H195" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I195" t="n">
         <v>100.63</v>
@@ -12164,6 +12748,9 @@
       <c r="R195" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S195" t="n">
+        <v>4.009036545765522</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -12192,7 +12779,7 @@
         <v>163.04</v>
       </c>
       <c r="H196" t="n">
-        <v>152.96</v>
+        <v>67.2</v>
       </c>
       <c r="I196" t="n">
         <v>100.61</v>
@@ -12224,6 +12811,9 @@
       <c r="R196" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S196" t="n">
+        <v>3.820997425288281</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -12252,7 +12842,7 @@
         <v>175.46</v>
       </c>
       <c r="H197" t="n">
-        <v>161.06</v>
+        <v>71.7</v>
       </c>
       <c r="I197" t="n">
         <v>101.2</v>
@@ -12284,6 +12874,9 @@
       <c r="R197" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S197" t="n">
+        <v>3.402361004162081</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -12312,7 +12905,7 @@
         <v>169.16</v>
       </c>
       <c r="H198" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I198" t="n">
         <v>101.77</v>
@@ -12344,6 +12937,9 @@
       <c r="R198" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S198" t="n">
+        <v>3.945556442021569</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12372,7 +12968,7 @@
         <v>159.62</v>
       </c>
       <c r="H199" t="n">
-        <v>152.42</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I199" t="n">
         <v>101.88</v>
@@ -12404,6 +13000,9 @@
       <c r="R199" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S199" t="n">
+        <v>4.12438298554349</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12432,7 +13031,7 @@
         <v>163.94</v>
       </c>
       <c r="H200" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I200" t="n">
         <v>101.75</v>
@@ -12464,6 +13063,9 @@
       <c r="R200" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S200" t="n">
+        <v>3.187883568475588</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12492,7 +13094,7 @@
         <v>159.62</v>
       </c>
       <c r="H201" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I201" t="n">
         <v>101.34</v>
@@ -12524,6 +13126,9 @@
       <c r="R201" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S201" t="n">
+        <v>3.997166321519619</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12552,7 +13157,7 @@
         <v>166.28</v>
       </c>
       <c r="H202" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I202" t="n">
         <v>100.74</v>
@@ -12584,6 +13189,9 @@
       <c r="R202" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S202" t="n">
+        <v>4.768127482595923</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12612,7 +13220,7 @@
         <v>163.22</v>
       </c>
       <c r="H203" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I203" t="n">
         <v>100</v>
@@ -12644,6 +13252,9 @@
       <c r="R203" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S203" t="n">
+        <v>4.880783698040079</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12672,7 +13283,7 @@
         <v>162.68</v>
       </c>
       <c r="H204" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I204" t="n">
         <v>100.75</v>
@@ -12704,6 +13315,9 @@
       <c r="R204" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S204" t="n">
+        <v>4.500339224554742</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12732,7 +13346,7 @@
         <v>166.64</v>
       </c>
       <c r="H205" t="n">
-        <v>159.62</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="I205" t="n">
         <v>100.85</v>
@@ -12764,6 +13378,9 @@
       <c r="R205" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S205" t="n">
+        <v>4.098358257931435</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12792,7 +13409,7 @@
         <v>148.82</v>
       </c>
       <c r="H206" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I206" t="n">
         <v>101.75</v>
@@ -12824,6 +13441,9 @@
       <c r="R206" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S206" t="n">
+        <v>3.521297867523697</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12852,7 +13472,7 @@
         <v>149</v>
       </c>
       <c r="H207" t="n">
-        <v>118.94</v>
+        <v>48.3</v>
       </c>
       <c r="I207" t="n">
         <v>101.87</v>
@@ -12884,6 +13504,9 @@
       <c r="R207" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S207" t="n">
+        <v>2.275359345444546</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12912,7 +13535,7 @@
         <v>147.02</v>
       </c>
       <c r="H208" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I208" t="n">
         <v>101.82</v>
@@ -12944,6 +13567,9 @@
       <c r="R208" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S208" t="n">
+        <v>3.920787845422695</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12972,7 +13598,7 @@
         <v>152.78</v>
       </c>
       <c r="H209" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I209" t="n">
         <v>101.71</v>
@@ -13004,6 +13630,9 @@
       <c r="R209" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S209" t="n">
+        <v>3.534633937289525</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -13032,7 +13661,7 @@
         <v>156.92</v>
       </c>
       <c r="H210" t="n">
-        <v>147.92</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I210" t="n">
         <v>101.6</v>
@@ -13064,6 +13693,9 @@
       <c r="R210" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S210" t="n">
+        <v>3.960365821156895</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -13092,7 +13724,7 @@
         <v>154.4</v>
       </c>
       <c r="H211" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I211" t="n">
         <v>101.53</v>
@@ -13124,6 +13756,9 @@
       <c r="R211" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S211" t="n">
+        <v>3.576629210577082</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -13152,7 +13787,7 @@
         <v>159.98</v>
       </c>
       <c r="H212" t="n">
-        <v>155.66</v>
+        <v>68.7</v>
       </c>
       <c r="I212" t="n">
         <v>101.49</v>
@@ -13184,6 +13819,9 @@
       <c r="R212" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S212" t="n">
+        <v>4.425188499987861</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -13212,7 +13850,7 @@
         <v>181.4</v>
       </c>
       <c r="H213" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I213" t="n">
         <v>100.93</v>
@@ -13244,6 +13882,9 @@
       <c r="R213" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S213" t="n">
+        <v>3.511982537761864</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -13272,7 +13913,7 @@
         <v>133.16</v>
       </c>
       <c r="H214" t="n">
-        <v>121.46</v>
+        <v>49.7</v>
       </c>
       <c r="I214" t="n">
         <v>102.56</v>
@@ -13304,6 +13945,9 @@
       <c r="R214" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S214" t="n">
+        <v>3.871125860691004</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -13332,7 +13976,7 @@
         <v>129.74</v>
       </c>
       <c r="H215" t="n">
-        <v>106.7</v>
+        <v>41.5</v>
       </c>
       <c r="I215" t="n">
         <v>102.37</v>
@@ -13364,6 +14008,9 @@
       <c r="R215" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S215" t="n">
+        <v>2.817906141809752</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13392,7 +14039,7 @@
         <v>128.3</v>
       </c>
       <c r="H216" t="n">
-        <v>92.12</v>
+        <v>33.4</v>
       </c>
       <c r="I216" t="n">
         <v>102.51</v>
@@ -13424,6 +14071,9 @@
       <c r="R216" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S216" t="n">
+        <v>1.894619246457563</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13452,7 +14102,7 @@
         <v>129.92</v>
       </c>
       <c r="H217" t="n">
-        <v>113.9</v>
+        <v>45.5</v>
       </c>
       <c r="I217" t="n">
         <v>102.63</v>
@@ -13484,6 +14134,9 @@
       <c r="R217" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S217" t="n">
+        <v>3.45351431827681</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13512,7 +14165,7 @@
         <v>138.38</v>
       </c>
       <c r="H218" t="n">
-        <v>131.54</v>
+        <v>55.3</v>
       </c>
       <c r="I218" t="n">
         <v>102.3</v>
@@ -13544,6 +14197,9 @@
       <c r="R218" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S218" t="n">
+        <v>4.359812930623027</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13572,7 +14228,7 @@
         <v>140.18</v>
       </c>
       <c r="H219" t="n">
-        <v>127.94</v>
+        <v>53.3</v>
       </c>
       <c r="I219" t="n">
         <v>102.04</v>
@@ -13604,6 +14260,9 @@
       <c r="R219" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S219" t="n">
+        <v>3.752932946368576</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13632,7 +14291,7 @@
         <v>142.7</v>
       </c>
       <c r="H220" t="n">
-        <v>136.04</v>
+        <v>57.8</v>
       </c>
       <c r="I220" t="n">
         <v>102.02</v>
@@ -13664,6 +14323,9 @@
       <c r="R220" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S220" t="n">
+        <v>4.331342452080698</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13692,7 +14354,7 @@
         <v>151.34</v>
       </c>
       <c r="H221" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I221" t="n">
         <v>102.18</v>
@@ -13724,6 +14386,9 @@
       <c r="R221" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S221" t="n">
+        <v>3.115105122451349</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13752,7 +14417,7 @@
         <v>135.5</v>
       </c>
       <c r="H222" t="n">
-        <v>90.86000000000001</v>
+        <v>32.7</v>
       </c>
       <c r="I222" t="n">
         <v>102.7</v>
@@ -13784,6 +14449,9 @@
       <c r="R222" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S222" t="n">
+        <v>1.461978195434182</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13812,7 +14480,7 @@
         <v>127.58</v>
       </c>
       <c r="H223" t="n">
-        <v>107.06</v>
+        <v>41.7</v>
       </c>
       <c r="I223" t="n">
         <v>102.73</v>
@@ -13844,6 +14512,9 @@
       <c r="R223" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S223" t="n">
+        <v>3.045553825798147</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13872,7 +14543,7 @@
         <v>133.34</v>
       </c>
       <c r="H224" t="n">
-        <v>109.94</v>
+        <v>43.3</v>
       </c>
       <c r="I224" t="n">
         <v>102.81</v>
@@ -13904,6 +14575,9 @@
       <c r="R224" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S224" t="n">
+        <v>2.774910232202058</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13932,7 +14606,7 @@
         <v>138.38</v>
       </c>
       <c r="H225" t="n">
-        <v>124.88</v>
+        <v>51.6</v>
       </c>
       <c r="I225" t="n">
         <v>102.54</v>
@@ -13964,6 +14638,9 @@
       <c r="R225" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S225" t="n">
+        <v>3.639634743011281</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13992,7 +14669,7 @@
         <v>141.26</v>
       </c>
       <c r="H226" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I226" t="n">
         <v>102.22</v>
@@ -14024,6 +14701,9 @@
       <c r="R226" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S226" t="n">
+        <v>4.623870677107506</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -14052,7 +14732,7 @@
         <v>146.66</v>
       </c>
       <c r="H227" t="n">
-        <v>138.2</v>
+        <v>59</v>
       </c>
       <c r="I227" t="n">
         <v>102.28</v>
@@ -14084,6 +14764,9 @@
       <c r="R227" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S227" t="n">
+        <v>4.093699817565402</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -14112,7 +14795,7 @@
         <v>127.76</v>
       </c>
       <c r="H228" t="n">
-        <v>121.64</v>
+        <v>49.8</v>
       </c>
       <c r="I228" t="n">
         <v>102.54</v>
@@ -14144,6 +14827,9 @@
       <c r="R228" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S228" t="n">
+        <v>4.593761573470829</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -14172,7 +14858,7 @@
         <v>140.72</v>
       </c>
       <c r="H229" t="n">
-        <v>137.84</v>
+        <v>58.8</v>
       </c>
       <c r="I229" t="n">
         <v>102.42</v>
@@ -14204,6 +14890,9 @@
       <c r="R229" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S229" t="n">
+        <v>4.809191714508644</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -14232,7 +14921,7 @@
         <v>145.58</v>
       </c>
       <c r="H230" t="n">
-        <v>133.88</v>
+        <v>56.6</v>
       </c>
       <c r="I230" t="n">
         <v>102.67</v>
@@ -14264,6 +14953,9 @@
       <c r="R230" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S230" t="n">
+        <v>3.767113761109359</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -14292,7 +14984,7 @@
         <v>134.78</v>
       </c>
       <c r="H231" t="n">
-        <v>120.56</v>
+        <v>49.2</v>
       </c>
       <c r="I231" t="n">
         <v>102.8</v>
@@ -14324,6 +15016,9 @@
       <c r="R231" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S231" t="n">
+        <v>3.595047842406401</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -14352,7 +15047,7 @@
         <v>136.58</v>
       </c>
       <c r="H232" t="n">
-        <v>118.94</v>
+        <v>48.3</v>
       </c>
       <c r="I232" t="n">
         <v>102.58</v>
@@ -14384,6 +15079,9 @@
       <c r="R232" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S232" t="n">
+        <v>3.255519594672017</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -14412,7 +15110,7 @@
         <v>141.26</v>
       </c>
       <c r="H233" t="n">
-        <v>136.22</v>
+        <v>57.9</v>
       </c>
       <c r="I233" t="n">
         <v>102.4</v>
@@ -14444,6 +15142,9 @@
       <c r="R233" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S233" t="n">
+        <v>4.537207093870165</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14472,7 +15173,7 @@
         <v>140</v>
       </c>
       <c r="H234" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I234" t="n">
         <v>102.38</v>
@@ -14504,6 +15205,9 @@
       <c r="R234" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S234" t="n">
+        <v>4.574866420111475</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14532,7 +15236,7 @@
         <v>134.06</v>
       </c>
       <c r="H235" t="n">
-        <v>115.52</v>
+        <v>46.4</v>
       </c>
       <c r="I235" t="n">
         <v>102.45</v>
@@ -14564,6 +15268,9 @@
       <c r="R235" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S235" t="n">
+        <v>3.187603069539469</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14592,7 +15299,7 @@
         <v>122.72</v>
       </c>
       <c r="H236" t="n">
-        <v>116.06</v>
+        <v>46.7</v>
       </c>
       <c r="I236" t="n">
         <v>102.13</v>
@@ -14624,6 +15331,9 @@
       <c r="R236" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S236" t="n">
+        <v>4.606585847933959</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14652,7 +15362,7 @@
         <v>134.78</v>
       </c>
       <c r="H237" t="n">
-        <v>118.22</v>
+        <v>47.9</v>
       </c>
       <c r="I237" t="n">
         <v>102.42</v>
@@ -14684,6 +15394,9 @@
       <c r="R237" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S237" t="n">
+        <v>3.366851471436699</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14712,7 +15425,7 @@
         <v>121.1</v>
       </c>
       <c r="H238" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I238" t="n">
         <v>102.78</v>
@@ -14744,6 +15457,9 @@
       <c r="R238" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S238" t="n">
+        <v>3.683532575695708</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14772,7 +15488,7 @@
         <v>131.9</v>
       </c>
       <c r="H239" t="n">
-        <v>123.98</v>
+        <v>51.1</v>
       </c>
       <c r="I239" t="n">
         <v>102.28</v>
@@ -14804,6 +15520,9 @@
       <c r="R239" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S239" t="n">
+        <v>4.312957478738527</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14832,7 +15551,7 @@
         <v>141.98</v>
       </c>
       <c r="H240" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I240" t="n">
         <v>102.17</v>
@@ -14864,6 +15583,9 @@
       <c r="R240" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S240" t="n">
+        <v>4.528293486151559</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14892,7 +15614,7 @@
         <v>145.4</v>
       </c>
       <c r="H241" t="n">
-        <v>144.68</v>
+        <v>62.6</v>
       </c>
       <c r="I241" t="n">
         <v>102.2</v>
@@ -14924,6 +15646,9 @@
       <c r="R241" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S241" t="n">
+        <v>5.015136151680657</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14952,7 +15677,7 @@
         <v>152.96</v>
       </c>
       <c r="H242" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I242" t="n">
         <v>101.9</v>
@@ -14984,6 +15709,9 @@
       <c r="R242" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S242" t="n">
+        <v>4.675882788008854</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -15012,7 +15740,7 @@
         <v>140.54</v>
       </c>
       <c r="H243" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I243" t="n">
         <v>101.78</v>
@@ -15044,6 +15772,9 @@
       <c r="R243" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S243" t="n">
+        <v>4.524719492534138</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -15072,7 +15803,7 @@
         <v>120.74</v>
       </c>
       <c r="H244" t="n">
-        <v>104.9</v>
+        <v>40.5</v>
       </c>
       <c r="I244" t="n">
         <v>102.56</v>
@@ -15104,6 +15835,9 @@
       <c r="R244" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S244" t="n">
+        <v>3.552588390314501</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -15132,7 +15866,7 @@
         <v>115.88</v>
       </c>
       <c r="H245" t="n">
-        <v>102.38</v>
+        <v>39.1</v>
       </c>
       <c r="I245" t="n">
         <v>102.17</v>
@@ -15164,6 +15898,9 @@
       <c r="R245" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S245" t="n">
+        <v>3.866573407468209</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -15192,7 +15929,7 @@
         <v>123.62</v>
       </c>
       <c r="H246" t="n">
-        <v>105.44</v>
+        <v>40.8</v>
       </c>
       <c r="I246" t="n">
         <v>102.09</v>
@@ -15224,6 +15961,9 @@
       <c r="R246" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S246" t="n">
+        <v>3.290352568966517</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -15252,7 +15992,7 @@
         <v>138.92</v>
       </c>
       <c r="H247" t="n">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="I247" t="n">
         <v>102.23</v>
@@ -15284,6 +16024,9 @@
       <c r="R247" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S247" t="n">
+        <v>4.229345907815825</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -15312,7 +16055,7 @@
         <v>136.04</v>
       </c>
       <c r="H248" t="n">
-        <v>136.04</v>
+        <v>57.8</v>
       </c>
       <c r="I248" t="n">
         <v>101.89</v>
@@ -15344,6 +16087,9 @@
       <c r="R248" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S248" t="n">
+        <v>5.266544473990214</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -15372,7 +16118,7 @@
         <v>137.84</v>
       </c>
       <c r="H249" t="n">
-        <v>136.76</v>
+        <v>58.2</v>
       </c>
       <c r="I249" t="n">
         <v>101.94</v>
@@ -15404,6 +16150,9 @@
       <c r="R249" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S249" t="n">
+        <v>5.087553834467495</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -15432,7 +16181,7 @@
         <v>141.08</v>
       </c>
       <c r="H250" t="n">
-        <v>137.12</v>
+        <v>58.4</v>
       </c>
       <c r="I250" t="n">
         <v>102.08</v>
@@ -15464,6 +16213,9 @@
       <c r="R250" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S250" t="n">
+        <v>4.67013710988571</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -15492,7 +16244,7 @@
         <v>134.6</v>
       </c>
       <c r="H251" t="n">
-        <v>133.52</v>
+        <v>56.4</v>
       </c>
       <c r="I251" t="n">
         <v>101.89</v>
@@ -15524,6 +16276,9 @@
       <c r="R251" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S251" t="n">
+        <v>5.144283593906203</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15552,7 +16307,7 @@
         <v>131</v>
       </c>
       <c r="H252" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I252" t="n">
         <v>102.13</v>
@@ -15584,6 +16339,9 @@
       <c r="R252" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S252" t="n">
+        <v>4.566984833106659</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15612,7 +16370,7 @@
         <v>130.82</v>
       </c>
       <c r="H253" t="n">
-        <v>126.32</v>
+        <v>52.4</v>
       </c>
       <c r="I253" t="n">
         <v>102.06</v>
@@ -15644,6 +16402,9 @@
       <c r="R253" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S253" t="n">
+        <v>4.75339151003813</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15672,7 +16433,7 @@
         <v>132.8</v>
       </c>
       <c r="H254" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I254" t="n">
         <v>101.71</v>
@@ -15704,6 +16465,9 @@
       <c r="R254" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S254" t="n">
+        <v>4.540804334349396</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15732,7 +16496,7 @@
         <v>131.9</v>
       </c>
       <c r="H255" t="n">
-        <v>121.64</v>
+        <v>49.8</v>
       </c>
       <c r="I255" t="n">
         <v>101.84</v>
@@ -15764,6 +16528,9 @@
       <c r="R255" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S255" t="n">
+        <v>4.042606339591639</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15792,7 +16559,7 @@
         <v>138.2</v>
       </c>
       <c r="H256" t="n">
-        <v>136.58</v>
+        <v>58.1</v>
       </c>
       <c r="I256" t="n">
         <v>101.22</v>
@@ -15824,6 +16591,9 @@
       <c r="R256" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S256" t="n">
+        <v>5.009955621312844</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15852,7 +16622,7 @@
         <v>110.48</v>
       </c>
       <c r="H257" t="n">
-        <v>92.12</v>
+        <v>33.4</v>
       </c>
       <c r="I257" t="n">
         <v>102.85</v>
@@ -15884,6 +16654,9 @@
       <c r="R257" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S257" t="n">
+        <v>3.392602299290087</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15912,7 +16685,7 @@
         <v>88.88</v>
       </c>
       <c r="H258" t="n">
-        <v>61.34</v>
+        <v>16.3</v>
       </c>
       <c r="I258" t="n">
         <v>103.71</v>
@@ -15944,6 +16717,9 @@
       <c r="R258" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S258" t="n">
+        <v>2.687882289823879</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15972,7 +16748,7 @@
         <v>89.96000000000001</v>
       </c>
       <c r="H259" t="n">
-        <v>55.58</v>
+        <v>13.1</v>
       </c>
       <c r="I259" t="n">
         <v>103.41</v>
@@ -16004,6 +16780,9 @@
       <c r="R259" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S259" t="n">
+        <v>2.09655345644435</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -16032,7 +16811,7 @@
         <v>110.12</v>
       </c>
       <c r="H260" t="n">
-        <v>87.08000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I260" t="n">
         <v>103.33</v>
@@ -16064,6 +16843,9 @@
       <c r="R260" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S260" t="n">
+        <v>2.930698208442454</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -16092,7 +16874,7 @@
         <v>100.04</v>
       </c>
       <c r="H261" t="n">
-        <v>84.74000000000001</v>
+        <v>29.3</v>
       </c>
       <c r="I261" t="n">
         <v>103</v>
@@ -16124,6 +16906,9 @@
       <c r="R261" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S261" t="n">
+        <v>3.886262278629273</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -16152,7 +16937,7 @@
         <v>101.66</v>
       </c>
       <c r="H262" t="n">
-        <v>83.66</v>
+        <v>28.7</v>
       </c>
       <c r="I262" t="n">
         <v>102.8</v>
@@ -16184,6 +16969,9 @@
       <c r="R262" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S262" t="n">
+        <v>3.539193020335575</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -16212,7 +17000,7 @@
         <v>107.6</v>
       </c>
       <c r="H263" t="n">
-        <v>90.68000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="I263" t="n">
         <v>102.7</v>
@@ -16244,6 +17032,9 @@
       <c r="R263" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S263" t="n">
+        <v>3.583283061143284</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -16272,7 +17063,7 @@
         <v>122</v>
       </c>
       <c r="H264" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I264" t="n">
         <v>102.17</v>
@@ -16304,6 +17095,9 @@
       <c r="R264" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S264" t="n">
+        <v>5.56966102894431</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -16332,7 +17126,7 @@
         <v>113</v>
       </c>
       <c r="H265" t="n">
-        <v>102.02</v>
+        <v>38.9</v>
       </c>
       <c r="I265" t="n">
         <v>102.46</v>
@@ -16364,6 +17158,9 @@
       <c r="R265" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S265" t="n">
+        <v>4.213550233846631</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -16392,7 +17189,7 @@
         <v>101.48</v>
       </c>
       <c r="H266" t="n">
-        <v>83.12</v>
+        <v>28.4</v>
       </c>
       <c r="I266" t="n">
         <v>102.86</v>
@@ -16424,6 +17221,9 @@
       <c r="R266" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S266" t="n">
+        <v>3.500698138189742</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -16452,7 +17252,7 @@
         <v>89.96000000000001</v>
       </c>
       <c r="H267" t="n">
-        <v>82.75999999999999</v>
+        <v>28.2</v>
       </c>
       <c r="I267" t="n">
         <v>102.47</v>
@@ -16484,6 +17284,9 @@
       <c r="R267" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S267" t="n">
+        <v>5.323803800048311</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -16512,7 +17315,7 @@
         <v>102.92</v>
       </c>
       <c r="H268" t="n">
-        <v>60.98</v>
+        <v>16.1</v>
       </c>
       <c r="I268" t="n">
         <v>103.06</v>
@@ -16544,6 +17347,9 @@
       <c r="R268" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S268" t="n">
+        <v>1.570431459083468</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16572,7 +17378,7 @@
         <v>90.31999999999999</v>
       </c>
       <c r="H269" t="n">
-        <v>55.58</v>
+        <v>13.1</v>
       </c>
       <c r="I269" t="n">
         <v>102.92</v>
@@ -16604,6 +17410,9 @@
       <c r="R269" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S269" t="n">
+        <v>2.067582037500941</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16632,7 +17441,7 @@
         <v>108.14</v>
       </c>
       <c r="H270" t="n">
-        <v>87.62</v>
+        <v>30.9</v>
       </c>
       <c r="I270" t="n">
         <v>102.64</v>
@@ -16664,6 +17473,9 @@
       <c r="R270" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S270" t="n">
+        <v>3.192851355991396</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16692,7 +17504,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H271" t="n">
-        <v>83.30000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="I271" t="n">
         <v>103.41</v>
@@ -16724,6 +17536,9 @@
       <c r="R271" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S271" t="n">
+        <v>4.531580818487509</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16752,7 +17567,7 @@
         <v>78.62</v>
       </c>
       <c r="H272" t="n">
-        <v>43.7</v>
+        <v>6.5</v>
       </c>
       <c r="I272" t="n">
         <v>103.5</v>
@@ -16784,6 +17599,9 @@
       <c r="R272" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S272" t="n">
+        <v>2.120949514926377</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16812,7 +17630,7 @@
         <v>84.56</v>
       </c>
       <c r="H273" t="n">
-        <v>53.24</v>
+        <v>11.8</v>
       </c>
       <c r="I273" t="n">
         <v>102.86</v>
@@ -16844,6 +17662,9 @@
       <c r="R273" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S273" t="n">
+        <v>2.380477026256985</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16872,7 +17693,7 @@
         <v>101.48</v>
       </c>
       <c r="H274" t="n">
-        <v>69.80000000000001</v>
+        <v>21</v>
       </c>
       <c r="I274" t="n">
         <v>102.62</v>
@@ -16904,6 +17725,9 @@
       <c r="R274" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S274" t="n">
+        <v>2.248445627718666</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16932,7 +17756,7 @@
         <v>104.18</v>
       </c>
       <c r="H275" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I275" t="n">
         <v>102.08</v>
@@ -16964,6 +17788,9 @@
       <c r="R275" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S275" t="n">
+        <v>3.485740826362561</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16992,7 +17819,7 @@
         <v>96.44</v>
       </c>
       <c r="H276" t="n">
-        <v>81.31999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="I276" t="n">
         <v>101.71</v>
@@ -17024,6 +17851,9 @@
       <c r="R276" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S276" t="n">
+        <v>3.972765289581187</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -17052,7 +17882,7 @@
         <v>88.34</v>
       </c>
       <c r="H277" t="n">
-        <v>42.62</v>
+        <v>5.9</v>
       </c>
       <c r="I277" t="n">
         <v>102.24</v>
@@ -17084,6 +17914,9 @@
       <c r="R277" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S277" t="n">
+        <v>1.376037792508072</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -17112,7 +17945,7 @@
         <v>85.09999999999999</v>
       </c>
       <c r="H278" t="n">
-        <v>43.34</v>
+        <v>6.3</v>
       </c>
       <c r="I278" t="n">
         <v>102.64</v>
@@ -17144,6 +17977,9 @@
       <c r="R278" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S278" t="n">
+        <v>1.60749750162011</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -17172,7 +18008,7 @@
         <v>90.5</v>
       </c>
       <c r="H279" t="n">
-        <v>66.92</v>
+        <v>19.4</v>
       </c>
       <c r="I279" t="n">
         <v>102.89</v>
@@ -17204,6 +18040,9 @@
       <c r="R279" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S279" t="n">
+        <v>3.068690970514447</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -17232,7 +18071,7 @@
         <v>90.68000000000001</v>
       </c>
       <c r="H280" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I280" t="n">
         <v>103.04</v>
@@ -17264,6 +18103,9 @@
       <c r="R280" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S280" t="n">
+        <v>4.390710142003322</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -17292,7 +18134,7 @@
         <v>96.26000000000001</v>
       </c>
       <c r="H281" t="n">
-        <v>69.80000000000001</v>
+        <v>21</v>
       </c>
       <c r="I281" t="n">
         <v>103</v>
@@ -17324,6 +18166,9 @@
       <c r="R281" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S281" t="n">
+        <v>2.723339028281785</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -17352,7 +18197,7 @@
         <v>100.04</v>
       </c>
       <c r="H282" t="n">
-        <v>74.12</v>
+        <v>23.4</v>
       </c>
       <c r="I282" t="n">
         <v>103.18</v>
@@ -17384,6 +18229,9 @@
       <c r="R282" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S282" t="n">
+        <v>2.742291525932349</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -17412,7 +18260,7 @@
         <v>95</v>
       </c>
       <c r="H283" t="n">
-        <v>74.48</v>
+        <v>23.6</v>
       </c>
       <c r="I283" t="n">
         <v>103.47</v>
@@ -17444,6 +18292,9 @@
       <c r="R283" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S283" t="n">
+        <v>3.344589437325555</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -17472,7 +18323,7 @@
         <v>89.24000000000001</v>
       </c>
       <c r="H284" t="n">
-        <v>71.24000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="I284" t="n">
         <v>103.53</v>
@@ -17504,6 +18355,9 @@
       <c r="R284" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S284" t="n">
+        <v>3.73626367712958</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -17532,7 +18386,7 @@
         <v>89.24000000000001</v>
       </c>
       <c r="H285" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I285" t="n">
         <v>103.44</v>
@@ -17564,6 +18418,9 @@
       <c r="R285" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S285" t="n">
+        <v>3.449483650926363</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17592,7 +18449,7 @@
         <v>89.24000000000001</v>
       </c>
       <c r="H286" t="n">
-        <v>75.92</v>
+        <v>24.4</v>
       </c>
       <c r="I286" t="n">
         <v>103.3</v>
@@ -17624,6 +18481,9 @@
       <c r="R286" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S286" t="n">
+        <v>4.373151791272954</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17652,7 +18512,7 @@
         <v>105.08</v>
       </c>
       <c r="H287" t="n">
-        <v>87.08000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I287" t="n">
         <v>103.37</v>
@@ -17684,6 +18544,9 @@
       <c r="R287" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S287" t="n">
+        <v>3.494412867962768</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17712,7 +18575,7 @@
         <v>93.73999999999999</v>
       </c>
       <c r="H288" t="n">
-        <v>83.84</v>
+        <v>28.8</v>
       </c>
       <c r="I288" t="n">
         <v>103.48</v>
@@ -17744,6 +18607,9 @@
       <c r="R288" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S288" t="n">
+        <v>4.770526012368768</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17772,7 +18638,7 @@
         <v>97.52</v>
       </c>
       <c r="H289" t="n">
-        <v>81.14</v>
+        <v>27.3</v>
       </c>
       <c r="I289" t="n">
         <v>103.34</v>
@@ -17804,6 +18670,9 @@
       <c r="R289" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S289" t="n">
+        <v>3.794348425358793</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17832,7 +18701,7 @@
         <v>93.2</v>
       </c>
       <c r="H290" t="n">
-        <v>86.36</v>
+        <v>30.2</v>
       </c>
       <c r="I290" t="n">
         <v>103.08</v>
@@ -17864,6 +18733,9 @@
       <c r="R290" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S290" t="n">
+        <v>5.279031592535556</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17892,7 +18764,7 @@
         <v>99.5</v>
       </c>
       <c r="H291" t="n">
-        <v>87.80000000000001</v>
+        <v>31</v>
       </c>
       <c r="I291" t="n">
         <v>102.45</v>
@@ -17924,6 +18796,9 @@
       <c r="R291" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S291" t="n">
+        <v>4.370353204289635</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17952,7 +18827,7 @@
         <v>113.18</v>
       </c>
       <c r="H292" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I292" t="n">
         <v>102.2</v>
@@ -17984,6 +18859,9 @@
       <c r="R292" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S292" t="n">
+        <v>4.787033139219166</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -18012,7 +18890,7 @@
         <v>128.66</v>
       </c>
       <c r="H293" t="n">
-        <v>128.48</v>
+        <v>53.6</v>
       </c>
       <c r="I293" t="n">
         <v>101.12</v>
@@ -18044,6 +18922,9 @@
       <c r="R293" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S293" t="n">
+        <v>5.388696582858865</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -18072,7 +18953,7 @@
         <v>122.54</v>
       </c>
       <c r="H294" t="n">
-        <v>122.54</v>
+        <v>50.3</v>
       </c>
       <c r="I294" t="n">
         <v>101.37</v>
@@ -18104,6 +18985,9 @@
       <c r="R294" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S294" t="n">
+        <v>5.556324310812326</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -18132,7 +19016,7 @@
         <v>91.94</v>
       </c>
       <c r="H295" t="n">
-        <v>83.30000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="I295" t="n">
         <v>102.48</v>
@@ -18164,6 +19048,9 @@
       <c r="R295" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S295" t="n">
+        <v>5.020309466969616</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -18192,7 +19079,7 @@
         <v>81.68000000000001</v>
       </c>
       <c r="H296" t="n">
-        <v>54.32</v>
+        <v>12.4</v>
       </c>
       <c r="I296" t="n">
         <v>103.05</v>
@@ -18224,6 +19111,9 @@
       <c r="R296" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S296" t="n">
+        <v>2.781456487414683</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -18252,7 +19142,7 @@
         <v>81.68000000000001</v>
       </c>
       <c r="H297" t="n">
-        <v>58.82</v>
+        <v>14.9</v>
       </c>
       <c r="I297" t="n">
         <v>103.2</v>
@@ -18284,6 +19174,9 @@
       <c r="R297" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S297" t="n">
+        <v>3.272802585866561</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -18312,7 +19205,7 @@
         <v>85.64</v>
       </c>
       <c r="H298" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I298" t="n">
         <v>103.01</v>
@@ -18344,6 +19237,9 @@
       <c r="R298" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S298" t="n">
+        <v>3.973542720534002</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -18372,7 +19268,7 @@
         <v>85.81999999999999</v>
       </c>
       <c r="H299" t="n">
-        <v>76.64</v>
+        <v>24.8</v>
       </c>
       <c r="I299" t="n">
         <v>102.88</v>
@@ -18404,6 +19300,9 @@
       <c r="R299" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S299" t="n">
+        <v>5.122879494845916</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -18432,7 +19331,7 @@
         <v>89.42</v>
       </c>
       <c r="H300" t="n">
-        <v>71.06</v>
+        <v>21.7</v>
       </c>
       <c r="I300" t="n">
         <v>103.14</v>
@@ -18464,6 +19363,9 @@
       <c r="R300" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S300" t="n">
+        <v>3.687612809333665</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -18492,7 +19394,7 @@
         <v>100.4</v>
       </c>
       <c r="H301" t="n">
-        <v>84.2</v>
+        <v>29</v>
       </c>
       <c r="I301" t="n">
         <v>102.58</v>
@@ -18524,6 +19426,9 @@
       <c r="R301" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S301" t="n">
+        <v>3.769616292336982</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -18552,7 +19457,7 @@
         <v>103.82</v>
       </c>
       <c r="H302" t="n">
-        <v>103.1</v>
+        <v>39.5</v>
       </c>
       <c r="I302" t="n">
         <v>102.35</v>
@@ -18584,6 +19489,9 @@
       <c r="R302" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S302" t="n">
+        <v>5.987097333750492</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18612,7 +19520,7 @@
         <v>91.03999999999999</v>
       </c>
       <c r="H303" t="n">
-        <v>77.36</v>
+        <v>25.2</v>
       </c>
       <c r="I303" t="n">
         <v>103.22</v>
@@ -18644,6 +19552,9 @@
       <c r="R303" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S303" t="n">
+        <v>4.279028560401221</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18672,7 +19583,7 @@
         <v>66.92</v>
       </c>
       <c r="H304" t="n">
-        <v>29.12</v>
+        <v>-1.6</v>
       </c>
       <c r="I304" t="n">
         <v>103.8</v>
@@ -18704,6 +19615,9 @@
       <c r="R304" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S304" t="n">
+        <v>1.971937186647744</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18732,7 +19646,7 @@
         <v>75.92</v>
       </c>
       <c r="H305" t="n">
-        <v>54.5</v>
+        <v>12.5</v>
       </c>
       <c r="I305" t="n">
         <v>102.97</v>
@@ -18764,6 +19678,9 @@
       <c r="R305" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S305" t="n">
+        <v>3.554247906713785</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18792,7 +19709,7 @@
         <v>86.36</v>
       </c>
       <c r="H306" t="n">
-        <v>64.22</v>
+        <v>17.9</v>
       </c>
       <c r="I306" t="n">
         <v>102.81</v>
@@ -18824,6 +19741,9 @@
       <c r="R306" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S306" t="n">
+        <v>3.283855855361738</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18852,7 +19772,7 @@
         <v>73.03999999999999</v>
       </c>
       <c r="H307" t="n">
-        <v>54.68</v>
+        <v>12.6</v>
       </c>
       <c r="I307" t="n">
         <v>103.14</v>
@@ -18884,6 +19804,9 @@
       <c r="R307" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S307" t="n">
+        <v>4.04411606482751</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18912,7 +19835,7 @@
         <v>85.28</v>
       </c>
       <c r="H308" t="n">
-        <v>54.32</v>
+        <v>12.4</v>
       </c>
       <c r="I308" t="n">
         <v>102.71</v>
@@ -18944,6 +19867,9 @@
       <c r="R308" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S308" t="n">
+        <v>2.406310319354172</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18972,7 +19898,7 @@
         <v>96.44</v>
       </c>
       <c r="H309" t="n">
-        <v>62.42</v>
+        <v>16.9</v>
       </c>
       <c r="I309" t="n">
         <v>102.41</v>
@@ -19004,6 +19930,9 @@
       <c r="R309" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S309" t="n">
+        <v>2.093898703172878</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -19032,7 +19961,7 @@
         <v>107.78</v>
       </c>
       <c r="H310" t="n">
-        <v>71.24000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="I310" t="n">
         <v>102.08</v>
@@ -19064,6 +19993,9 @@
       <c r="R310" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S310" t="n">
+        <v>1.888175462296531</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -19092,7 +20024,7 @@
         <v>103.28</v>
       </c>
       <c r="H311" t="n">
-        <v>88.16</v>
+        <v>31.2</v>
       </c>
       <c r="I311" t="n">
         <v>101.69</v>
@@ -19124,6 +20056,9 @@
       <c r="R311" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S311" t="n">
+        <v>3.85557854922636</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -19152,7 +20087,7 @@
         <v>98.23999999999999</v>
       </c>
       <c r="H312" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I312" t="n">
         <v>103.04</v>
@@ -19184,6 +20119,9 @@
       <c r="R312" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S312" t="n">
+        <v>2.453897176299006</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -19212,7 +20150,7 @@
         <v>96.98</v>
       </c>
       <c r="H313" t="n">
-        <v>74.66</v>
+        <v>23.7</v>
       </c>
       <c r="I313" t="n">
         <v>102.61</v>
@@ -19244,6 +20182,9 @@
       <c r="R313" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S313" t="n">
+        <v>3.125063585970574</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -19272,7 +20213,7 @@
         <v>87.80000000000001</v>
       </c>
       <c r="H314" t="n">
-        <v>83.12</v>
+        <v>28.4</v>
       </c>
       <c r="I314" t="n">
         <v>102.64</v>
@@ -19304,6 +20245,9 @@
       <c r="R314" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S314" t="n">
+        <v>5.858896445699366</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -19332,7 +20276,7 @@
         <v>105.62</v>
       </c>
       <c r="H315" t="n">
-        <v>94.81999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="I315" t="n">
         <v>102.25</v>
@@ -19364,6 +20308,9 @@
       <c r="R315" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S315" t="n">
+        <v>4.368961349883172</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -19392,7 +20339,7 @@
         <v>112.82</v>
       </c>
       <c r="H316" t="n">
-        <v>110.66</v>
+        <v>43.7</v>
       </c>
       <c r="I316" t="n">
         <v>102.02</v>
@@ -19424,6 +20371,9 @@
       <c r="R316" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S316" t="n">
+        <v>5.468711619319089</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -19452,7 +20402,7 @@
         <v>105.8</v>
       </c>
       <c r="H317" t="n">
-        <v>100.4</v>
+        <v>38</v>
       </c>
       <c r="I317" t="n">
         <v>102.55</v>
@@ -19484,6 +20434,9 @@
       <c r="R317" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S317" t="n">
+        <v>5.146776013605995</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -19512,7 +20465,7 @@
         <v>108.5</v>
       </c>
       <c r="H318" t="n">
-        <v>98.42</v>
+        <v>36.9</v>
       </c>
       <c r="I318" t="n">
         <v>102.9</v>
@@ -19544,6 +20497,9 @@
       <c r="R318" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S318" t="n">
+        <v>4.410222538748661</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -19572,7 +20528,7 @@
         <v>106.52</v>
       </c>
       <c r="H319" t="n">
-        <v>102.38</v>
+        <v>39.1</v>
       </c>
       <c r="I319" t="n">
         <v>102.33</v>
@@ -19604,6 +20560,9 @@
       <c r="R319" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S319" t="n">
+        <v>5.325607916595755</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -19632,7 +20591,7 @@
         <v>103.64</v>
       </c>
       <c r="H320" t="n">
-        <v>98.96000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="I320" t="n">
         <v>102.31</v>
@@ -19664,6 +20623,9 @@
       <c r="R320" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S320" t="n">
+        <v>5.319898381088948</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -19692,7 +20654,7 @@
         <v>96.98</v>
       </c>
       <c r="H321" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I321" t="n">
         <v>102.82</v>
@@ -19724,6 +20686,9 @@
       <c r="R321" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S321" t="n">
+        <v>3.220480826174311</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -19752,7 +20717,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H322" t="n">
-        <v>74.66</v>
+        <v>23.7</v>
       </c>
       <c r="I322" t="n">
         <v>103.08</v>
@@ -19784,6 +20749,9 @@
       <c r="R322" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S322" t="n">
+        <v>3.410658277561592</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -19812,7 +20780,7 @@
         <v>92.12</v>
       </c>
       <c r="H323" t="n">
-        <v>73.75999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="I323" t="n">
         <v>103.39</v>
@@ -19844,6 +20812,9 @@
       <c r="R323" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S323" t="n">
+        <v>3.640998358117673</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -19872,7 +20843,7 @@
         <v>111.02</v>
       </c>
       <c r="H324" t="n">
-        <v>103.82</v>
+        <v>39.9</v>
       </c>
       <c r="I324" t="n">
         <v>102.32</v>
@@ -19904,6 +20875,9 @@
       <c r="R324" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S324" t="n">
+        <v>4.756315527202499</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -19932,7 +20906,7 @@
         <v>113.54</v>
       </c>
       <c r="H325" t="n">
-        <v>112.1</v>
+        <v>44.5</v>
       </c>
       <c r="I325" t="n">
         <v>102.13</v>
@@ -19964,6 +20938,9 @@
       <c r="R325" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S325" t="n">
+        <v>5.563944254949807</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -19992,7 +20969,7 @@
         <v>97.7</v>
       </c>
       <c r="H326" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I326" t="n">
         <v>102.86</v>
@@ -20024,6 +21001,9 @@
       <c r="R326" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S326" t="n">
+        <v>3.368913371472221</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -20052,7 +21032,7 @@
         <v>105.26</v>
       </c>
       <c r="H327" t="n">
-        <v>90.68000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="I327" t="n">
         <v>102.58</v>
@@ -20084,6 +21064,9 @@
       <c r="R327" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S327" t="n">
+        <v>3.890363280363148</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -20112,7 +21095,7 @@
         <v>104.72</v>
       </c>
       <c r="H328" t="n">
-        <v>93.02</v>
+        <v>33.9</v>
       </c>
       <c r="I328" t="n">
         <v>103.21</v>
@@ -20144,6 +21127,9 @@
       <c r="R328" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S328" t="n">
+        <v>4.265949690443904</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -20172,7 +21158,7 @@
         <v>89.24000000000001</v>
       </c>
       <c r="H329" t="n">
-        <v>73.03999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="I329" t="n">
         <v>104.12</v>
@@ -20204,6 +21190,9 @@
       <c r="R329" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S329" t="n">
+        <v>3.97087895863026</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -20232,7 +21221,7 @@
         <v>91.03999999999999</v>
       </c>
       <c r="H330" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I330" t="n">
         <v>103.84</v>
@@ -20264,6 +21253,9 @@
       <c r="R330" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S330" t="n">
+        <v>4.33029592458412</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -20292,7 +21284,7 @@
         <v>101.12</v>
       </c>
       <c r="H331" t="n">
-        <v>96.08</v>
+        <v>35.6</v>
       </c>
       <c r="I331" t="n">
         <v>103.08</v>
@@ -20324,6 +21316,9 @@
       <c r="R331" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S331" t="n">
+        <v>5.33460904160791</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -20352,7 +21347,7 @@
         <v>116.06</v>
       </c>
       <c r="H332" t="n">
-        <v>108.32</v>
+        <v>42.4</v>
       </c>
       <c r="I332" t="n">
         <v>102.48</v>
@@ -20384,6 +21379,9 @@
       <c r="R332" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S332" t="n">
+        <v>4.581892547516306</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -20412,7 +21410,7 @@
         <v>112.28</v>
       </c>
       <c r="H333" t="n">
-        <v>89.78</v>
+        <v>32.1</v>
       </c>
       <c r="I333" t="n">
         <v>102.93</v>
@@ -20444,6 +21442,9 @@
       <c r="R333" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S333" t="n">
+        <v>2.964788635544924</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -20472,7 +21473,7 @@
         <v>108.5</v>
       </c>
       <c r="H334" t="n">
-        <v>87.62</v>
+        <v>30.9</v>
       </c>
       <c r="I334" t="n">
         <v>102.66</v>
@@ -20504,6 +21505,9 @@
       <c r="R334" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S334" t="n">
+        <v>3.153144890589318</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -20532,7 +21536,7 @@
         <v>129.92</v>
       </c>
       <c r="H335" t="n">
-        <v>97.88000000000001</v>
+        <v>36.6</v>
       </c>
       <c r="I335" t="n">
         <v>102.65</v>
@@ -20564,6 +21568,9 @@
       <c r="R335" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S335" t="n">
+        <v>2.151863392191434</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -20592,7 +21599,7 @@
         <v>110.3</v>
       </c>
       <c r="H336" t="n">
-        <v>107.78</v>
+        <v>42.1</v>
       </c>
       <c r="I336" t="n">
         <v>102.31</v>
@@ -20624,6 +21631,9 @@
       <c r="R336" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S336" t="n">
+        <v>5.480091147903378</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -20652,7 +21662,7 @@
         <v>140.54</v>
       </c>
       <c r="H337" t="n">
-        <v>105.44</v>
+        <v>40.8</v>
       </c>
       <c r="I337" t="n">
         <v>101.9</v>
@@ -20684,6 +21694,9 @@
       <c r="R337" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S337" t="n">
+        <v>1.963318547995222</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -20712,7 +21725,7 @@
         <v>145.76</v>
       </c>
       <c r="H338" t="n">
-        <v>108.5</v>
+        <v>42.5</v>
       </c>
       <c r="I338" t="n">
         <v>101.83</v>
@@ -20744,6 +21757,9 @@
       <c r="R338" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S338" t="n">
+        <v>1.848460419451407</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -20772,7 +21788,7 @@
         <v>143.06</v>
       </c>
       <c r="H339" t="n">
-        <v>117.68</v>
+        <v>47.6</v>
       </c>
       <c r="I339" t="n">
         <v>101.62</v>
@@ -20804,6 +21820,9 @@
       <c r="R339" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S339" t="n">
+        <v>2.599004476378005</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -20832,7 +21851,7 @@
         <v>136.22</v>
       </c>
       <c r="H340" t="n">
-        <v>114.26</v>
+        <v>45.7</v>
       </c>
       <c r="I340" t="n">
         <v>101.68</v>
@@ -20864,6 +21883,9 @@
       <c r="R340" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S340" t="n">
+        <v>2.882103629266965</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -20892,7 +21914,7 @@
         <v>148.1</v>
       </c>
       <c r="H341" t="n">
-        <v>116.78</v>
+        <v>47.1</v>
       </c>
       <c r="I341" t="n">
         <v>101.66</v>
@@ -20924,6 +21946,9 @@
       <c r="R341" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S341" t="n">
+        <v>2.195573587051916</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -20952,7 +21977,7 @@
         <v>132.26</v>
       </c>
       <c r="H342" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I342" t="n">
         <v>102.03</v>
@@ -20984,6 +22009,9 @@
       <c r="R342" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S342" t="n">
+        <v>3.506798172317613</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -21012,7 +22040,7 @@
         <v>99.86000000000001</v>
       </c>
       <c r="H343" t="n">
-        <v>84.38</v>
+        <v>29.1</v>
       </c>
       <c r="I343" t="n">
         <v>103.08</v>
@@ -21044,6 +22072,9 @@
       <c r="R343" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S343" t="n">
+        <v>3.866856454838454</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -21072,7 +22103,7 @@
         <v>118.94</v>
       </c>
       <c r="H344" t="n">
-        <v>85.28</v>
+        <v>29.6</v>
       </c>
       <c r="I344" t="n">
         <v>101.93</v>
@@ -21104,6 +22135,9 @@
       <c r="R344" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S344" t="n">
+        <v>2.057861257034306</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -21132,7 +22166,7 @@
         <v>122.54</v>
       </c>
       <c r="H345" t="n">
-        <v>102.92</v>
+        <v>39.4</v>
       </c>
       <c r="I345" t="n">
         <v>101.37</v>
@@ -21164,6 +22198,9 @@
       <c r="R345" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S345" t="n">
+        <v>3.160339253539665</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -21192,7 +22229,7 @@
         <v>117.14</v>
       </c>
       <c r="H346" t="n">
-        <v>92.66</v>
+        <v>33.7</v>
       </c>
       <c r="I346" t="n">
         <v>102.89</v>
@@ -21224,6 +22261,9 @@
       <c r="R346" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S346" t="n">
+        <v>2.756452619480347</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -21252,7 +22292,7 @@
         <v>104.18</v>
       </c>
       <c r="H347" t="n">
-        <v>98.06</v>
+        <v>36.7</v>
       </c>
       <c r="I347" t="n">
         <v>102.47</v>
@@ -21284,6 +22324,9 @@
       <c r="R347" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S347" t="n">
+        <v>5.077663438955972</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -21312,7 +22355,7 @@
         <v>112.64</v>
       </c>
       <c r="H348" t="n">
-        <v>82.03999999999999</v>
+        <v>27.8</v>
       </c>
       <c r="I348" t="n">
         <v>102.35</v>
@@ -21344,6 +22387,9 @@
       <c r="R348" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S348" t="n">
+        <v>2.286765176304999</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -21372,7 +22418,7 @@
         <v>114.62</v>
       </c>
       <c r="H349" t="n">
-        <v>97.88000000000001</v>
+        <v>36.6</v>
       </c>
       <c r="I349" t="n">
         <v>101.97</v>
@@ -21404,6 +22450,9 @@
       <c r="R349" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S349" t="n">
+        <v>3.520493726155177</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -21432,7 +22481,7 @@
         <v>123.26</v>
       </c>
       <c r="H350" t="n">
-        <v>116.42</v>
+        <v>46.9</v>
       </c>
       <c r="I350" t="n">
         <v>101.36</v>
@@ -21464,6 +22513,9 @@
       <c r="R350" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S350" t="n">
+        <v>4.574053025889817</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -21492,7 +22544,7 @@
         <v>124.7</v>
       </c>
       <c r="H351" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I351" t="n">
         <v>101.88</v>
@@ -21524,6 +22576,9 @@
       <c r="R351" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S351" t="n">
+        <v>1.336264848406719</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -21552,7 +22607,7 @@
         <v>109.76</v>
       </c>
       <c r="H352" t="n">
-        <v>94.63999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="I352" t="n">
         <v>102.25</v>
@@ -21584,6 +22639,9 @@
       <c r="R352" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S352" t="n">
+        <v>3.760451018519606</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -21612,7 +22670,7 @@
         <v>109.76</v>
       </c>
       <c r="H353" t="n">
-        <v>99.31999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="I353" t="n">
         <v>102.31</v>
@@ -21644,6 +22702,9 @@
       <c r="R353" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S353" t="n">
+        <v>4.338984408363091</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -21672,7 +22733,7 @@
         <v>118.58</v>
       </c>
       <c r="H354" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I354" t="n">
         <v>102.28</v>
@@ -21704,6 +22765,9 @@
       <c r="R354" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S354" t="n">
+        <v>3.71146041030187</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -21732,7 +22796,7 @@
         <v>124.16</v>
       </c>
       <c r="H355" t="n">
-        <v>104.9</v>
+        <v>40.5</v>
       </c>
       <c r="I355" t="n">
         <v>102.33</v>
@@ -21764,6 +22828,9 @@
       <c r="R355" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S355" t="n">
+        <v>3.182904667525941</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -21792,7 +22859,7 @@
         <v>142.7</v>
       </c>
       <c r="H356" t="n">
-        <v>129.2</v>
+        <v>54</v>
       </c>
       <c r="I356" t="n">
         <v>100.87</v>
@@ -21824,6 +22891,9 @@
       <c r="R356" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S356" t="n">
+        <v>3.609156524157554</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -21852,7 +22922,7 @@
         <v>132.8</v>
       </c>
       <c r="H357" t="n">
-        <v>90.13999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="I357" t="n">
         <v>101.8</v>
@@ -21884,6 +22954,9 @@
       <c r="R357" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S357" t="n">
+        <v>1.550618333108105</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -21912,7 +22985,7 @@
         <v>140.18</v>
       </c>
       <c r="H358" t="n">
-        <v>116.06</v>
+        <v>46.7</v>
       </c>
       <c r="I358" t="n">
         <v>100.75</v>
@@ -21944,6 +23017,9 @@
       <c r="R358" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S358" t="n">
+        <v>2.698883749994941</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -21972,7 +23048,7 @@
         <v>146.12</v>
       </c>
       <c r="H359" t="n">
-        <v>138.92</v>
+        <v>59.4</v>
       </c>
       <c r="I359" t="n">
         <v>101.02</v>
@@ -22004,6 +23080,9 @@
       <c r="R359" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S359" t="n">
+        <v>4.235564900440414</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -22032,7 +23111,7 @@
         <v>134.96</v>
       </c>
       <c r="H360" t="n">
-        <v>133.88</v>
+        <v>56.6</v>
       </c>
       <c r="I360" t="n">
         <v>100.87</v>
@@ -22064,6 +23143,9 @@
       <c r="R360" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S360" t="n">
+        <v>5.137789678633467</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -22092,7 +23174,7 @@
         <v>130.1</v>
       </c>
       <c r="H361" t="n">
-        <v>115.34</v>
+        <v>46.3</v>
       </c>
       <c r="I361" t="n">
         <v>102.41</v>
@@ -22124,6 +23206,9 @@
       <c r="R361" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S361" t="n">
+        <v>3.578485817635844</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -22152,7 +23237,7 @@
         <v>130.64</v>
       </c>
       <c r="H362" t="n">
-        <v>109.4</v>
+        <v>43</v>
       </c>
       <c r="I362" t="n">
         <v>102.34</v>
@@ -22184,6 +23269,9 @@
       <c r="R362" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S362" t="n">
+        <v>2.966271030510567</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -22212,7 +23300,7 @@
         <v>127.94</v>
       </c>
       <c r="H363" t="n">
-        <v>110.66</v>
+        <v>43.7</v>
       </c>
       <c r="I363" t="n">
         <v>101.88</v>
@@ -22244,6 +23332,9 @@
       <c r="R363" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S363" t="n">
+        <v>3.345123249428585</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -22272,7 +23363,7 @@
         <v>154.94</v>
       </c>
       <c r="H364" t="n">
-        <v>116.78</v>
+        <v>47.1</v>
       </c>
       <c r="I364" t="n">
         <v>101.68</v>
@@ -22304,6 +23395,9 @@
       <c r="R364" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S364" t="n">
+        <v>1.818158330851752</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -22332,7 +23426,7 @@
         <v>158.54</v>
       </c>
       <c r="H365" t="n">
-        <v>125.42</v>
+        <v>51.9</v>
       </c>
       <c r="I365" t="n">
         <v>101.46</v>
@@ -22364,6 +23458,9 @@
       <c r="R365" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S365" t="n">
+        <v>2.099532807759561</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -22392,7 +23489,7 @@
         <v>148.1</v>
       </c>
       <c r="H366" t="n">
-        <v>147.56</v>
+        <v>64.2</v>
       </c>
       <c r="I366" t="n">
         <v>101.08</v>
@@ -22424,6 +23521,9 @@
       <c r="R366" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S366" t="n">
+        <v>4.999162005990062</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -22452,7 +23552,7 @@
         <v>159.62</v>
       </c>
       <c r="H367" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I367" t="n">
         <v>100.16</v>
@@ -22484,6 +23584,9 @@
       <c r="R367" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S367" t="n">
+        <v>4.877153088139885</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -22512,7 +23615,7 @@
         <v>142.52</v>
       </c>
       <c r="H368" t="n">
-        <v>116.78</v>
+        <v>47.1</v>
       </c>
       <c r="I368" t="n">
         <v>102.01</v>
@@ -22544,6 +23647,9 @@
       <c r="R368" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S368" t="n">
+        <v>2.573502285203125</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -22572,7 +23678,7 @@
         <v>136.4</v>
       </c>
       <c r="H369" t="n">
-        <v>117.5</v>
+        <v>47.5</v>
       </c>
       <c r="I369" t="n">
         <v>101.92</v>
@@ -22604,6 +23710,9 @@
       <c r="R369" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S369" t="n">
+        <v>3.14300387868792</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -22632,7 +23741,7 @@
         <v>151.7</v>
       </c>
       <c r="H370" t="n">
-        <v>115.88</v>
+        <v>46.6</v>
       </c>
       <c r="I370" t="n">
         <v>101.79</v>
@@ -22664,6 +23773,9 @@
       <c r="R370" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S370" t="n">
+        <v>1.936412911953757</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -22692,7 +23804,7 @@
         <v>147.38</v>
       </c>
       <c r="H371" t="n">
-        <v>124.88</v>
+        <v>51.6</v>
       </c>
       <c r="I371" t="n">
         <v>101.47</v>
@@ -22724,6 +23836,9 @@
       <c r="R371" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S371" t="n">
+        <v>2.807967238488779</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -22752,7 +23867,7 @@
         <v>150.08</v>
       </c>
       <c r="H372" t="n">
-        <v>139.64</v>
+        <v>59.8</v>
       </c>
       <c r="I372" t="n">
         <v>100.98</v>
@@ -22784,6 +23899,9 @@
       <c r="R372" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S372" t="n">
+        <v>3.861823870956348</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -22812,7 +23930,7 @@
         <v>153.14</v>
       </c>
       <c r="H373" t="n">
-        <v>147.92</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I373" t="n">
         <v>100.56</v>
@@ -22844,6 +23962,9 @@
       <c r="R373" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S373" t="n">
+        <v>4.387413868777921</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -22872,7 +23993,7 @@
         <v>141.8</v>
       </c>
       <c r="H374" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I374" t="n">
         <v>101.15</v>
@@ -22904,6 +24025,9 @@
       <c r="R374" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S374" t="n">
+        <v>5.117601461152495</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -22932,7 +24056,7 @@
         <v>150.44</v>
       </c>
       <c r="H375" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I375" t="n">
         <v>101.02</v>
@@ -22964,6 +24088,9 @@
       <c r="R375" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S375" t="n">
+        <v>4.005899570494502</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -22992,7 +24119,7 @@
         <v>153.5</v>
       </c>
       <c r="H376" t="n">
-        <v>128.3</v>
+        <v>53.5</v>
       </c>
       <c r="I376" t="n">
         <v>101.11</v>
@@ -23024,6 +24151,9 @@
       <c r="R376" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S376" t="n">
+        <v>2.60139205991808</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -23052,7 +24182,7 @@
         <v>154.4</v>
       </c>
       <c r="H377" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I377" t="n">
         <v>101.21</v>
@@ -23084,6 +24214,9 @@
       <c r="R377" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S377" t="n">
+        <v>4.78681182637714</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -23112,7 +24245,7 @@
         <v>162.86</v>
       </c>
       <c r="H378" t="n">
-        <v>162.86</v>
+        <v>72.7</v>
       </c>
       <c r="I378" t="n">
         <v>100.97</v>
@@ -23144,6 +24277,9 @@
       <c r="R378" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S378" t="n">
+        <v>4.884546391998826</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -23172,7 +24308,7 @@
         <v>170.96</v>
       </c>
       <c r="H379" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I379" t="n">
         <v>100.89</v>
@@ -23204,6 +24340,9 @@
       <c r="R379" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S379" t="n">
+        <v>4.18116670693663</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -23232,7 +24371,7 @@
         <v>164.48</v>
       </c>
       <c r="H380" t="n">
-        <v>130.46</v>
+        <v>54.7</v>
       </c>
       <c r="I380" t="n">
         <v>101.34</v>
@@ -23264,6 +24403,9 @@
       <c r="R380" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S380" t="n">
+        <v>2.059912183953198</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -23292,7 +24434,7 @@
         <v>145.76</v>
       </c>
       <c r="H381" t="n">
-        <v>145.22</v>
+        <v>62.9</v>
       </c>
       <c r="I381" t="n">
         <v>101.12</v>
@@ -23324,6 +24466,9 @@
       <c r="R381" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S381" t="n">
+        <v>5.032874582010084</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -23352,7 +24497,7 @@
         <v>173.12</v>
       </c>
       <c r="H382" t="n">
-        <v>145.58</v>
+        <v>63.1</v>
       </c>
       <c r="I382" t="n">
         <v>99.97</v>
@@ -23384,6 +24529,9 @@
       <c r="R382" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S382" t="n">
+        <v>2.457783662678005</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -23412,7 +24560,7 @@
         <v>167</v>
       </c>
       <c r="H383" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I383" t="n">
         <v>100.19</v>
@@ -23444,6 +24592,9 @@
       <c r="R383" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S383" t="n">
+        <v>3.527762866910954</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -23472,7 +24623,7 @@
         <v>163.58</v>
       </c>
       <c r="H384" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I384" t="n">
         <v>100.65</v>
@@ -23504,6 +24655,9 @@
       <c r="R384" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S384" t="n">
+        <v>3.459991361958528</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -23532,7 +24686,7 @@
         <v>158.72</v>
       </c>
       <c r="H385" t="n">
-        <v>146.48</v>
+        <v>63.6</v>
       </c>
       <c r="I385" t="n">
         <v>100.6</v>
@@ -23564,6 +24718,9 @@
       <c r="R385" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S385" t="n">
+        <v>3.639500320899332</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -23592,7 +24749,7 @@
         <v>164.12</v>
       </c>
       <c r="H386" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I386" t="n">
         <v>100.49</v>
@@ -23624,6 +24781,9 @@
       <c r="R386" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S386" t="n">
+        <v>3.216707698304091</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -23652,7 +24812,7 @@
         <v>179.42</v>
       </c>
       <c r="H387" t="n">
-        <v>158.54</v>
+        <v>70.3</v>
       </c>
       <c r="I387" t="n">
         <v>100.69</v>
@@ -23684,6 +24844,9 @@
       <c r="R387" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S387" t="n">
+        <v>2.907830868527308</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -23712,7 +24875,7 @@
         <v>164.48</v>
       </c>
       <c r="H388" t="n">
-        <v>159.08</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I388" t="n">
         <v>100.9</v>
@@ -23744,6 +24907,9 @@
       <c r="R388" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S388" t="n">
+        <v>4.27616734795965</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -23772,7 +24938,7 @@
         <v>164.84</v>
       </c>
       <c r="H389" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I389" t="n">
         <v>100.53</v>
@@ -23804,6 +24970,9 @@
       <c r="R389" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S389" t="n">
+        <v>4.864229417009098</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -23832,7 +25001,7 @@
         <v>167</v>
       </c>
       <c r="H390" t="n">
-        <v>163.58</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I390" t="n">
         <v>100.66</v>
@@ -23864,6 +25033,9 @@
       <c r="R390" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S390" t="n">
+        <v>4.465954261469516</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -23892,7 +25064,7 @@
         <v>179.42</v>
       </c>
       <c r="H391" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I391" t="n">
         <v>100.72</v>
@@ -23924,6 +25096,9 @@
       <c r="R391" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S391" t="n">
+        <v>3.666976885540826</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -23952,7 +25127,7 @@
         <v>192.56</v>
       </c>
       <c r="H392" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I392" t="n">
         <v>100.34</v>
@@ -23984,6 +25159,9 @@
       <c r="R392" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S392" t="n">
+        <v>2.898544443301907</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -24012,7 +25190,7 @@
         <v>173.84</v>
       </c>
       <c r="H393" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I393" t="n">
         <v>100.03</v>
@@ -24044,6 +25222,9 @@
       <c r="R393" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S393" t="n">
+        <v>4.418844913576234</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -24072,7 +25253,7 @@
         <v>174.92</v>
       </c>
       <c r="H394" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I394" t="n">
         <v>100.6</v>
@@ -24104,6 +25285,9 @@
       <c r="R394" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S394" t="n">
+        <v>4.638030566685019</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -24132,7 +25316,7 @@
         <v>177.8</v>
       </c>
       <c r="H395" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I395" t="n">
         <v>100.01</v>
@@ -24164,6 +25348,9 @@
       <c r="R395" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S395" t="n">
+        <v>3.283953489843169</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -24192,7 +25379,7 @@
         <v>190.58</v>
       </c>
       <c r="H396" t="n">
-        <v>177.8</v>
+        <v>81</v>
       </c>
       <c r="I396" t="n">
         <v>100.04</v>
@@ -24224,6 +25411,9 @@
       <c r="R396" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S396" t="n">
+        <v>3.518254607040775</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -24252,7 +25442,7 @@
         <v>189.68</v>
       </c>
       <c r="H397" t="n">
-        <v>178.52</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="I397" t="n">
         <v>100.22</v>
@@ -24284,6 +25474,9 @@
       <c r="R397" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S397" t="n">
+        <v>3.650569362475337</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -24312,7 +25505,7 @@
         <v>182.66</v>
       </c>
       <c r="H398" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I398" t="n">
         <v>100.3</v>
@@ -24344,6 +25537,9 @@
       <c r="R398" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S398" t="n">
+        <v>3.675832490784226</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -24372,7 +25568,7 @@
         <v>184.46</v>
       </c>
       <c r="H399" t="n">
-        <v>175.46</v>
+        <v>79.7</v>
       </c>
       <c r="I399" t="n">
         <v>100.03</v>
@@ -24404,6 +25600,9 @@
       <c r="R399" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S399" t="n">
+        <v>3.843484756789584</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -24432,7 +25631,7 @@
         <v>181.76</v>
       </c>
       <c r="H400" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I400" t="n">
         <v>99.94</v>
@@ -24464,6 +25663,9 @@
       <c r="R400" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S400" t="n">
+        <v>3.963700494341825</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -24492,7 +25694,7 @@
         <v>180.5</v>
       </c>
       <c r="H401" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I401" t="n">
         <v>100.22</v>
@@ -24524,6 +25726,9 @@
       <c r="R401" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S401" t="n">
+        <v>4.050987416872245</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -24552,7 +25757,7 @@
         <v>175.1</v>
       </c>
       <c r="H402" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I402" t="n">
         <v>100.72</v>
@@ -24584,6 +25789,9 @@
       <c r="R402" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S402" t="n">
+        <v>4.485242518040854</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -24612,7 +25820,7 @@
         <v>173.66</v>
       </c>
       <c r="H403" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I403" t="n">
         <v>100.93</v>
@@ -24644,6 +25852,9 @@
       <c r="R403" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S403" t="n">
+        <v>4.438546012456134</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -24672,7 +25883,7 @@
         <v>175.64</v>
       </c>
       <c r="H404" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I404" t="n">
         <v>101.03</v>
@@ -24704,6 +25915,9 @@
       <c r="R404" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S404" t="n">
+        <v>4.209781184205394</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -24732,7 +25946,7 @@
         <v>177.08</v>
       </c>
       <c r="H405" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I405" t="n">
         <v>100.91</v>
@@ -24764,6 +25978,9 @@
       <c r="R405" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S405" t="n">
+        <v>4.064389339036095</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -24792,7 +26009,7 @@
         <v>179.78</v>
       </c>
       <c r="H406" t="n">
-        <v>177.62</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="I406" t="n">
         <v>100.61</v>
@@ -24824,6 +26041,9 @@
       <c r="R406" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S406" t="n">
+        <v>4.512201651312565</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -24852,7 +26072,7 @@
         <v>182.12</v>
       </c>
       <c r="H407" t="n">
-        <v>175.46</v>
+        <v>79.7</v>
       </c>
       <c r="I407" t="n">
         <v>100.57</v>
@@ -24884,6 +26104,9 @@
       <c r="R407" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S407" t="n">
+        <v>4.061913283977479</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -24912,7 +26135,7 @@
         <v>185.18</v>
       </c>
       <c r="H408" t="n">
-        <v>175.64</v>
+        <v>79.8</v>
       </c>
       <c r="I408" t="n">
         <v>100.7</v>
@@ -24944,6 +26167,9 @@
       <c r="R408" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S408" t="n">
+        <v>3.794721384979551</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -24972,7 +26198,7 @@
         <v>179.96</v>
       </c>
       <c r="H409" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I409" t="n">
         <v>100.89</v>
@@ -25004,6 +26230,9 @@
       <c r="R409" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S409" t="n">
+        <v>4.241750227622374</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -25032,7 +26261,7 @@
         <v>171.68</v>
       </c>
       <c r="H410" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I410" t="n">
         <v>101.06</v>
@@ -25064,6 +26293,9 @@
       <c r="R410" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S410" t="n">
+        <v>4.800837516155021</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -25092,7 +26324,7 @@
         <v>179.96</v>
       </c>
       <c r="H411" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I411" t="n">
         <v>100.85</v>
@@ -25124,6 +26356,9 @@
       <c r="R411" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S411" t="n">
+        <v>4.241750227622374</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -25152,7 +26387,7 @@
         <v>181.22</v>
       </c>
       <c r="H412" t="n">
-        <v>177.08</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I412" t="n">
         <v>100.71</v>
@@ -25184,6 +26419,9 @@
       <c r="R412" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S412" t="n">
+        <v>4.306148677597021</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -25212,7 +26450,7 @@
         <v>176.36</v>
       </c>
       <c r="H413" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I413" t="n">
         <v>100.89</v>
@@ -25244,6 +26482,9 @@
       <c r="R413" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S413" t="n">
+        <v>4.458783209450211</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -25272,7 +26513,7 @@
         <v>182.12</v>
       </c>
       <c r="H414" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I414" t="n">
         <v>100.68</v>
@@ -25304,6 +26545,9 @@
       <c r="R414" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S414" t="n">
+        <v>3.913685485478672</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -25332,7 +26576,7 @@
         <v>184.82</v>
       </c>
       <c r="H415" t="n">
-        <v>177.08</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I415" t="n">
         <v>100.42</v>
@@ -25364,6 +26608,9 @@
       <c r="R415" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S415" t="n">
+        <v>3.954670941611274</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -25392,7 +26639,7 @@
         <v>182.48</v>
       </c>
       <c r="H416" t="n">
-        <v>176.72</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I416" t="n">
         <v>100.28</v>
@@ -25424,6 +26671,9 @@
       <c r="R416" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S416" t="n">
+        <v>4.144911956594766</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -25452,7 +26702,7 @@
         <v>176.54</v>
       </c>
       <c r="H417" t="n">
-        <v>175.64</v>
+        <v>79.8</v>
       </c>
       <c r="I417" t="n">
         <v>100.01</v>
@@ -25484,6 +26734,9 @@
       <c r="R417" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S417" t="n">
+        <v>4.664898062552211</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -25512,7 +26765,7 @@
         <v>170.78</v>
       </c>
       <c r="H418" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I418" t="n">
         <v>100.25</v>
@@ -25544,6 +26797,9 @@
       <c r="R418" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S418" t="n">
+        <v>4.093608386201162</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -25572,7 +26828,7 @@
         <v>182.3</v>
       </c>
       <c r="H419" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I419" t="n">
         <v>100.49</v>
@@ -25604,6 +26860,9 @@
       <c r="R419" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S419" t="n">
+        <v>3.525601783613735</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -25632,7 +26891,7 @@
         <v>188.78</v>
       </c>
       <c r="H420" t="n">
-        <v>175.64</v>
+        <v>79.8</v>
       </c>
       <c r="I420" t="n">
         <v>100.12</v>
@@ -25664,6 +26923,9 @@
       <c r="R420" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S420" t="n">
+        <v>3.49042608501417</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -25692,7 +26954,7 @@
         <v>178.7</v>
       </c>
       <c r="H421" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I421" t="n">
         <v>100.51</v>
@@ -25724,6 +26986,9 @@
       <c r="R421" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S421" t="n">
+        <v>4.300719348095694</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -25752,7 +27017,7 @@
         <v>179.42</v>
       </c>
       <c r="H422" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I422" t="n">
         <v>100.6</v>
@@ -25784,6 +27049,9 @@
       <c r="R422" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S422" t="n">
+        <v>4.088898528288019</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -25812,7 +27080,7 @@
         <v>178.7</v>
       </c>
       <c r="H423" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I423" t="n">
         <v>100.51</v>
@@ -25844,6 +27112,9 @@
       <c r="R423" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S423" t="n">
+        <v>3.859030283436209</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -25872,7 +27143,7 @@
         <v>176.18</v>
       </c>
       <c r="H424" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I424" t="n">
         <v>100.55</v>
@@ -25904,6 +27175,9 @@
       <c r="R424" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S424" t="n">
+        <v>3.966602601791871</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -25932,7 +27206,7 @@
         <v>175.82</v>
       </c>
       <c r="H425" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I425" t="n">
         <v>100.78</v>
@@ -25964,6 +27238,9 @@
       <c r="R425" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S425" t="n">
+        <v>4.297874642542734</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -25992,7 +27269,7 @@
         <v>177.62</v>
       </c>
       <c r="H426" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I426" t="n">
         <v>101</v>
@@ -26024,6 +27301,9 @@
       <c r="R426" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S426" t="n">
+        <v>4.182688014362875</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -26052,7 +27332,7 @@
         <v>185.36</v>
       </c>
       <c r="H427" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I427" t="n">
         <v>100.88</v>
@@ -26084,6 +27364,9 @@
       <c r="R427" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S427" t="n">
+        <v>3.610920159837787</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -26112,7 +27395,7 @@
         <v>177.26</v>
       </c>
       <c r="H428" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I428" t="n">
         <v>100.27</v>
@@ -26144,6 +27427,9 @@
       <c r="R428" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S428" t="n">
+        <v>4.272451503498847</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -26172,7 +27458,7 @@
         <v>175.1</v>
       </c>
       <c r="H429" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I429" t="n">
         <v>100.35</v>
@@ -26204,6 +27490,9 @@
       <c r="R429" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S429" t="n">
+        <v>4.655978765184509</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -26232,7 +27521,7 @@
         <v>174.56</v>
       </c>
       <c r="H430" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I430" t="n">
         <v>100.71</v>
@@ -26264,6 +27553,9 @@
       <c r="R430" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S430" t="n">
+        <v>3.58524410542155</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -26292,7 +27584,7 @@
         <v>175.82</v>
       </c>
       <c r="H431" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I431" t="n">
         <v>100.84</v>
@@ -26324,6 +27616,9 @@
       <c r="R431" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S431" t="n">
+        <v>3.613203087979693</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -26352,7 +27647,7 @@
         <v>174.56</v>
       </c>
       <c r="H432" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I432" t="n">
         <v>100.32</v>
@@ -26384,6 +27679,9 @@
       <c r="R432" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S432" t="n">
+        <v>3.92266699148338</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -26412,7 +27710,7 @@
         <v>162.5</v>
       </c>
       <c r="H433" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I433" t="n">
         <v>100.37</v>
@@ -26444,6 +27742,9 @@
       <c r="R433" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S433" t="n">
+        <v>4.867315561100257</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -26472,7 +27773,7 @@
         <v>164.12</v>
       </c>
       <c r="H434" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I434" t="n">
         <v>101.27</v>
@@ -26504,6 +27805,9 @@
       <c r="R434" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S434" t="n">
+        <v>3.698811311338776</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -26532,7 +27836,7 @@
         <v>167.72</v>
       </c>
       <c r="H435" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I435" t="n">
         <v>101.33</v>
@@ -26564,6 +27868,9 @@
       <c r="R435" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S435" t="n">
+        <v>3.668666027899969</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -26592,7 +27899,7 @@
         <v>169.34</v>
       </c>
       <c r="H436" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I436" t="n">
         <v>101.12</v>
@@ -26624,6 +27931,9 @@
       <c r="R436" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S436" t="n">
+        <v>4.048435058528463</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -26652,7 +27962,7 @@
         <v>173.84</v>
       </c>
       <c r="H437" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I437" t="n">
         <v>101.3</v>
@@ -26684,6 +27994,9 @@
       <c r="R437" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S437" t="n">
+        <v>4.290807192434237</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -26712,7 +28025,7 @@
         <v>166.1</v>
       </c>
       <c r="H438" t="n">
-        <v>162.68</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I438" t="n">
         <v>101.39</v>
@@ -26744,6 +28057,9 @@
       <c r="R438" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S438" t="n">
+        <v>4.47281013774947</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -26772,7 +28088,7 @@
         <v>172.58</v>
       </c>
       <c r="H439" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I439" t="n">
         <v>101.28</v>
@@ -26804,6 +28120,9 @@
       <c r="R439" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S439" t="n">
+        <v>3.897004869938439</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -26832,7 +28151,7 @@
         <v>173.84</v>
       </c>
       <c r="H440" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I440" t="n">
         <v>100.93</v>
@@ -26864,6 +28183,9 @@
       <c r="R440" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S440" t="n">
+        <v>3.510179777141617</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -26892,7 +28214,7 @@
         <v>161.78</v>
       </c>
       <c r="H441" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I441" t="n">
         <v>101.09</v>
@@ -26924,6 +28246,9 @@
       <c r="R441" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S441" t="n">
+        <v>4.50798320118509</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -26952,7 +28277,7 @@
         <v>166.64</v>
       </c>
       <c r="H442" t="n">
-        <v>157.1</v>
+        <v>69.5</v>
       </c>
       <c r="I442" t="n">
         <v>101.3</v>
@@ -26984,6 +28309,9 @@
       <c r="R442" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S442" t="n">
+        <v>3.855013286797841</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -27012,7 +28340,7 @@
         <v>169.16</v>
       </c>
       <c r="H443" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I443" t="n">
         <v>101.24</v>
@@ -27044,6 +28372,9 @@
       <c r="R443" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S443" t="n">
+        <v>3.894513782589821</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -27072,7 +28403,7 @@
         <v>160.7</v>
       </c>
       <c r="H444" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I444" t="n">
         <v>101.13</v>
@@ -27104,6 +28435,9 @@
       <c r="R444" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S444" t="n">
+        <v>4.55718502474889</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -27132,7 +28466,7 @@
         <v>165.74</v>
       </c>
       <c r="H445" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I445" t="n">
         <v>101.12</v>
@@ -27164,6 +28498,9 @@
       <c r="R445" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S445" t="n">
+        <v>3.659682767321112</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -27192,7 +28529,7 @@
         <v>176.18</v>
       </c>
       <c r="H446" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I446" t="n">
         <v>101.23</v>
@@ -27224,6 +28561,9 @@
       <c r="R446" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S446" t="n">
+        <v>3.933221797064343</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -27252,7 +28592,7 @@
         <v>161.06</v>
       </c>
       <c r="H447" t="n">
-        <v>136.4</v>
+        <v>58</v>
       </c>
       <c r="I447" t="n">
         <v>101.81</v>
@@ -27284,6 +28624,9 @@
       <c r="R447" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S447" t="n">
+        <v>2.637267797807391</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -27312,7 +28655,7 @@
         <v>141.44</v>
       </c>
       <c r="H448" t="n">
-        <v>139.46</v>
+        <v>59.7</v>
       </c>
       <c r="I448" t="n">
         <v>102.2</v>
@@ -27344,6 +28687,9 @@
       <c r="R448" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S448" t="n">
+        <v>4.912739659362023</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -27372,7 +28718,7 @@
         <v>151.16</v>
       </c>
       <c r="H449" t="n">
-        <v>137.12</v>
+        <v>58.4</v>
       </c>
       <c r="I449" t="n">
         <v>102.15</v>
@@ -27404,6 +28750,9 @@
       <c r="R449" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S449" t="n">
+        <v>3.509376653158273</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -27432,7 +28781,7 @@
         <v>149.36</v>
       </c>
       <c r="H450" t="n">
-        <v>135.86</v>
+        <v>57.7</v>
       </c>
       <c r="I450" t="n">
         <v>102.28</v>
@@ -27464,6 +28813,9 @@
       <c r="R450" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S450" t="n">
+        <v>3.568937194561849</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -27492,7 +28844,7 @@
         <v>150.08</v>
       </c>
       <c r="H451" t="n">
-        <v>133.52</v>
+        <v>56.4</v>
       </c>
       <c r="I451" t="n">
         <v>101.83</v>
@@ -27524,6 +28876,9 @@
       <c r="R451" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S451" t="n">
+        <v>3.288100804369252</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -27552,7 +28907,7 @@
         <v>149.18</v>
       </c>
       <c r="H452" t="n">
-        <v>131.9</v>
+        <v>55.5</v>
       </c>
       <c r="I452" t="n">
         <v>101.37</v>
@@ -27584,6 +28939,9 @@
       <c r="R452" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S452" t="n">
+        <v>3.229027700683111</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -27612,7 +28970,7 @@
         <v>125.24</v>
       </c>
       <c r="H453" t="n">
-        <v>115.7</v>
+        <v>46.5</v>
       </c>
       <c r="I453" t="n">
         <v>102.51</v>
@@ -27644,6 +29002,9 @@
       <c r="R453" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S453" t="n">
+        <v>4.2079245873304</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -27672,7 +29033,7 @@
         <v>131.54</v>
       </c>
       <c r="H454" t="n">
-        <v>121.64</v>
+        <v>49.8</v>
       </c>
       <c r="I454" t="n">
         <v>102.31</v>
@@ -27704,6 +29065,9 @@
       <c r="R454" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S454" t="n">
+        <v>4.087328093177691</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -27732,7 +29096,7 @@
         <v>157.1</v>
       </c>
       <c r="H455" t="n">
-        <v>140.18</v>
+        <v>60.1</v>
       </c>
       <c r="I455" t="n">
         <v>101.77</v>
@@ -27764,6 +29128,9 @@
       <c r="R455" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S455" t="n">
+        <v>3.233570527366334</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -27792,7 +29159,7 @@
         <v>147.56</v>
       </c>
       <c r="H456" t="n">
-        <v>121.1</v>
+        <v>49.5</v>
       </c>
       <c r="I456" t="n">
         <v>102</v>
@@ -27824,6 +29191,9 @@
       <c r="R456" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S456" t="n">
+        <v>2.516562188467629</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -27852,7 +29222,7 @@
         <v>166.82</v>
       </c>
       <c r="H457" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I457" t="n">
         <v>101.42</v>
@@ -27884,6 +29254,9 @@
       <c r="R457" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S457" t="n">
+        <v>1.759613458881242</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -27912,7 +29285,7 @@
         <v>155.3</v>
       </c>
       <c r="H458" t="n">
-        <v>145.58</v>
+        <v>63.1</v>
       </c>
       <c r="I458" t="n">
         <v>101.66</v>
@@ -27944,6 +29317,9 @@
       <c r="R458" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S458" t="n">
+        <v>3.899057087642571</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -27972,7 +29348,7 @@
         <v>155.12</v>
       </c>
       <c r="H459" t="n">
-        <v>147.74</v>
+        <v>64.3</v>
       </c>
       <c r="I459" t="n">
         <v>101.76</v>
@@ -28004,6 +29380,9 @@
       <c r="R459" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S459" t="n">
+        <v>4.138435298704362</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -28032,7 +29411,7 @@
         <v>160.88</v>
       </c>
       <c r="H460" t="n">
-        <v>155.12</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="I460" t="n">
         <v>100.9</v>
@@ -28064,6 +29443,9 @@
       <c r="R460" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S460" t="n">
+        <v>4.264492787650675</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -28092,7 +29474,7 @@
         <v>119.66</v>
       </c>
       <c r="H461" t="n">
-        <v>99.68000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="I461" t="n">
         <v>102.12</v>
@@ -28124,6 +29506,9 @@
       <c r="R461" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S461" t="n">
+        <v>3.147183008313478</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -28152,7 +29537,7 @@
         <v>138.2</v>
       </c>
       <c r="H462" t="n">
-        <v>125.78</v>
+        <v>52.1</v>
       </c>
       <c r="I462" t="n">
         <v>101.81</v>
@@ -28184,6 +29569,9 @@
       <c r="R462" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S462" t="n">
+        <v>3.750386003704823</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -28212,7 +29600,7 @@
         <v>138.38</v>
       </c>
       <c r="H463" t="n">
-        <v>118.58</v>
+        <v>48.1</v>
       </c>
       <c r="I463" t="n">
         <v>102.29</v>
@@ -28244,6 +29632,9 @@
       <c r="R463" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S463" t="n">
+        <v>3.0553061265535</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -28272,7 +29663,7 @@
         <v>125.96</v>
       </c>
       <c r="H464" t="n">
-        <v>100.94</v>
+        <v>38.3</v>
       </c>
       <c r="I464" t="n">
         <v>103.07</v>
@@ -28304,6 +29695,9 @@
       <c r="R464" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S464" t="n">
+        <v>2.671130845653144</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -28332,7 +29726,7 @@
         <v>118.4</v>
       </c>
       <c r="H465" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I465" t="n">
         <v>103.16</v>
@@ -28364,6 +29758,9 @@
       <c r="R465" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S465" t="n">
+        <v>4.022546132680897</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -28392,7 +29789,7 @@
         <v>105.08</v>
       </c>
       <c r="H466" t="n">
-        <v>86.36</v>
+        <v>30.2</v>
       </c>
       <c r="I466" t="n">
         <v>103.28</v>
@@ -28424,6 +29821,9 @@
       <c r="R466" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S466" t="n">
+        <v>3.415160208310091</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -28452,7 +29852,7 @@
         <v>106.7</v>
       </c>
       <c r="H467" t="n">
-        <v>64.75999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="I467" t="n">
         <v>102.55</v>
@@ -28484,6 +29884,9 @@
       <c r="R467" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S467" t="n">
+        <v>1.568760806673443</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -28512,7 +29915,7 @@
         <v>99.68000000000001</v>
       </c>
       <c r="H468" t="n">
-        <v>80.78</v>
+        <v>27.1</v>
       </c>
       <c r="I468" t="n">
         <v>102.31</v>
@@ -28544,6 +29947,9 @@
       <c r="R468" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S468" t="n">
+        <v>3.463768620115725</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -28572,7 +29978,7 @@
         <v>121.28</v>
       </c>
       <c r="H469" t="n">
-        <v>111.02</v>
+        <v>43.9</v>
       </c>
       <c r="I469" t="n">
         <v>102.29</v>
@@ -28604,6 +30010,9 @@
       <c r="R469" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S469" t="n">
+        <v>4.176272418028216</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -28632,7 +30041,7 @@
         <v>128.84</v>
       </c>
       <c r="H470" t="n">
-        <v>112.1</v>
+        <v>44.5</v>
       </c>
       <c r="I470" t="n">
         <v>101.83</v>
@@ -28664,6 +30073,9 @@
       <c r="R470" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S470" t="n">
+        <v>3.390979955415279</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -28692,7 +30104,7 @@
         <v>109.4</v>
       </c>
       <c r="H471" t="n">
-        <v>82.75999999999999</v>
+        <v>28.2</v>
       </c>
       <c r="I471" t="n">
         <v>103.35</v>
@@ -28724,6 +30136,9 @@
       <c r="R471" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S471" t="n">
+        <v>2.615371439052268</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -28752,7 +30167,7 @@
         <v>114.44</v>
       </c>
       <c r="H472" t="n">
-        <v>99.14</v>
+        <v>37.3</v>
       </c>
       <c r="I472" t="n">
         <v>103.03</v>
@@ -28784,6 +30199,9 @@
       <c r="R472" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S472" t="n">
+        <v>3.680087139566954</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -28812,7 +30230,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="H473" t="n">
-        <v>61.16</v>
+        <v>16.2</v>
       </c>
       <c r="I473" t="n">
         <v>103.21</v>
@@ -28844,6 +30262,9 @@
       <c r="R473" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S473" t="n">
+        <v>2.422912775078441</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -28872,7 +30293,7 @@
         <v>103.1</v>
       </c>
       <c r="H474" t="n">
-        <v>70.16</v>
+        <v>21.2</v>
       </c>
       <c r="I474" t="n">
         <v>102.85</v>
@@ -28904,6 +30325,9 @@
       <c r="R474" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S474" t="n">
+        <v>2.147352191901083</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -28932,7 +30356,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H475" t="n">
-        <v>85.09999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="I475" t="n">
         <v>102.54</v>
@@ -28964,6 +30388,9 @@
       <c r="R475" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S475" t="n">
+        <v>4.801912344554219</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -28992,7 +30419,7 @@
         <v>120.2</v>
       </c>
       <c r="H476" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I476" t="n">
         <v>101.52</v>
@@ -29024,6 +30451,9 @@
       <c r="R476" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S476" t="n">
+        <v>3.300194857169513</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -29052,7 +30482,7 @@
         <v>111.92</v>
       </c>
       <c r="H477" t="n">
-        <v>92.48</v>
+        <v>33.6</v>
       </c>
       <c r="I477" t="n">
         <v>101.42</v>
@@ -29084,6 +30514,9 @@
       <c r="R477" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S477" t="n">
+        <v>3.265999066596888</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -29112,7 +30545,7 @@
         <v>122</v>
       </c>
       <c r="H478" t="n">
-        <v>112.82</v>
+        <v>44.9</v>
       </c>
       <c r="I478" t="n">
         <v>102.13</v>
@@ -29144,6 +30577,9 @@
       <c r="R478" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S478" t="n">
+        <v>4.297760213674396</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -29172,7 +30608,7 @@
         <v>121.46</v>
       </c>
       <c r="H479" t="n">
-        <v>120.2</v>
+        <v>49</v>
       </c>
       <c r="I479" t="n">
         <v>101.8</v>
@@ -29204,6 +30640,9 @@
       <c r="R479" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S479" t="n">
+        <v>5.390473494729816</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -29232,7 +30671,7 @@
         <v>92.12</v>
       </c>
       <c r="H480" t="n">
-        <v>84.74000000000001</v>
+        <v>29.3</v>
       </c>
       <c r="I480" t="n">
         <v>102.71</v>
@@ -29264,6 +30703,9 @@
       <c r="R480" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S480" t="n">
+        <v>5.222629259130937</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -29292,7 +30734,7 @@
         <v>73.58000000000001</v>
       </c>
       <c r="H481" t="n">
-        <v>45.14</v>
+        <v>7.3</v>
       </c>
       <c r="I481" t="n">
         <v>103.87</v>
@@ -29324,6 +30766,9 @@
       <c r="R481" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S481" t="n">
+        <v>2.77063485749327</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -29352,7 +30797,7 @@
         <v>78.98</v>
       </c>
       <c r="H482" t="n">
-        <v>53.42</v>
+        <v>11.9</v>
       </c>
       <c r="I482" t="n">
         <v>103.86</v>
@@ -29384,6 +30829,9 @@
       <c r="R482" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S482" t="n">
+        <v>3.006693706508196</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -29412,7 +30860,7 @@
         <v>90.68000000000001</v>
       </c>
       <c r="H483" t="n">
-        <v>79.52</v>
+        <v>26.4</v>
       </c>
       <c r="I483" t="n">
         <v>103.35</v>
@@ -29444,6 +30892,9 @@
       <c r="R483" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S483" t="n">
+        <v>4.65888229537312</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -29472,7 +30923,7 @@
         <v>89.24000000000001</v>
       </c>
       <c r="H484" t="n">
-        <v>71.06</v>
+        <v>21.7</v>
       </c>
       <c r="I484" t="n">
         <v>103.47</v>
@@ -29504,6 +30955,9 @@
       <c r="R484" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S484" t="n">
+        <v>3.713484659114173</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -29532,7 +30986,7 @@
         <v>72.5</v>
       </c>
       <c r="H485" t="n">
-        <v>47.48</v>
+        <v>8.6</v>
       </c>
       <c r="I485" t="n">
         <v>104.24</v>
@@ -29564,6 +31018,9 @@
       <c r="R485" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S485" t="n">
+        <v>3.170597275557063</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -29592,7 +31049,7 @@
         <v>80.06</v>
       </c>
       <c r="H486" t="n">
-        <v>56.84</v>
+        <v>13.8</v>
       </c>
       <c r="I486" t="n">
         <v>103.87</v>
@@ -29624,6 +31081,9 @@
       <c r="R486" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S486" t="n">
+        <v>3.256680176335933</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -29652,7 +31112,7 @@
         <v>80.24000000000001</v>
       </c>
       <c r="H487" t="n">
-        <v>58.64</v>
+        <v>14.8</v>
       </c>
       <c r="I487" t="n">
         <v>103.47</v>
@@ -29684,6 +31144,9 @@
       <c r="R487" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S487" t="n">
+        <v>3.448897125364878</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -29712,7 +31175,7 @@
         <v>100.4</v>
       </c>
       <c r="H488" t="n">
-        <v>85.09999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="I488" t="n">
         <v>103</v>
@@ -29744,6 +31207,9 @@
       <c r="R488" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S488" t="n">
+        <v>3.880219628181262</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -29772,7 +31238,7 @@
         <v>94.81999999999999</v>
       </c>
       <c r="H489" t="n">
-        <v>83.12</v>
+        <v>28.4</v>
       </c>
       <c r="I489" t="n">
         <v>103.05</v>
@@ -29803,6 +31269,9 @@
       </c>
       <c r="R489" t="n">
         <v>0.01016</v>
+      </c>
+      <c r="S489" t="n">
+        <v>4.474896126991551</v>
       </c>
     </row>
   </sheetData>

--- a/result/NCDC_weather_data/stations_imputed/58150099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58150099999.xlsx
@@ -557,7 +557,7 @@
         <v>3.611111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>32.1</v>
+        <v>0.05555555555555635</v>
       </c>
       <c r="I2" t="n">
         <v>102.82</v>
@@ -590,7 +590,7 @@
         <v>0.01016</v>
       </c>
       <c r="S2" t="n">
-        <v>604.8820989390756</v>
+        <v>77.5547063265907</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>2.666666666666665</v>
       </c>
       <c r="H3" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I3" t="n">
         <v>102.94</v>
@@ -653,7 +653,7 @@
         <v>0.01016</v>
       </c>
       <c r="S3" t="n">
-        <v>550.9235570610095</v>
+        <v>74.0122309113633</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>32.9</v>
+        <v>0.4999999999999992</v>
       </c>
       <c r="I4" t="n">
         <v>102.7</v>
@@ -716,7 +716,7 @@
         <v>0.01016</v>
       </c>
       <c r="S4" t="n">
-        <v>660.7572199926378</v>
+        <v>83.62382708347337</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>5.333333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>36.3</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="I5" t="n">
         <v>102.77</v>
@@ -779,7 +779,7 @@
         <v>0.01016</v>
       </c>
       <c r="S5" t="n">
-        <v>677.811702784642</v>
+        <v>81.29727276368166</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>3.944444444444446</v>
       </c>
       <c r="H6" t="n">
-        <v>35.1</v>
+        <v>1.722222222222223</v>
       </c>
       <c r="I6" t="n">
         <v>102.83</v>
@@ -842,7 +842,7 @@
         <v>0.01016</v>
       </c>
       <c r="S6" t="n">
-        <v>699.026885880667</v>
+        <v>85.42133173350925</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +872,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>31.9</v>
+        <v>-0.05555555555555635</v>
       </c>
       <c r="I7" t="n">
         <v>103.31</v>
@@ -905,7 +905,7 @@
         <v>0.01016</v>
       </c>
       <c r="S7" t="n">
-        <v>575.1544093767309</v>
+        <v>73.98506275078087</v>
       </c>
     </row>
     <row r="8">
@@ -935,7 +935,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H8" t="n">
-        <v>28.2</v>
+        <v>-2.111111111111112</v>
       </c>
       <c r="I8" t="n">
         <v>103.09</v>
@@ -968,7 +968,7 @@
         <v>0.01016</v>
       </c>
       <c r="S8" t="n">
-        <v>539.8222455070219</v>
+        <v>73.90035618996156</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>2.722222222222221</v>
       </c>
       <c r="H9" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I9" t="n">
         <v>102.68</v>
@@ -1031,7 +1031,7 @@
         <v>0.01016</v>
       </c>
       <c r="S9" t="n">
-        <v>581.2942088182979</v>
+        <v>76.78500120597464</v>
       </c>
     </row>
     <row r="10">
@@ -1061,7 +1061,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H10" t="n">
-        <v>32.7</v>
+        <v>0.3888888888888905</v>
       </c>
       <c r="I10" t="n">
         <v>102.43</v>
@@ -1094,7 +1094,7 @@
         <v>0.01016</v>
       </c>
       <c r="S10" t="n">
-        <v>679.626103803448</v>
+        <v>86.29082411697439</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H11" t="n">
-        <v>31.8</v>
+        <v>-0.1111111111111107</v>
       </c>
       <c r="I11" t="n">
         <v>102.47</v>
@@ -1157,7 +1157,7 @@
         <v>0.01016</v>
       </c>
       <c r="S11" t="n">
-        <v>601.7080856220763</v>
+        <v>77.52789776527965</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
         <v>-0.6111111111111119</v>
       </c>
       <c r="H12" t="n">
-        <v>21.6</v>
+        <v>-5.777777777777778</v>
       </c>
       <c r="I12" t="n">
         <v>102.85</v>
@@ -1220,7 +1220,7 @@
         <v>0.01016</v>
       </c>
       <c r="S12" t="n">
-        <v>441.1374497671179</v>
+        <v>68.04459314267962</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1250,7 @@
         <v>2.722222222222221</v>
       </c>
       <c r="H13" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I13" t="n">
         <v>102.52</v>
@@ -1283,7 +1283,7 @@
         <v>0.01016</v>
       </c>
       <c r="S13" t="n">
-        <v>457.768297575594</v>
+        <v>64.90012707785687</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1313,7 @@
         <v>-1</v>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>-8.333333333333334</v>
       </c>
       <c r="I14" t="n">
         <v>103.01</v>
@@ -1346,7 +1346,7 @@
         <v>0.01016</v>
       </c>
       <c r="S14" t="n">
-        <v>340.7553476502218</v>
+        <v>57.50572452958331</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>1.222222222222224</v>
       </c>
       <c r="H15" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I15" t="n">
         <v>102.52</v>
@@ -1409,7 +1409,7 @@
         <v>0.01016</v>
       </c>
       <c r="S15" t="n">
-        <v>515.5807531905008</v>
+        <v>72.83783040124997</v>
       </c>
     </row>
     <row r="16">
@@ -1439,7 +1439,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I16" t="n">
         <v>102.53</v>
@@ -1472,7 +1472,7 @@
         <v>0.01016</v>
       </c>
       <c r="S16" t="n">
-        <v>530.7823431478103</v>
+        <v>69.41390946442797</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1502,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H17" t="n">
-        <v>28.3</v>
+        <v>-2.055555555555555</v>
       </c>
       <c r="I17" t="n">
         <v>102.99</v>
@@ -1535,7 +1535,7 @@
         <v>0.01016</v>
       </c>
       <c r="S17" t="n">
-        <v>542.9766181047527</v>
+        <v>74.20407098866266</v>
       </c>
     </row>
     <row r="18">
@@ -1565,7 +1565,7 @@
         <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>29.9</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="I18" t="n">
         <v>103.05</v>
@@ -1598,7 +1598,7 @@
         <v>0.01016</v>
       </c>
       <c r="S18" t="n">
-        <v>577.1206218732169</v>
+        <v>76.74806999187552</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6</v>
+        <v>-0.2222222222222214</v>
       </c>
       <c r="I19" t="n">
         <v>102.66</v>
@@ -1661,7 +1661,7 @@
         <v>0.01016</v>
       </c>
       <c r="S19" t="n">
-        <v>613.8956961030469</v>
+        <v>79.35875736594284</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1691,7 @@
         <v>4.888888888888888</v>
       </c>
       <c r="H20" t="n">
-        <v>32.8</v>
+        <v>0.4444444444444429</v>
       </c>
       <c r="I20" t="n">
         <v>102.79</v>
@@ -1724,7 +1724,7 @@
         <v>0.01016</v>
       </c>
       <c r="S20" t="n">
-        <v>575.3711015905815</v>
+        <v>72.93548923851532</v>
       </c>
     </row>
     <row r="21">
@@ -1754,7 +1754,7 @@
         <v>1.222222222222224</v>
       </c>
       <c r="H21" t="n">
-        <v>24.9</v>
+        <v>-3.944444444444446</v>
       </c>
       <c r="I21" t="n">
         <v>103.15</v>
@@ -1787,7 +1787,7 @@
         <v>0.01016</v>
       </c>
       <c r="S21" t="n">
-        <v>471.6331193140883</v>
+        <v>68.44099272683999</v>
       </c>
     </row>
     <row r="22">
@@ -1817,7 +1817,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="H22" t="n">
-        <v>31.3</v>
+        <v>-0.3888888888888885</v>
       </c>
       <c r="I22" t="n">
         <v>102.78</v>
@@ -1850,7 +1850,7 @@
         <v>0.01016</v>
       </c>
       <c r="S22" t="n">
-        <v>566.8152389332239</v>
+        <v>73.63620714628857</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1880,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H23" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
         <v>102.24</v>
@@ -1913,7 +1913,7 @@
         <v>0.01016</v>
       </c>
       <c r="S23" t="n">
-        <v>803.031506518478</v>
+        <v>89.78874753103969</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>4.666666666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I24" t="n">
         <v>102.34</v>
@@ -1976,7 +1976,7 @@
         <v>0.01016</v>
       </c>
       <c r="S24" t="n">
-        <v>713.9508883700267</v>
+        <v>85.4999514251528</v>
       </c>
     </row>
     <row r="25">
@@ -2006,7 +2006,7 @@
         <v>2.166666666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>28.5</v>
+        <v>-1.944444444444445</v>
       </c>
       <c r="I25" t="n">
         <v>102.48</v>
@@ -2039,7 +2039,7 @@
         <v>0.01016</v>
       </c>
       <c r="S25" t="n">
-        <v>544.9974651581746</v>
+        <v>74.22426566206528</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H26" t="n">
-        <v>27.3</v>
+        <v>-2.611111111111111</v>
       </c>
       <c r="I26" t="n">
         <v>102.55</v>
@@ -2102,7 +2102,7 @@
         <v>0.01016</v>
       </c>
       <c r="S26" t="n">
-        <v>500.1238413939862</v>
+        <v>69.54449998532975</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>4.333333333333332</v>
       </c>
       <c r="H27" t="n">
-        <v>31.9</v>
+        <v>-0.05555555555555635</v>
       </c>
       <c r="I27" t="n">
         <v>102.72</v>
@@ -2165,7 +2165,7 @@
         <v>0.01016</v>
       </c>
       <c r="S27" t="n">
-        <v>568.4739401989923</v>
+        <v>73.12571972347931</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2195,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>28</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="I28" t="n">
         <v>102.99</v>
@@ -2228,7 +2228,7 @@
         <v>0.01016</v>
       </c>
       <c r="S28" t="n">
-        <v>481.5962043316654</v>
+        <v>66.15767606035305</v>
       </c>
     </row>
     <row r="29">
@@ -2258,7 +2258,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H29" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I29" t="n">
         <v>102.9</v>
@@ -2291,7 +2291,7 @@
         <v>0.01016</v>
       </c>
       <c r="S29" t="n">
-        <v>416.0740404526179</v>
+        <v>61.15106001886642</v>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2321,7 @@
         <v>2.11111111111111</v>
       </c>
       <c r="H30" t="n">
-        <v>25.6</v>
+        <v>-3.555555555555555</v>
       </c>
       <c r="I30" t="n">
         <v>102.55</v>
@@ -2354,7 +2354,7 @@
         <v>0.01016</v>
       </c>
       <c r="S30" t="n">
-        <v>461.4028712789398</v>
+        <v>66.1187344280559</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2384,7 @@
         <v>0.6111111111111119</v>
       </c>
       <c r="H31" t="n">
-        <v>22.8</v>
+        <v>-5.111111111111111</v>
       </c>
       <c r="I31" t="n">
         <v>102.71</v>
@@ -2417,7 +2417,7 @@
         <v>0.01016</v>
       </c>
       <c r="S31" t="n">
-        <v>434.328019851268</v>
+        <v>65.50235602827181</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2447,7 @@
         <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I32" t="n">
         <v>102.76</v>
@@ -2480,7 +2480,7 @@
         <v>0.01016</v>
       </c>
       <c r="S32" t="n">
-        <v>443.4947197787611</v>
+        <v>63.78072830782606</v>
       </c>
     </row>
     <row r="33">
@@ -2510,7 +2510,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>21</v>
+        <v>-6.111111111111112</v>
       </c>
       <c r="I33" t="n">
         <v>103.23</v>
@@ -2543,7 +2543,7 @@
         <v>0.01016</v>
       </c>
       <c r="S33" t="n">
-        <v>382.915871767626</v>
+        <v>59.74136611459411</v>
       </c>
     </row>
     <row r="34">
@@ -2573,7 +2573,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H34" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I34" t="n">
         <v>103.08</v>
@@ -2606,7 +2606,7 @@
         <v>0.01016</v>
       </c>
       <c r="S34" t="n">
-        <v>488.7617607605756</v>
+        <v>69.91408763295438</v>
       </c>
     </row>
     <row r="35">
@@ -2636,7 +2636,7 @@
         <v>0.8888888888888897</v>
       </c>
       <c r="H35" t="n">
-        <v>25.3</v>
+        <v>-3.722222222222222</v>
       </c>
       <c r="I35" t="n">
         <v>102.9</v>
@@ -2669,7 +2669,7 @@
         <v>0.01016</v>
       </c>
       <c r="S35" t="n">
-        <v>494.7423859251985</v>
+        <v>71.27876371259219</v>
       </c>
     </row>
     <row r="36">
@@ -2699,7 +2699,7 @@
         <v>2.11111111111111</v>
       </c>
       <c r="H36" t="n">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="I36" t="n">
         <v>103.04</v>
@@ -2732,7 +2732,7 @@
         <v>0.01016</v>
       </c>
       <c r="S36" t="n">
-        <v>394.761245306782</v>
+        <v>59.31429083816764</v>
       </c>
     </row>
     <row r="37">
@@ -2762,7 +2762,7 @@
         <v>-0.8333333333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>12.4</v>
+        <v>-10.88888888888889</v>
       </c>
       <c r="I37" t="n">
         <v>103.41</v>
@@ -2795,7 +2795,7 @@
         <v>0.01016</v>
       </c>
       <c r="S37" t="n">
-        <v>250.1536224568318</v>
+        <v>46.46456007575998</v>
       </c>
     </row>
     <row r="38">
@@ -2825,7 +2825,7 @@
         <v>1.500000000000002</v>
       </c>
       <c r="H38" t="n">
-        <v>21.4</v>
+        <v>-5.88888888888889</v>
       </c>
       <c r="I38" t="n">
         <v>103.13</v>
@@ -2858,7 +2858,7 @@
         <v>0.01016</v>
       </c>
       <c r="S38" t="n">
-        <v>374.076765314784</v>
+        <v>57.91972835103216</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H39" t="n">
-        <v>32.6</v>
+        <v>0.3333333333333341</v>
       </c>
       <c r="I39" t="n">
         <v>102.87</v>
@@ -2921,7 +2921,7 @@
         <v>0.01016</v>
       </c>
       <c r="S39" t="n">
-        <v>728.7330216471046</v>
+        <v>92.67609022267195</v>
       </c>
     </row>
     <row r="40">
@@ -2951,7 +2951,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>27.8</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="I40" t="n">
         <v>102.96</v>
@@ -2984,7 +2984,7 @@
         <v>0.01016</v>
       </c>
       <c r="S40" t="n">
-        <v>529.4595325281975</v>
+        <v>72.98532968039872</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H41" t="n">
-        <v>29.6</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="I41" t="n">
         <v>102.6</v>
@@ -3047,7 +3047,7 @@
         <v>0.01016</v>
       </c>
       <c r="S41" t="n">
-        <v>569.474766665114</v>
+        <v>76.11607665340361</v>
       </c>
     </row>
     <row r="42">
@@ -3077,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I42" t="n">
         <v>102.57</v>
@@ -3110,7 +3110,7 @@
         <v>0.01016</v>
       </c>
       <c r="S42" t="n">
-        <v>617.3945496912042</v>
+        <v>79.67985044449128</v>
       </c>
     </row>
     <row r="43">
@@ -3140,7 +3140,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H43" t="n">
-        <v>35.1</v>
+        <v>1.722222222222223</v>
       </c>
       <c r="I43" t="n">
         <v>102.62</v>
@@ -3173,7 +3173,7 @@
         <v>0.01016</v>
       </c>
       <c r="S43" t="n">
-        <v>615.112613294359</v>
+        <v>75.16697805905727</v>
       </c>
     </row>
     <row r="44">
@@ -3203,7 +3203,7 @@
         <v>6.722222222222223</v>
       </c>
       <c r="H44" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I44" t="n">
         <v>102.44</v>
@@ -3236,7 +3236,7 @@
         <v>0.01016</v>
       </c>
       <c r="S44" t="n">
-        <v>664.7772123802572</v>
+        <v>78.04691136458625</v>
       </c>
     </row>
     <row r="45">
@@ -3266,7 +3266,7 @@
         <v>2.833333333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>34.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I45" t="n">
         <v>102.38</v>
@@ -3299,7 +3299,7 @@
         <v>0.01016</v>
       </c>
       <c r="S45" t="n">
-        <v>727.2132128473997</v>
+        <v>89.85147658443809</v>
       </c>
     </row>
     <row r="46">
@@ -3329,7 +3329,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H46" t="n">
-        <v>30.8</v>
+        <v>-0.6666666666666663</v>
       </c>
       <c r="I46" t="n">
         <v>102.68</v>
@@ -3362,7 +3362,7 @@
         <v>0.01016</v>
       </c>
       <c r="S46" t="n">
-        <v>557.3636510514342</v>
+        <v>73.01149182806094</v>
       </c>
     </row>
     <row r="47">
@@ -3392,7 +3392,7 @@
         <v>1.222222222222224</v>
       </c>
       <c r="H47" t="n">
-        <v>26.8</v>
+        <v>-2.888888888888889</v>
       </c>
       <c r="I47" t="n">
         <v>102.73</v>
@@ -3425,7 +3425,7 @@
         <v>0.01016</v>
       </c>
       <c r="S47" t="n">
-        <v>527.8884295268314</v>
+        <v>74.05190252784659</v>
       </c>
     </row>
     <row r="48">
@@ -3455,7 +3455,7 @@
         <v>0.9444444444444461</v>
       </c>
       <c r="H48" t="n">
-        <v>23.4</v>
+        <v>-4.777777777777779</v>
       </c>
       <c r="I48" t="n">
         <v>102.92</v>
@@ -3488,7 +3488,7 @@
         <v>0.01016</v>
       </c>
       <c r="S48" t="n">
-        <v>439.6973691353128</v>
+        <v>65.57883463730676</v>
       </c>
     </row>
     <row r="49">
@@ -3518,7 +3518,7 @@
         <v>1.277777777777776</v>
       </c>
       <c r="H49" t="n">
-        <v>23.2</v>
+        <v>-4.888888888888889</v>
       </c>
       <c r="I49" t="n">
         <v>103.07</v>
@@ -3551,7 +3551,7 @@
         <v>0.01016</v>
       </c>
       <c r="S49" t="n">
-        <v>424.1248721481494</v>
+        <v>63.49051203610819</v>
       </c>
     </row>
     <row r="50">
@@ -3581,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I50" t="n">
         <v>102.92</v>
@@ -3614,7 +3614,7 @@
         <v>0.01016</v>
       </c>
       <c r="S50" t="n">
-        <v>589.8842477282892</v>
+        <v>77.14305551965417</v>
       </c>
     </row>
     <row r="51">
@@ -3644,7 +3644,7 @@
         <v>1.055555555555555</v>
       </c>
       <c r="H51" t="n">
-        <v>13.4</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="I51" t="n">
         <v>103.22</v>
@@ -3677,7 +3677,7 @@
         <v>0.01016</v>
       </c>
       <c r="S51" t="n">
-        <v>232.8923625191258</v>
+        <v>42.34348873552393</v>
       </c>
     </row>
     <row r="52">
@@ -3707,7 +3707,7 @@
         <v>-0.8888888888888897</v>
       </c>
       <c r="H52" t="n">
-        <v>13.1</v>
+        <v>-10.5</v>
       </c>
       <c r="I52" t="n">
         <v>103.28</v>
@@ -3740,7 +3740,7 @@
         <v>0.01016</v>
       </c>
       <c r="S52" t="n">
-        <v>262.9602903532248</v>
+        <v>48.11638331206228</v>
       </c>
     </row>
     <row r="53">
@@ -3770,7 +3770,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>20.1</v>
+        <v>-6.611111111111111</v>
       </c>
       <c r="I53" t="n">
         <v>103.19</v>
@@ -3803,7 +3803,7 @@
         <v>0.01016</v>
       </c>
       <c r="S53" t="n">
-        <v>303.0563162197527</v>
+        <v>48.1062487438099</v>
       </c>
     </row>
     <row r="54">
@@ -3833,7 +3833,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H54" t="n">
-        <v>22.9</v>
+        <v>-5.055555555555556</v>
       </c>
       <c r="I54" t="n">
         <v>103.54</v>
@@ -3866,7 +3866,7 @@
         <v>0.01016</v>
       </c>
       <c r="S54" t="n">
-        <v>358.3661975093703</v>
+        <v>53.94589817290893</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +3896,7 @@
         <v>-0.05555555555555635</v>
       </c>
       <c r="H55" t="n">
-        <v>20.9</v>
+        <v>-6.166666666666668</v>
       </c>
       <c r="I55" t="n">
         <v>103.61</v>
@@ -3929,7 +3929,7 @@
         <v>0.01016</v>
       </c>
       <c r="S55" t="n">
-        <v>405.8409322013631</v>
+        <v>63.43910061398387</v>
       </c>
     </row>
     <row r="56">
@@ -3959,7 +3959,7 @@
         <v>2.777777777777778</v>
       </c>
       <c r="H56" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I56" t="n">
         <v>103.23</v>
@@ -3992,7 +3992,7 @@
         <v>0.01016</v>
       </c>
       <c r="S56" t="n">
-        <v>356.434989722433</v>
+        <v>54.46341275064292</v>
       </c>
     </row>
     <row r="57">
@@ -4022,7 +4022,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H57" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I57" t="n">
         <v>102.58</v>
@@ -4055,7 +4055,7 @@
         <v>0.01016</v>
       </c>
       <c r="S57" t="n">
-        <v>348.3368529189063</v>
+        <v>50.09569941826376</v>
       </c>
     </row>
     <row r="58">
@@ -4085,7 +4085,7 @@
         <v>6.611111111111111</v>
       </c>
       <c r="H58" t="n">
-        <v>28.2</v>
+        <v>-2.111111111111112</v>
       </c>
       <c r="I58" t="n">
         <v>102.3</v>
@@ -4118,7 +4118,7 @@
         <v>0.01016</v>
       </c>
       <c r="S58" t="n">
-        <v>392.3249503681929</v>
+        <v>53.70833420765598</v>
       </c>
     </row>
     <row r="59">
@@ -4148,7 +4148,7 @@
         <v>6.944444444444445</v>
       </c>
       <c r="H59" t="n">
-        <v>31.1</v>
+        <v>-0.4999999999999992</v>
       </c>
       <c r="I59" t="n">
         <v>102.26</v>
@@ -4181,7 +4181,7 @@
         <v>0.01016</v>
       </c>
       <c r="S59" t="n">
-        <v>453.2460507189061</v>
+        <v>59.07748409455206</v>
       </c>
     </row>
     <row r="60">
@@ -4211,7 +4211,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H60" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I60" t="n">
         <v>101.62</v>
@@ -4244,7 +4244,7 @@
         <v>0.01016</v>
       </c>
       <c r="S60" t="n">
-        <v>775.5760645240451</v>
+        <v>81.09127127279827</v>
       </c>
     </row>
     <row r="61">
@@ -4274,7 +4274,7 @@
         <v>4.222222222222223</v>
       </c>
       <c r="H61" t="n">
-        <v>31</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="I61" t="n">
         <v>102.27</v>
@@ -4307,7 +4307,7 @@
         <v>0.01016</v>
       </c>
       <c r="S61" t="n">
-        <v>544.3098411213434</v>
+        <v>71.06482415049571</v>
       </c>
     </row>
     <row r="62">
@@ -4337,7 +4337,7 @@
         <v>7.11111111111111</v>
       </c>
       <c r="H62" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I62" t="n">
         <v>102.02</v>
@@ -4370,7 +4370,7 @@
         <v>0.01016</v>
       </c>
       <c r="S62" t="n">
-        <v>428.0448790998793</v>
+        <v>56.54180973987523</v>
       </c>
     </row>
     <row r="63">
@@ -4400,7 +4400,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H63" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I63" t="n">
         <v>101.59</v>
@@ -4433,7 +4433,7 @@
         <v>0.01016</v>
       </c>
       <c r="S63" t="n">
-        <v>488.6565030502757</v>
+        <v>57.02466643558103</v>
       </c>
     </row>
     <row r="64">
@@ -4463,7 +4463,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H64" t="n">
-        <v>34.6</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="I64" t="n">
         <v>101.46</v>
@@ -4496,7 +4496,7 @@
         <v>0.01016</v>
       </c>
       <c r="S64" t="n">
-        <v>361.3667433816718</v>
+        <v>44.50799448125846</v>
       </c>
     </row>
     <row r="65">
@@ -4526,7 +4526,7 @@
         <v>5.499999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>24.6</v>
+        <v>-4.111111111111111</v>
       </c>
       <c r="I65" t="n">
         <v>102.41</v>
@@ -4559,7 +4559,7 @@
         <v>0.01016</v>
       </c>
       <c r="S65" t="n">
-        <v>342.4794869228599</v>
+        <v>49.96964613383233</v>
       </c>
     </row>
     <row r="66">
@@ -4589,7 +4589,7 @@
         <v>5.388888888888891</v>
       </c>
       <c r="H66" t="n">
-        <v>29.4</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="I66" t="n">
         <v>102.48</v>
@@ -4622,7 +4622,7 @@
         <v>0.01016</v>
       </c>
       <c r="S66" t="n">
-        <v>457.6952209597143</v>
+        <v>61.38337416995757</v>
       </c>
     </row>
     <row r="67">
@@ -4652,7 +4652,7 @@
         <v>8.666666666666668</v>
       </c>
       <c r="H67" t="n">
-        <v>34</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I67" t="n">
         <v>102.03</v>
@@ -4685,7 +4685,7 @@
         <v>0.01016</v>
       </c>
       <c r="S67" t="n">
-        <v>474.7775590249494</v>
+        <v>59.03537740971056</v>
       </c>
     </row>
     <row r="68">
@@ -4715,7 +4715,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>42.4</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="I68" t="n">
         <v>101.84</v>
@@ -4748,7 +4748,7 @@
         <v>0.01016</v>
       </c>
       <c r="S68" t="n">
-        <v>654.6718968036851</v>
+        <v>71.74843386930235</v>
       </c>
     </row>
     <row r="69">
@@ -4778,7 +4778,7 @@
         <v>11.38888888888889</v>
       </c>
       <c r="H69" t="n">
-        <v>41.5</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="I69" t="n">
         <v>101.97</v>
@@ -4811,7 +4811,7 @@
         <v>0.01016</v>
       </c>
       <c r="S69" t="n">
-        <v>595.048645270615</v>
+        <v>66.05641638255139</v>
       </c>
     </row>
     <row r="70">
@@ -4841,7 +4841,7 @@
         <v>12.72222222222222</v>
       </c>
       <c r="H70" t="n">
-        <v>49.5</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="I70" t="n">
         <v>101.48</v>
@@ -4874,7 +4874,7 @@
         <v>0.01016</v>
       </c>
       <c r="S70" t="n">
-        <v>823.0402118334359</v>
+        <v>81.95930430781306</v>
       </c>
     </row>
     <row r="71">
@@ -4904,7 +4904,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H71" t="n">
-        <v>47.7</v>
+        <v>8.722222222222225</v>
       </c>
       <c r="I71" t="n">
         <v>101.71</v>
@@ -4937,7 +4937,7 @@
         <v>0.01016</v>
       </c>
       <c r="S71" t="n">
-        <v>941.3510736834023</v>
+        <v>95.96061460036879</v>
       </c>
     </row>
     <row r="72">
@@ -4967,7 +4967,7 @@
         <v>15.11111111111111</v>
       </c>
       <c r="H72" t="n">
-        <v>54.4</v>
+        <v>12.44444444444444</v>
       </c>
       <c r="I72" t="n">
         <v>101.04</v>
@@ -5000,7 +5000,7 @@
         <v>0.01016</v>
       </c>
       <c r="S72" t="n">
-        <v>897.3335294792188</v>
+        <v>84.08474587685568</v>
       </c>
     </row>
     <row r="73">
@@ -5030,7 +5030,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H73" t="n">
-        <v>49.6</v>
+        <v>9.777777777777779</v>
       </c>
       <c r="I73" t="n">
         <v>101.26</v>
@@ -5063,7 +5063,7 @@
         <v>0.01016</v>
       </c>
       <c r="S73" t="n">
-        <v>972.3984053683663</v>
+        <v>96.7083988170338</v>
       </c>
     </row>
     <row r="74">
@@ -5093,7 +5093,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I74" t="n">
         <v>101.63</v>
@@ -5126,7 +5126,7 @@
         <v>0.01016</v>
       </c>
       <c r="S74" t="n">
-        <v>682.7493730451499</v>
+        <v>73.98670332927102</v>
       </c>
     </row>
     <row r="75">
@@ -5156,7 +5156,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H75" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I75" t="n">
         <v>101.24</v>
@@ -5189,7 +5189,7 @@
         <v>0.01016</v>
       </c>
       <c r="S75" t="n">
-        <v>676.5731721538065</v>
+        <v>71.02796232688566</v>
       </c>
     </row>
     <row r="76">
@@ -5219,7 +5219,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H76" t="n">
-        <v>48</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="I76" t="n">
         <v>101.52</v>
@@ -5252,7 +5252,7 @@
         <v>0.01016</v>
       </c>
       <c r="S76" t="n">
-        <v>848.6945572646287</v>
+        <v>86.17495692856757</v>
       </c>
     </row>
     <row r="77">
@@ -5282,7 +5282,7 @@
         <v>5.499999999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>39.2</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="I77" t="n">
         <v>101.6</v>
@@ -5315,7 +5315,7 @@
         <v>0.01016</v>
       </c>
       <c r="S77" t="n">
-        <v>784.4966561642391</v>
+        <v>90.05717431016528</v>
       </c>
     </row>
     <row r="78">
@@ -5345,7 +5345,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H78" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>101.28</v>
@@ -5378,7 +5378,7 @@
         <v>0.01016</v>
       </c>
       <c r="S78" t="n">
-        <v>597.0312203096386</v>
+        <v>70.41279880663048</v>
       </c>
     </row>
     <row r="79">
@@ -5408,7 +5408,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H79" t="n">
-        <v>31.1</v>
+        <v>-0.4999999999999992</v>
       </c>
       <c r="I79" t="n">
         <v>101.97</v>
@@ -5441,7 +5441,7 @@
         <v>0.01016</v>
       </c>
       <c r="S79" t="n">
-        <v>541.0701442943863</v>
+        <v>70.52474653201702</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +5471,7 @@
         <v>4.944444444444444</v>
       </c>
       <c r="H80" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I80" t="n">
         <v>102.27</v>
@@ -5504,7 +5504,7 @@
         <v>0.01016</v>
       </c>
       <c r="S80" t="n">
-        <v>616.5054077868139</v>
+        <v>76.53638358287186</v>
       </c>
     </row>
     <row r="81">
@@ -5534,7 +5534,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H81" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I81" t="n">
         <v>102.44</v>
@@ -5567,7 +5567,7 @@
         <v>0.01016</v>
       </c>
       <c r="S81" t="n">
-        <v>697.3693090916915</v>
+        <v>81.13665252430292</v>
       </c>
     </row>
     <row r="82">
@@ -5597,7 +5597,7 @@
         <v>7.166666666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I82" t="n">
         <v>102.46</v>
@@ -5630,7 +5630,7 @@
         <v>0.01016</v>
       </c>
       <c r="S82" t="n">
-        <v>627.4780891206705</v>
+        <v>74.22912718121705</v>
       </c>
     </row>
     <row r="83">
@@ -5660,7 +5660,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H83" t="n">
-        <v>38.5</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="I83" t="n">
         <v>101.9</v>
@@ -5693,7 +5693,7 @@
         <v>0.01016</v>
       </c>
       <c r="S83" t="n">
-        <v>603.5036493698673</v>
+        <v>70.00562855643696</v>
       </c>
     </row>
     <row r="84">
@@ -5723,7 +5723,7 @@
         <v>12.27777777777778</v>
       </c>
       <c r="H84" t="n">
-        <v>46.7</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="I84" t="n">
         <v>101.33</v>
@@ -5756,7 +5756,7 @@
         <v>0.01016</v>
       </c>
       <c r="S84" t="n">
-        <v>735.4611706536472</v>
+        <v>75.97291029402582</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +5786,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H85" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I85" t="n">
         <v>100.53</v>
@@ -5819,7 +5819,7 @@
         <v>0.01016</v>
       </c>
       <c r="S85" t="n">
-        <v>998.364098564295</v>
+        <v>93.66417679360738</v>
       </c>
     </row>
     <row r="86">
@@ -5849,7 +5849,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H86" t="n">
-        <v>36.2</v>
+        <v>2.333333333333335</v>
       </c>
       <c r="I86" t="n">
         <v>101.68</v>
@@ -5882,7 +5882,7 @@
         <v>0.01016</v>
       </c>
       <c r="S86" t="n">
-        <v>437.2588030367846</v>
+        <v>52.52617665679051</v>
       </c>
     </row>
     <row r="87">
@@ -5912,7 +5912,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H87" t="n">
-        <v>36.2</v>
+        <v>2.333333333333335</v>
       </c>
       <c r="I87" t="n">
         <v>102.38</v>
@@ -5945,7 +5945,7 @@
         <v>0.01016</v>
       </c>
       <c r="S87" t="n">
-        <v>546.5461047827997</v>
+        <v>65.65442948552142</v>
       </c>
     </row>
     <row r="88">
@@ -5975,7 +5975,7 @@
         <v>7.777777777777779</v>
       </c>
       <c r="H88" t="n">
-        <v>35.1</v>
+        <v>1.722222222222223</v>
       </c>
       <c r="I88" t="n">
         <v>102.55</v>
@@ -6008,7 +6008,7 @@
         <v>0.01016</v>
       </c>
       <c r="S88" t="n">
-        <v>536.1553684313177</v>
+        <v>65.51837491883248</v>
       </c>
     </row>
     <row r="89">
@@ -6038,7 +6038,7 @@
         <v>11.38888888888889</v>
       </c>
       <c r="H89" t="n">
-        <v>44.4</v>
+        <v>6.888888888888888</v>
       </c>
       <c r="I89" t="n">
         <v>101.92</v>
@@ -6071,7 +6071,7 @@
         <v>0.01016</v>
       </c>
       <c r="S89" t="n">
-        <v>692.781299496762</v>
+        <v>73.8320996480237</v>
       </c>
     </row>
     <row r="90">
@@ -6101,7 +6101,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H90" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I90" t="n">
         <v>102.29</v>
@@ -6134,7 +6134,7 @@
         <v>0.01016</v>
       </c>
       <c r="S90" t="n">
-        <v>771.2018363168446</v>
+        <v>79.13675917539469</v>
       </c>
     </row>
     <row r="91">
@@ -6164,7 +6164,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H91" t="n">
-        <v>33.3</v>
+        <v>0.7222222222222207</v>
       </c>
       <c r="I91" t="n">
         <v>103.16</v>
@@ -6197,7 +6197,7 @@
         <v>0.01016</v>
       </c>
       <c r="S91" t="n">
-        <v>451.4053690474114</v>
+        <v>56.76147266338466</v>
       </c>
     </row>
     <row r="92">
@@ -6227,7 +6227,7 @@
         <v>5.999999999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>31.6</v>
+        <v>-0.2222222222222214</v>
       </c>
       <c r="I92" t="n">
         <v>103.27</v>
@@ -6260,7 +6260,7 @@
         <v>0.01016</v>
       </c>
       <c r="S92" t="n">
-        <v>497.6743203469245</v>
+        <v>64.33473289743115</v>
       </c>
     </row>
     <row r="93">
@@ -6290,7 +6290,7 @@
         <v>6.888888888888888</v>
       </c>
       <c r="H93" t="n">
-        <v>33.6</v>
+        <v>0.8888888888888897</v>
       </c>
       <c r="I93" t="n">
         <v>103</v>
@@ -6323,7 +6323,7 @@
         <v>0.01016</v>
       </c>
       <c r="S93" t="n">
-        <v>524.0624599871817</v>
+        <v>65.58118923793231</v>
       </c>
     </row>
     <row r="94">
@@ -6353,7 +6353,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H94" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I94" t="n">
         <v>102.91</v>
@@ -6386,7 +6386,7 @@
         <v>0.01016</v>
       </c>
       <c r="S94" t="n">
-        <v>551.8804243351821</v>
+        <v>65.28610786108607</v>
       </c>
     </row>
     <row r="95">
@@ -6416,7 +6416,7 @@
         <v>11.5</v>
       </c>
       <c r="H95" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I95" t="n">
         <v>102.59</v>
@@ -6449,7 +6449,7 @@
         <v>0.01016</v>
       </c>
       <c r="S95" t="n">
-        <v>569.1341571390473</v>
+        <v>63.82058581250617</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>12.72222222222222</v>
       </c>
       <c r="H96" t="n">
-        <v>48.4</v>
+        <v>9.111111111111111</v>
       </c>
       <c r="I96" t="n">
         <v>102.02</v>
@@ -6512,7 +6512,7 @@
         <v>0.01016</v>
       </c>
       <c r="S96" t="n">
-        <v>778.7317804924169</v>
+        <v>78.65861769145631</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I97" t="n">
         <v>102.02</v>
@@ -6575,7 +6575,7 @@
         <v>0.01016</v>
       </c>
       <c r="S97" t="n">
-        <v>857.2756380112007</v>
+        <v>83.8621928169671</v>
       </c>
     </row>
     <row r="98">
@@ -6605,7 +6605,7 @@
         <v>11</v>
       </c>
       <c r="H98" t="n">
-        <v>50.6</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="I98" t="n">
         <v>101.95</v>
@@ -6638,7 +6638,7 @@
         <v>0.01016</v>
       </c>
       <c r="S98" t="n">
-        <v>974.1512551135982</v>
+        <v>95.65688225332931</v>
       </c>
     </row>
     <row r="99">
@@ -6668,7 +6668,7 @@
         <v>20.83333333333334</v>
       </c>
       <c r="H99" t="n">
-        <v>51.1</v>
+        <v>10.61111111111111</v>
       </c>
       <c r="I99" t="n">
         <v>101.32</v>
@@ -6701,7 +6701,7 @@
         <v>0.01016</v>
       </c>
       <c r="S99" t="n">
-        <v>532.4425349213786</v>
+        <v>51.95486447370419</v>
       </c>
     </row>
     <row r="100">
@@ -6731,7 +6731,7 @@
         <v>20.55555555555556</v>
       </c>
       <c r="H100" t="n">
-        <v>52.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="I100" t="n">
         <v>101.1</v>
@@ -6764,7 +6764,7 @@
         <v>0.01016</v>
       </c>
       <c r="S100" t="n">
-        <v>580.3759624859706</v>
+        <v>55.65466877830772</v>
       </c>
     </row>
     <row r="101">
@@ -6794,7 +6794,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H101" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I101" t="n">
         <v>100.97</v>
@@ -6827,7 +6827,7 @@
         <v>0.01016</v>
       </c>
       <c r="S101" t="n">
-        <v>965.7138518138712</v>
+        <v>84.45604724203504</v>
       </c>
     </row>
     <row r="102">
@@ -6857,7 +6857,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H102" t="n">
-        <v>62.3</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="I102" t="n">
         <v>100.83</v>
@@ -6890,7 +6890,7 @@
         <v>0.01016</v>
       </c>
       <c r="S102" t="n">
-        <v>869.6020862215926</v>
+        <v>74.49393305847313</v>
       </c>
     </row>
     <row r="103">
@@ -6920,7 +6920,7 @@
         <v>14.72222222222222</v>
       </c>
       <c r="H103" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I103" t="n">
         <v>101.21</v>
@@ -6953,7 +6953,7 @@
         <v>0.01016</v>
       </c>
       <c r="S103" t="n">
-        <v>794.3735117220211</v>
+        <v>77.22279720201941</v>
       </c>
     </row>
     <row r="104">
@@ -6983,7 +6983,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H104" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I104" t="n">
         <v>101.44</v>
@@ -7016,7 +7016,7 @@
         <v>0.01016</v>
       </c>
       <c r="S104" t="n">
-        <v>746.9621967275094</v>
+        <v>78.41753849014304</v>
       </c>
     </row>
     <row r="105">
@@ -7046,7 +7046,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I105" t="n">
         <v>102.02</v>
@@ -7079,7 +7079,7 @@
         <v>0.01016</v>
       </c>
       <c r="S105" t="n">
-        <v>762.9954890537443</v>
+        <v>79.34689410873908</v>
       </c>
     </row>
     <row r="106">
@@ -7109,7 +7109,7 @@
         <v>12.55555555555556</v>
       </c>
       <c r="H106" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>102.36</v>
@@ -7142,7 +7142,7 @@
         <v>0.01016</v>
       </c>
       <c r="S106" t="n">
-        <v>442.0290839314231</v>
+        <v>52.13212290204917</v>
       </c>
     </row>
     <row r="107">
@@ -7172,7 +7172,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H107" t="n">
-        <v>32.3</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="I107" t="n">
         <v>102.23</v>
@@ -7205,7 +7205,7 @@
         <v>0.01016</v>
       </c>
       <c r="S107" t="n">
-        <v>371.7506666678924</v>
+        <v>47.50846100413352</v>
       </c>
     </row>
     <row r="108">
@@ -7235,7 +7235,7 @@
         <v>13.83333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>40.1</v>
+        <v>4.500000000000001</v>
       </c>
       <c r="I108" t="n">
         <v>101.96</v>
@@ -7268,7 +7268,7 @@
         <v>0.01016</v>
       </c>
       <c r="S108" t="n">
-        <v>470.4861137032487</v>
+        <v>53.29903590825158</v>
       </c>
     </row>
     <row r="109">
@@ -7298,7 +7298,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H109" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I109" t="n">
         <v>101.9</v>
@@ -7331,7 +7331,7 @@
         <v>0.01016</v>
       </c>
       <c r="S109" t="n">
-        <v>583.5377214665543</v>
+        <v>62.01867354715637</v>
       </c>
     </row>
     <row r="110">
@@ -7361,7 +7361,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>54.6</v>
+        <v>12.55555555555556</v>
       </c>
       <c r="I110" t="n">
         <v>100.85</v>
@@ -7394,7 +7394,7 @@
         <v>0.01016</v>
       </c>
       <c r="S110" t="n">
-        <v>700.8092899058893</v>
+        <v>65.51230144460339</v>
       </c>
     </row>
     <row r="111">
@@ -7424,7 +7424,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>56.9</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="I111" t="n">
         <v>101.1</v>
@@ -7457,7 +7457,7 @@
         <v>0.01016</v>
       </c>
       <c r="S111" t="n">
-        <v>782.6970893227108</v>
+        <v>71.21299398684513</v>
       </c>
     </row>
     <row r="112">
@@ -7487,7 +7487,7 @@
         <v>16</v>
       </c>
       <c r="H112" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I112" t="n">
         <v>101.06</v>
@@ -7520,7 +7520,7 @@
         <v>0.01016</v>
       </c>
       <c r="S112" t="n">
-        <v>974.266064482815</v>
+        <v>88.23411643636555</v>
       </c>
     </row>
     <row r="113">
@@ -7550,7 +7550,7 @@
         <v>20.83333333333334</v>
       </c>
       <c r="H113" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I113" t="n">
         <v>100.87</v>
@@ -7583,7 +7583,7 @@
         <v>0.01016</v>
       </c>
       <c r="S113" t="n">
-        <v>951.6992643662791</v>
+        <v>80.66178003123522</v>
       </c>
     </row>
     <row r="114">
@@ -7613,7 +7613,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H114" t="n">
-        <v>60.3</v>
+        <v>15.72222222222222</v>
       </c>
       <c r="I114" t="n">
         <v>100.37</v>
@@ -7646,7 +7646,7 @@
         <v>0.01016</v>
       </c>
       <c r="S114" t="n">
-        <v>1142.189937527984</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
@@ -7676,7 +7676,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H115" t="n">
-        <v>45.9</v>
+        <v>7.722222222222221</v>
       </c>
       <c r="I115" t="n">
         <v>101.76</v>
@@ -7709,7 +7709,7 @@
         <v>0.01016</v>
       </c>
       <c r="S115" t="n">
-        <v>698.2367529387966</v>
+        <v>72.906417508681</v>
       </c>
     </row>
     <row r="116">
@@ -7739,7 +7739,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H116" t="n">
-        <v>44.4</v>
+        <v>6.888888888888888</v>
       </c>
       <c r="I116" t="n">
         <v>102.08</v>
@@ -7772,7 +7772,7 @@
         <v>0.01016</v>
       </c>
       <c r="S116" t="n">
-        <v>677.6748491378432</v>
+        <v>72.22215297504366</v>
       </c>
     </row>
     <row r="117">
@@ -7802,7 +7802,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H117" t="n">
-        <v>49.3</v>
+        <v>9.611111111111111</v>
       </c>
       <c r="I117" t="n">
         <v>102.06</v>
@@ -7835,7 +7835,7 @@
         <v>0.01016</v>
       </c>
       <c r="S117" t="n">
-        <v>752.3872430852929</v>
+        <v>75.11652139517648</v>
       </c>
     </row>
     <row r="118">
@@ -7865,7 +7865,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H118" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I118" t="n">
         <v>101.68</v>
@@ -7898,7 +7898,7 @@
         <v>0.01016</v>
       </c>
       <c r="S118" t="n">
-        <v>515.9077470486696</v>
+        <v>55.90677184501543</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H119" t="n">
-        <v>51.5</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I119" t="n">
         <v>101.74</v>
@@ -7961,7 +7961,7 @@
         <v>0.01016</v>
       </c>
       <c r="S119" t="n">
-        <v>692.5133545511022</v>
+        <v>67.23667166202218</v>
       </c>
     </row>
     <row r="120">
@@ -7991,7 +7991,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H120" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I120" t="n">
         <v>101.6</v>
@@ -8024,7 +8024,7 @@
         <v>0.01016</v>
       </c>
       <c r="S120" t="n">
-        <v>621.3923673981175</v>
+        <v>60.86377929589923</v>
       </c>
     </row>
     <row r="121">
@@ -8054,7 +8054,7 @@
         <v>21</v>
       </c>
       <c r="H121" t="n">
-        <v>60.3</v>
+        <v>15.72222222222222</v>
       </c>
       <c r="I121" t="n">
         <v>101.29</v>
@@ -8087,7 +8087,7 @@
         <v>0.01016</v>
       </c>
       <c r="S121" t="n">
-        <v>820.1636806013131</v>
+        <v>71.80624287203713</v>
       </c>
     </row>
     <row r="122">
@@ -8117,7 +8117,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H122" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I122" t="n">
         <v>101.37</v>
@@ -8150,7 +8150,7 @@
         <v>0.01016</v>
       </c>
       <c r="S122" t="n">
-        <v>933.5225540469901</v>
+        <v>78.78763664479294</v>
       </c>
     </row>
     <row r="123">
@@ -8180,7 +8180,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I123" t="n">
         <v>102.06</v>
@@ -8213,7 +8213,7 @@
         <v>0.01016</v>
       </c>
       <c r="S123" t="n">
-        <v>891.9110813117906</v>
+        <v>86.38064363909609</v>
       </c>
     </row>
     <row r="124">
@@ -8243,7 +8243,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H124" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I124" t="n">
         <v>101.94</v>
@@ -8276,7 +8276,7 @@
         <v>0.01016</v>
       </c>
       <c r="S124" t="n">
-        <v>585.6708112742325</v>
+        <v>60.90620522853769</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8306,7 @@
         <v>14</v>
       </c>
       <c r="H125" t="n">
-        <v>51.5</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I125" t="n">
         <v>101.78</v>
@@ -8339,7 +8339,7 @@
         <v>0.01016</v>
       </c>
       <c r="S125" t="n">
-        <v>836.5061468750376</v>
+        <v>81.21704624332962</v>
       </c>
     </row>
     <row r="126">
@@ -8369,7 +8369,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H126" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I126" t="n">
         <v>101.52</v>
@@ -8402,7 +8402,7 @@
         <v>0.01016</v>
       </c>
       <c r="S126" t="n">
-        <v>927.1705424185566</v>
+        <v>83.96892448425226</v>
       </c>
     </row>
     <row r="127">
@@ -8432,7 +8432,7 @@
         <v>17.16666666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>53.9</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="I127" t="n">
         <v>101.35</v>
@@ -8465,7 +8465,7 @@
         <v>0.01016</v>
       </c>
       <c r="S127" t="n">
-        <v>768.1197317333334</v>
+        <v>72.41119972970746</v>
       </c>
     </row>
     <row r="128">
@@ -8495,7 +8495,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H128" t="n">
-        <v>50.3</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="I128" t="n">
         <v>101.53</v>
@@ -8528,7 +8528,7 @@
         <v>0.01016</v>
       </c>
       <c r="S128" t="n">
-        <v>872.372064307788</v>
+        <v>85.98893052905994</v>
       </c>
     </row>
     <row r="129">
@@ -8558,7 +8558,7 @@
         <v>17.38888888888889</v>
       </c>
       <c r="H129" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I129" t="n">
         <v>101.76</v>
@@ -8591,7 +8591,7 @@
         <v>0.01016</v>
       </c>
       <c r="S129" t="n">
-        <v>550.9804834514563</v>
+        <v>56.31482590975436</v>
       </c>
     </row>
     <row r="130">
@@ -8621,7 +8621,7 @@
         <v>16.44444444444445</v>
       </c>
       <c r="H130" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I130" t="n">
         <v>101.53</v>
@@ -8654,7 +8654,7 @@
         <v>0.01016</v>
       </c>
       <c r="S130" t="n">
-        <v>476.0615559281342</v>
+        <v>51.37280990571394</v>
       </c>
     </row>
     <row r="131">
@@ -8684,7 +8684,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H131" t="n">
-        <v>52.1</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I131" t="n">
         <v>101.3</v>
@@ -8717,7 +8717,7 @@
         <v>0.01016</v>
       </c>
       <c r="S131" t="n">
-        <v>506.8797189854242</v>
+        <v>48.84751302933575</v>
       </c>
     </row>
     <row r="132">
@@ -8747,7 +8747,7 @@
         <v>22</v>
       </c>
       <c r="H132" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I132" t="n">
         <v>101.68</v>
@@ -8780,7 +8780,7 @@
         <v>0.01016</v>
       </c>
       <c r="S132" t="n">
-        <v>544.3209976681939</v>
+        <v>51.87789198906591</v>
       </c>
     </row>
     <row r="133">
@@ -8810,7 +8810,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H133" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I133" t="n">
         <v>101.47</v>
@@ -8843,7 +8843,7 @@
         <v>0.01016</v>
       </c>
       <c r="S133" t="n">
-        <v>552.2522912051008</v>
+        <v>53.4850495357687</v>
       </c>
     </row>
     <row r="134">
@@ -8873,7 +8873,7 @@
         <v>22.22222222222222</v>
       </c>
       <c r="H134" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I134" t="n">
         <v>101.2</v>
@@ -8906,7 +8906,7 @@
         <v>0.01016</v>
       </c>
       <c r="S134" t="n">
-        <v>612.1262495554779</v>
+        <v>56.47988730987478</v>
       </c>
     </row>
     <row r="135">
@@ -8936,7 +8936,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>60.2</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I135" t="n">
         <v>100.99</v>
@@ -8969,7 +8969,7 @@
         <v>0.01016</v>
       </c>
       <c r="S135" t="n">
-        <v>833.2775857414466</v>
+        <v>73.03506503602881</v>
       </c>
     </row>
     <row r="136">
@@ -8999,7 +8999,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H136" t="n">
-        <v>57.2</v>
+        <v>14</v>
       </c>
       <c r="I136" t="n">
         <v>100.87</v>
@@ -9032,7 +9032,7 @@
         <v>0.01016</v>
       </c>
       <c r="S136" t="n">
-        <v>644.4432951622788</v>
+        <v>58.43112741688702</v>
       </c>
     </row>
     <row r="137">
@@ -9062,7 +9062,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H137" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I137" t="n">
         <v>101.2</v>
@@ -9095,7 +9095,7 @@
         <v>0.01016</v>
       </c>
       <c r="S137" t="n">
-        <v>680.3249709157715</v>
+        <v>60.98195717546585</v>
       </c>
     </row>
     <row r="138">
@@ -9125,7 +9125,7 @@
         <v>19.44444444444445</v>
       </c>
       <c r="H138" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I138" t="n">
         <v>101.07</v>
@@ -9158,7 +9158,7 @@
         <v>0.01016</v>
       </c>
       <c r="S138" t="n">
-        <v>857.7148121725625</v>
+        <v>76.01901112530305</v>
       </c>
     </row>
     <row r="139">
@@ -9188,7 +9188,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H139" t="n">
-        <v>55</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="I139" t="n">
         <v>100.73</v>
@@ -9221,7 +9221,7 @@
         <v>0.01016</v>
       </c>
       <c r="S139" t="n">
-        <v>790.5040052473045</v>
+        <v>73.54533490387726</v>
       </c>
     </row>
     <row r="140">
@@ -9251,7 +9251,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H140" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I140" t="n">
         <v>100.5</v>
@@ -9284,7 +9284,7 @@
         <v>0.01016</v>
       </c>
       <c r="S140" t="n">
-        <v>591.6914352129932</v>
+        <v>53.7101207868371</v>
       </c>
     </row>
     <row r="141">
@@ -9314,7 +9314,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H141" t="n">
-        <v>64.2</v>
+        <v>17.88888888888889</v>
       </c>
       <c r="I141" t="n">
         <v>100.24</v>
@@ -9347,7 +9347,7 @@
         <v>0.01016</v>
       </c>
       <c r="S141" t="n">
-        <v>823.2513490601286</v>
+        <v>69.1172765449413</v>
       </c>
     </row>
     <row r="142">
@@ -9377,7 +9377,7 @@
         <v>21.66666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I142" t="n">
         <v>100.1</v>
@@ -9410,7 +9410,7 @@
         <v>0.01016</v>
       </c>
       <c r="S142" t="n">
-        <v>1117.329491238658</v>
+        <v>90.24586070278227</v>
       </c>
     </row>
     <row r="143">
@@ -9440,7 +9440,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H143" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I143" t="n">
         <v>100.78</v>
@@ -9473,7 +9473,7 @@
         <v>0.01016</v>
       </c>
       <c r="S143" t="n">
-        <v>729.9658370499615</v>
+        <v>69.57124382930778</v>
       </c>
     </row>
     <row r="144">
@@ -9503,7 +9503,7 @@
         <v>22.38888888888889</v>
       </c>
       <c r="H144" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I144" t="n">
         <v>100.41</v>
@@ -9536,7 +9536,7 @@
         <v>0.01016</v>
       </c>
       <c r="S144" t="n">
-        <v>792.8445823913667</v>
+        <v>68.58249019085611</v>
       </c>
     </row>
     <row r="145">
@@ -9566,7 +9566,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H145" t="n">
-        <v>69.09999999999999</v>
+        <v>20.61111111111111</v>
       </c>
       <c r="I145" t="n">
         <v>100.51</v>
@@ -9599,7 +9599,7 @@
         <v>0.01016</v>
       </c>
       <c r="S145" t="n">
-        <v>975.0170197024021</v>
+        <v>77.90368059664314</v>
       </c>
     </row>
     <row r="146">
@@ -9629,7 +9629,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H146" t="n">
-        <v>73.09999999999999</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I146" t="n">
         <v>100.28</v>
@@ -9662,7 +9662,7 @@
         <v>0.01016</v>
       </c>
       <c r="S146" t="n">
-        <v>1295.630310840065</v>
+        <v>99.66365112377656</v>
       </c>
     </row>
     <row r="147">
@@ -9692,7 +9692,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H147" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I147" t="n">
         <v>100.04</v>
@@ -9725,7 +9725,7 @@
         <v>0.01016</v>
       </c>
       <c r="S147" t="n">
-        <v>1154.869719764688</v>
+        <v>93.37055481330457</v>
       </c>
     </row>
     <row r="148">
@@ -9755,7 +9755,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H148" t="n">
-        <v>66.40000000000001</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="I148" t="n">
         <v>100.25</v>
@@ -9788,7 +9788,7 @@
         <v>0.01016</v>
       </c>
       <c r="S148" t="n">
-        <v>912.2130115228692</v>
+        <v>74.87040798561577</v>
       </c>
     </row>
     <row r="149">
@@ -9818,7 +9818,7 @@
         <v>20</v>
       </c>
       <c r="H149" t="n">
-        <v>57.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="I149" t="n">
         <v>100.94</v>
@@ -9851,7 +9851,7 @@
         <v>0.01016</v>
       </c>
       <c r="S149" t="n">
-        <v>764.7064649694451</v>
+        <v>69.09627559393287</v>
       </c>
     </row>
     <row r="150">
@@ -9881,7 +9881,7 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="I150" t="n">
         <v>100.88</v>
@@ -9914,7 +9914,7 @@
         <v>0.01016</v>
       </c>
       <c r="S150" t="n">
-        <v>922.1048554303325</v>
+        <v>77.25512554224927</v>
       </c>
     </row>
     <row r="151">
@@ -9944,7 +9944,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H151" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I151" t="n">
         <v>100.98</v>
@@ -9977,7 +9977,7 @@
         <v>0.01016</v>
       </c>
       <c r="S151" t="n">
-        <v>980.4624231229852</v>
+        <v>78.41533942335039</v>
       </c>
     </row>
     <row r="152">
@@ -10007,7 +10007,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H152" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I152" t="n">
         <v>101.01</v>
@@ -10040,7 +10040,7 @@
         <v>0.01016</v>
       </c>
       <c r="S152" t="n">
-        <v>1039.739439245145</v>
+        <v>84.31364273125175</v>
       </c>
     </row>
     <row r="153">
@@ -10070,7 +10070,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="H153" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I153" t="n">
         <v>100.55</v>
@@ -10103,7 +10103,7 @@
         <v>0.01016</v>
       </c>
       <c r="S153" t="n">
-        <v>998.2284815038921</v>
+        <v>83.28565831086955</v>
       </c>
     </row>
     <row r="154">
@@ -10133,7 +10133,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H154" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I154" t="n">
         <v>100.69</v>
@@ -10166,7 +10166,7 @@
         <v>0.01016</v>
       </c>
       <c r="S154" t="n">
-        <v>806.8743052198639</v>
+        <v>66.97333941686773</v>
       </c>
     </row>
     <row r="155">
@@ -10196,7 +10196,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H155" t="n">
-        <v>70.8</v>
+        <v>21.55555555555555</v>
       </c>
       <c r="I155" t="n">
         <v>100.44</v>
@@ -10229,7 +10229,7 @@
         <v>0.01016</v>
       </c>
       <c r="S155" t="n">
-        <v>848.7840744699374</v>
+        <v>66.71458384234315</v>
       </c>
     </row>
     <row r="156">
@@ -10259,7 +10259,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H156" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I156" t="n">
         <v>100.38</v>
@@ -10292,7 +10292,7 @@
         <v>0.01016</v>
       </c>
       <c r="S156" t="n">
-        <v>863.1694645278789</v>
+        <v>66.52031858123817</v>
       </c>
     </row>
     <row r="157">
@@ -10322,7 +10322,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H157" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I157" t="n">
         <v>100.36</v>
@@ -10355,7 +10355,7 @@
         <v>0.01016</v>
       </c>
       <c r="S157" t="n">
-        <v>872.2400674490782</v>
+        <v>67.9124138804911</v>
       </c>
     </row>
     <row r="158">
@@ -10385,7 +10385,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H158" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I158" t="n">
         <v>100.29</v>
@@ -10418,7 +10418,7 @@
         <v>0.01016</v>
       </c>
       <c r="S158" t="n">
-        <v>1146.452980664085</v>
+        <v>83.63039866279959</v>
       </c>
     </row>
     <row r="159">
@@ -10448,7 +10448,7 @@
         <v>32.27777777777778</v>
       </c>
       <c r="H159" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I159" t="n">
         <v>100.21</v>
@@ -10481,7 +10481,7 @@
         <v>0.01016</v>
       </c>
       <c r="S159" t="n">
-        <v>885.740083700977</v>
+        <v>65.7323996441947</v>
       </c>
     </row>
     <row r="160">
@@ -10511,7 +10511,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H160" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I160" t="n">
         <v>100.66</v>
@@ -10544,7 +10544,7 @@
         <v>0.01016</v>
       </c>
       <c r="S160" t="n">
-        <v>1030.745466060498</v>
+        <v>77.64961001798204</v>
       </c>
     </row>
     <row r="161">
@@ -10574,7 +10574,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H161" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I161" t="n">
         <v>100.85</v>
@@ -10607,7 +10607,7 @@
         <v>0.01016</v>
       </c>
       <c r="S161" t="n">
-        <v>1051.416792695817</v>
+        <v>78.71566675707322</v>
       </c>
     </row>
     <row r="162">
@@ -10637,7 +10637,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H162" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I162" t="n">
         <v>100.35</v>
@@ -10670,7 +10670,7 @@
         <v>0.01016</v>
       </c>
       <c r="S162" t="n">
-        <v>1265.127517113163</v>
+        <v>92.44410230536234</v>
       </c>
     </row>
     <row r="163">
@@ -10700,7 +10700,7 @@
         <v>31</v>
       </c>
       <c r="H163" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I163" t="n">
         <v>99.95</v>
@@ -10733,7 +10733,7 @@
         <v>0.01016</v>
       </c>
       <c r="S163" t="n">
-        <v>997.1872794250793</v>
+        <v>73.30231836048711</v>
       </c>
     </row>
     <row r="164">
@@ -10763,7 +10763,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H164" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I164" t="n">
         <v>100.41</v>
@@ -10796,7 +10796,7 @@
         <v>0.01016</v>
       </c>
       <c r="S164" t="n">
-        <v>1152.183886527743</v>
+        <v>85.43122838876133</v>
       </c>
     </row>
     <row r="165">
@@ -10826,7 +10826,7 @@
         <v>29.88888888888889</v>
       </c>
       <c r="H165" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I165" t="n">
         <v>100.28</v>
@@ -10859,7 +10859,7 @@
         <v>0.01016</v>
       </c>
       <c r="S165" t="n">
-        <v>1121.556981803059</v>
+        <v>81.53828640116963</v>
       </c>
     </row>
     <row r="166">
@@ -10889,7 +10889,7 @@
         <v>31.05555555555556</v>
       </c>
       <c r="H166" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I166" t="n">
         <v>100.28</v>
@@ -10922,7 +10922,7 @@
         <v>0.01016</v>
       </c>
       <c r="S166" t="n">
-        <v>1006.493532933537</v>
+        <v>73.79657293583017</v>
       </c>
     </row>
     <row r="167">
@@ -10952,7 +10952,7 @@
         <v>32.38888888888889</v>
       </c>
       <c r="H167" t="n">
-        <v>82.09999999999999</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="I167" t="n">
         <v>100.14</v>
@@ -10985,7 +10985,7 @@
         <v>0.01016</v>
       </c>
       <c r="S167" t="n">
-        <v>1081.636449216605</v>
+        <v>76.96325267237162</v>
       </c>
     </row>
     <row r="168">
@@ -11015,7 +11015,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H168" t="n">
-        <v>80.40000000000001</v>
+        <v>26.88888888888889</v>
       </c>
       <c r="I168" t="n">
         <v>100.19</v>
@@ -11048,7 +11048,7 @@
         <v>0.01016</v>
       </c>
       <c r="S168" t="n">
-        <v>1241.047947162024</v>
+        <v>89.54822889889338</v>
       </c>
     </row>
     <row r="169">
@@ -11078,7 +11078,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I169" t="n">
         <v>100.04</v>
@@ -11111,7 +11111,7 @@
         <v>0.01016</v>
       </c>
       <c r="S169" t="n">
-        <v>1260.6595407932</v>
+        <v>92.43214258738695</v>
       </c>
     </row>
     <row r="170">
@@ -11141,7 +11141,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I170" t="n">
         <v>100.43</v>
@@ -11174,7 +11174,7 @@
         <v>0.01016</v>
       </c>
       <c r="S170" t="n">
-        <v>1075.491853291363</v>
+        <v>80.51807704779765</v>
       </c>
     </row>
     <row r="171">
@@ -11204,7 +11204,7 @@
         <v>25</v>
       </c>
       <c r="H171" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I171" t="n">
         <v>100.45</v>
@@ -11237,7 +11237,7 @@
         <v>0.01016</v>
       </c>
       <c r="S171" t="n">
-        <v>1318.372320726254</v>
+        <v>98.35413104078064</v>
       </c>
     </row>
     <row r="172">
@@ -11267,7 +11267,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H172" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I172" t="n">
         <v>100.83</v>
@@ -11300,7 +11300,7 @@
         <v>0.01016</v>
       </c>
       <c r="S172" t="n">
-        <v>1072.278536367433</v>
+        <v>81.21430944158845</v>
       </c>
     </row>
     <row r="173">
@@ -11330,7 +11330,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H173" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I173" t="n">
         <v>100.59</v>
@@ -11363,7 +11363,7 @@
         <v>0.01016</v>
       </c>
       <c r="S173" t="n">
-        <v>1002.244721180933</v>
+        <v>75.43519857939103</v>
       </c>
     </row>
     <row r="174">
@@ -11393,7 +11393,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H174" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I174" t="n">
         <v>100.7</v>
@@ -11426,7 +11426,7 @@
         <v>0.01016</v>
       </c>
       <c r="S174" t="n">
-        <v>1011.028074877891</v>
+        <v>78.64452471518563</v>
       </c>
     </row>
     <row r="175">
@@ -11456,7 +11456,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H175" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I175" t="n">
         <v>100.62</v>
@@ -11489,7 +11489,7 @@
         <v>0.01016</v>
       </c>
       <c r="S175" t="n">
-        <v>1172.706993669013</v>
+        <v>87.10469739019874</v>
       </c>
     </row>
     <row r="176">
@@ -11519,7 +11519,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H176" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I176" t="n">
         <v>100.48</v>
@@ -11552,7 +11552,7 @@
         <v>0.01016</v>
       </c>
       <c r="S176" t="n">
-        <v>1212.37028798443</v>
+        <v>88.89155216100565</v>
       </c>
     </row>
     <row r="177">
@@ -11582,7 +11582,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H177" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I177" t="n">
         <v>100.28</v>
@@ -11615,7 +11615,7 @@
         <v>0.01016</v>
       </c>
       <c r="S177" t="n">
-        <v>1270.038227921526</v>
+        <v>93.04030647919612</v>
       </c>
     </row>
     <row r="178">
@@ -11645,7 +11645,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H178" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I178" t="n">
         <v>100.54</v>
@@ -11678,7 +11678,7 @@
         <v>0.01016</v>
       </c>
       <c r="S178" t="n">
-        <v>1158.110864993717</v>
+        <v>85.20480816962925</v>
       </c>
     </row>
     <row r="179">
@@ -11708,7 +11708,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H179" t="n">
-        <v>80.3</v>
+        <v>26.83333333333333</v>
       </c>
       <c r="I179" t="n">
         <v>100.82</v>
@@ -11741,7 +11741,7 @@
         <v>0.01016</v>
       </c>
       <c r="S179" t="n">
-        <v>1115.546708463459</v>
+        <v>80.55966622854072</v>
       </c>
     </row>
     <row r="180">
@@ -11771,7 +11771,7 @@
         <v>29</v>
       </c>
       <c r="H180" t="n">
-        <v>81.40000000000001</v>
+        <v>27.44444444444445</v>
       </c>
       <c r="I180" t="n">
         <v>100.78</v>
@@ -11804,7 +11804,7 @@
         <v>0.01016</v>
       </c>
       <c r="S180" t="n">
-        <v>1276.287389757441</v>
+        <v>91.3336088477031</v>
       </c>
     </row>
     <row r="181">
@@ -11834,7 +11834,7 @@
         <v>31.11111111111111</v>
       </c>
       <c r="H181" t="n">
-        <v>82.3</v>
+        <v>27.94444444444444</v>
       </c>
       <c r="I181" t="n">
         <v>100.67</v>
@@ -11867,7 +11867,7 @@
         <v>0.01016</v>
       </c>
       <c r="S181" t="n">
-        <v>1172.518567983541</v>
+        <v>83.29478337552449</v>
       </c>
     </row>
     <row r="182">
@@ -11897,7 +11897,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H182" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I182" t="n">
         <v>100.44</v>
@@ -11930,7 +11930,7 @@
         <v>0.01016</v>
       </c>
       <c r="S182" t="n">
-        <v>1000.017382245609</v>
+        <v>74.14850561121675</v>
       </c>
     </row>
     <row r="183">
@@ -11960,7 +11960,7 @@
         <v>32.83333333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>79.2</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="I183" t="n">
         <v>100.42</v>
@@ -11993,7 +11993,7 @@
         <v>0.01016</v>
       </c>
       <c r="S183" t="n">
-        <v>936.7276093340201</v>
+        <v>68.27371483375475</v>
       </c>
     </row>
     <row r="184">
@@ -12023,7 +12023,7 @@
         <v>30.16666666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>81.8</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="I184" t="n">
         <v>100.45</v>
@@ -12056,7 +12056,7 @@
         <v>0.01016</v>
       </c>
       <c r="S184" t="n">
-        <v>1212.794490892015</v>
+        <v>86.50658054221384</v>
       </c>
     </row>
     <row r="185">
@@ -12086,7 +12086,7 @@
         <v>30.5</v>
       </c>
       <c r="H185" t="n">
-        <v>83.8</v>
+        <v>28.77777777777778</v>
       </c>
       <c r="I185" t="n">
         <v>100.51</v>
@@ -12119,7 +12119,7 @@
         <v>0.01016</v>
       </c>
       <c r="S185" t="n">
-        <v>1289.975859832619</v>
+        <v>90.54476916460086</v>
       </c>
     </row>
     <row r="186">
@@ -12149,7 +12149,7 @@
         <v>32.38888888888889</v>
       </c>
       <c r="H186" t="n">
-        <v>81.59999999999999</v>
+        <v>27.55555555555555</v>
       </c>
       <c r="I186" t="n">
         <v>100.36</v>
@@ -12182,7 +12182,7 @@
         <v>0.01016</v>
       </c>
       <c r="S186" t="n">
-        <v>1059.875406946899</v>
+        <v>75.72265502483889</v>
       </c>
     </row>
     <row r="187">
@@ -12212,7 +12212,7 @@
         <v>32.44444444444445</v>
       </c>
       <c r="H187" t="n">
-        <v>80.2</v>
+        <v>26.77777777777778</v>
       </c>
       <c r="I187" t="n">
         <v>100.24</v>
@@ -12245,7 +12245,7 @@
         <v>0.01016</v>
       </c>
       <c r="S187" t="n">
-        <v>997.7734447130528</v>
+        <v>72.11470249025366</v>
       </c>
     </row>
     <row r="188">
@@ -12275,7 +12275,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H188" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I188" t="n">
         <v>100.76</v>
@@ -12308,7 +12308,7 @@
         <v>0.01016</v>
       </c>
       <c r="S188" t="n">
-        <v>1110.310662243015</v>
+        <v>83.42020423914389</v>
       </c>
     </row>
     <row r="189">
@@ -12338,7 +12338,7 @@
         <v>23.27777777777778</v>
       </c>
       <c r="H189" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I189" t="n">
         <v>101</v>
@@ -12371,7 +12371,7 @@
         <v>0.01016</v>
       </c>
       <c r="S189" t="n">
-        <v>968.9558949001645</v>
+        <v>79.04721875930498</v>
       </c>
     </row>
     <row r="190">
@@ -12401,7 +12401,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I190" t="n">
         <v>100.95</v>
@@ -12434,7 +12434,7 @@
         <v>0.01016</v>
       </c>
       <c r="S190" t="n">
-        <v>806.5749607302691</v>
+        <v>66.40223416619612</v>
       </c>
     </row>
     <row r="191">
@@ -12464,7 +12464,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H191" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I191" t="n">
         <v>101.37</v>
@@ -12497,7 +12497,7 @@
         <v>0.01016</v>
       </c>
       <c r="S191" t="n">
-        <v>738.6045190461025</v>
+        <v>64.45216356577026</v>
       </c>
     </row>
     <row r="192">
@@ -12527,7 +12527,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H192" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I192" t="n">
         <v>101.23</v>
@@ -12560,7 +12560,7 @@
         <v>0.01016</v>
       </c>
       <c r="S192" t="n">
-        <v>885.4028971351855</v>
+        <v>72.23098271895918</v>
       </c>
     </row>
     <row r="193">
@@ -12590,7 +12590,7 @@
         <v>22.77777777777778</v>
       </c>
       <c r="H193" t="n">
-        <v>68.8</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="I193" t="n">
         <v>101.28</v>
@@ -12623,7 +12623,7 @@
         <v>0.01016</v>
       </c>
       <c r="S193" t="n">
-        <v>1081.789540223471</v>
+        <v>86.68884810015777</v>
       </c>
     </row>
     <row r="194">
@@ -12653,7 +12653,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H194" t="n">
-        <v>68.09999999999999</v>
+        <v>20.05555555555555</v>
       </c>
       <c r="I194" t="n">
         <v>101.54</v>
@@ -12686,7 +12686,7 @@
         <v>0.01016</v>
       </c>
       <c r="S194" t="n">
-        <v>929.7919426609058</v>
+        <v>75.02422161745223</v>
       </c>
     </row>
     <row r="195">
@@ -12716,7 +12716,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H195" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I195" t="n">
         <v>100.63</v>
@@ -12749,7 +12749,7 @@
         <v>0.01016</v>
       </c>
       <c r="S195" t="n">
-        <v>1093.524394022524</v>
+        <v>86.1978672577273</v>
       </c>
     </row>
     <row r="196">
@@ -12779,7 +12779,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I196" t="n">
         <v>100.61</v>
@@ -12812,7 +12812,7 @@
         <v>0.01016</v>
       </c>
       <c r="S196" t="n">
-        <v>1014.518034511837</v>
+        <v>82.59811939927027</v>
       </c>
     </row>
     <row r="197">
@@ -12842,7 +12842,7 @@
         <v>26.5</v>
       </c>
       <c r="H197" t="n">
-        <v>71.7</v>
+        <v>22.05555555555556</v>
       </c>
       <c r="I197" t="n">
         <v>101.2</v>
@@ -12875,7 +12875,7 @@
         <v>0.01016</v>
       </c>
       <c r="S197" t="n">
-        <v>982.7639224731472</v>
+        <v>76.58977160864839</v>
       </c>
     </row>
     <row r="198">
@@ -12905,7 +12905,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H198" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I198" t="n">
         <v>101.77</v>
@@ -12938,7 +12938,7 @@
         <v>0.01016</v>
       </c>
       <c r="S198" t="n">
-        <v>1093.673885130712</v>
+        <v>85.39412920602271</v>
       </c>
     </row>
     <row r="199">
@@ -12968,7 +12968,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H199" t="n">
-        <v>66.90000000000001</v>
+        <v>19.38888888888889</v>
       </c>
       <c r="I199" t="n">
         <v>101.88</v>
@@ -13001,7 +13001,7 @@
         <v>0.01016</v>
       </c>
       <c r="S199" t="n">
-        <v>1067.577674976606</v>
+        <v>87.18044616556274</v>
       </c>
     </row>
     <row r="200">
@@ -13031,7 +13031,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H200" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I200" t="n">
         <v>101.75</v>
@@ -13064,7 +13064,7 @@
         <v>0.01016</v>
       </c>
       <c r="S200" t="n">
-        <v>851.960408103851</v>
+        <v>71.90393716621115</v>
       </c>
     </row>
     <row r="201">
@@ -13094,7 +13094,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H201" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I201" t="n">
         <v>101.34</v>
@@ -13127,7 +13127,7 @@
         <v>0.01016</v>
       </c>
       <c r="S201" t="n">
-        <v>1034.648223256694</v>
+        <v>85.09199632003457</v>
       </c>
     </row>
     <row r="202">
@@ -13157,7 +13157,7 @@
         <v>23.66666666666666</v>
       </c>
       <c r="H202" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I202" t="n">
         <v>100.74</v>
@@ -13190,7 +13190,7 @@
         <v>0.01016</v>
       </c>
       <c r="S202" t="n">
-        <v>1295.673449336491</v>
+        <v>98.66828319338204</v>
       </c>
     </row>
     <row r="203">
@@ -13220,7 +13220,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H203" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I203" t="n">
         <v>100</v>
@@ -13253,7 +13253,7 @@
         <v>0.01016</v>
       </c>
       <c r="S203" t="n">
-        <v>1297.602721901775</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204">
@@ -13283,7 +13283,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H204" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I204" t="n">
         <v>100.75</v>
@@ -13316,7 +13316,7 @@
         <v>0.01016</v>
       </c>
       <c r="S204" t="n">
-        <v>1191.753359149297</v>
+        <v>93.76142236704975</v>
       </c>
     </row>
     <row r="205">
@@ -13346,7 +13346,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H205" t="n">
-        <v>70.90000000000001</v>
+        <v>21.61111111111111</v>
       </c>
       <c r="I205" t="n">
         <v>100.85</v>
@@ -13379,7 +13379,7 @@
         <v>0.01016</v>
       </c>
       <c r="S205" t="n">
-        <v>1116.484277829401</v>
+        <v>87.6723225149175</v>
       </c>
     </row>
     <row r="206">
@@ -13409,7 +13409,7 @@
         <v>18.27777777777778</v>
       </c>
       <c r="H206" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I206" t="n">
         <v>101.75</v>
@@ -13442,7 +13442,7 @@
         <v>0.01016</v>
       </c>
       <c r="S206" t="n">
-        <v>835.388788867883</v>
+        <v>75.83147242601538</v>
       </c>
     </row>
     <row r="207">
@@ -13472,7 +13472,7 @@
         <v>18.33333333333334</v>
       </c>
       <c r="H207" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I207" t="n">
         <v>101.87</v>
@@ -13505,7 +13505,7 @@
         <v>0.01016</v>
       </c>
       <c r="S207" t="n">
-        <v>540.6367974600374</v>
+        <v>54.68026887983854</v>
       </c>
     </row>
     <row r="208">
@@ -13535,7 +13535,7 @@
         <v>17.72222222222222</v>
       </c>
       <c r="H208" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I208" t="n">
         <v>101.82</v>
@@ -13568,7 +13568,7 @@
         <v>0.01016</v>
       </c>
       <c r="S208" t="n">
-        <v>915.7704362878318</v>
+        <v>81.99321458837355</v>
       </c>
     </row>
     <row r="209">
@@ -13598,7 +13598,7 @@
         <v>19.5</v>
       </c>
       <c r="H209" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I209" t="n">
         <v>101.71</v>
@@ -13631,7 +13631,7 @@
         <v>0.01016</v>
       </c>
       <c r="S209" t="n">
-        <v>866.8696255820272</v>
+        <v>76.57283232422061</v>
       </c>
     </row>
     <row r="210">
@@ -13661,7 +13661,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H210" t="n">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="I210" t="n">
         <v>101.6</v>
@@ -13694,7 +13694,7 @@
         <v>0.01016</v>
       </c>
       <c r="S210" t="n">
-        <v>1004.026592834173</v>
+        <v>84.11863360264149</v>
       </c>
     </row>
     <row r="211">
@@ -13724,7 +13724,7 @@
         <v>20</v>
       </c>
       <c r="H211" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I211" t="n">
         <v>101.53</v>
@@ -13757,7 +13757,7 @@
         <v>0.01016</v>
       </c>
       <c r="S211" t="n">
-        <v>888.7905140420334</v>
+        <v>77.47250130996862</v>
       </c>
     </row>
     <row r="212">
@@ -13787,7 +13787,7 @@
         <v>21.72222222222222</v>
       </c>
       <c r="H212" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I212" t="n">
         <v>101.49</v>
@@ -13820,7 +13820,7 @@
         <v>0.01016</v>
       </c>
       <c r="S212" t="n">
-        <v>1148.564254631641</v>
+        <v>92.13016313100033</v>
       </c>
     </row>
     <row r="213">
@@ -13850,7 +13850,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H213" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I213" t="n">
         <v>100.93</v>
@@ -13883,7 +13883,7 @@
         <v>0.01016</v>
       </c>
       <c r="S213" t="n">
-        <v>1051.711316953402</v>
+        <v>78.94731197197936</v>
       </c>
     </row>
     <row r="214">
@@ -13913,7 +13913,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H214" t="n">
-        <v>49.7</v>
+        <v>9.833333333333336</v>
       </c>
       <c r="I214" t="n">
         <v>102.56</v>
@@ -13946,7 +13946,7 @@
         <v>0.01016</v>
       </c>
       <c r="S214" t="n">
-        <v>792.9982912616724</v>
+        <v>78.76544419011746</v>
       </c>
     </row>
     <row r="215">
@@ -13976,7 +13976,7 @@
         <v>12.38888888888889</v>
       </c>
       <c r="H215" t="n">
-        <v>41.5</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="I215" t="n">
         <v>102.37</v>
@@ -14009,7 +14009,7 @@
         <v>0.01016</v>
       </c>
       <c r="S215" t="n">
-        <v>557.0612396942638</v>
+        <v>61.8394302588318</v>
       </c>
     </row>
     <row r="216">
@@ -14039,7 +14039,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H216" t="n">
-        <v>33.4</v>
+        <v>0.777777777777777</v>
       </c>
       <c r="I216" t="n">
         <v>102.51</v>
@@ -14072,7 +14072,7 @@
         <v>0.01016</v>
       </c>
       <c r="S216" t="n">
-        <v>368.8191680961882</v>
+        <v>46.3022985084712</v>
       </c>
     </row>
     <row r="217">
@@ -14102,7 +14102,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H217" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I217" t="n">
         <v>102.63</v>
@@ -14135,7 +14135,7 @@
         <v>0.01016</v>
       </c>
       <c r="S217" t="n">
-        <v>684.0153942659368</v>
+        <v>71.80926122191271</v>
       </c>
     </row>
     <row r="218">
@@ -14165,7 +14165,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H218" t="n">
-        <v>55.3</v>
+        <v>12.94444444444444</v>
       </c>
       <c r="I218" t="n">
         <v>102.3</v>
@@ -14198,7 +14198,7 @@
         <v>0.01016</v>
       </c>
       <c r="S218" t="n">
-        <v>940.5890031235396</v>
+        <v>87.19760380242684</v>
       </c>
     </row>
     <row r="219">
@@ -14228,7 +14228,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H219" t="n">
-        <v>53.3</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="I219" t="n">
         <v>102.04</v>
@@ -14261,7 +14261,7 @@
         <v>0.01016</v>
       </c>
       <c r="S219" t="n">
-        <v>823.689033815784</v>
+        <v>78.21686890767118</v>
       </c>
     </row>
     <row r="220">
@@ -14291,7 +14291,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H220" t="n">
-        <v>57.8</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="I220" t="n">
         <v>102.02</v>
@@ -14324,7 +14324,7 @@
         <v>0.01016</v>
       </c>
       <c r="S220" t="n">
-        <v>973.2208705296431</v>
+        <v>87.63505763306021</v>
       </c>
     </row>
     <row r="221">
@@ -14354,7 +14354,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H221" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I221" t="n">
         <v>102.18</v>
@@ -14387,7 +14387,7 @@
         <v>0.01016</v>
       </c>
       <c r="S221" t="n">
-        <v>754.9390379386746</v>
+        <v>69.41180140411215</v>
       </c>
     </row>
     <row r="222">
@@ -14417,7 +14417,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H222" t="n">
-        <v>32.7</v>
+        <v>0.3888888888888905</v>
       </c>
       <c r="I222" t="n">
         <v>102.7</v>
@@ -14450,7 +14450,7 @@
         <v>0.01016</v>
       </c>
       <c r="S222" t="n">
-        <v>306.6349653158687</v>
+        <v>38.93285397972073</v>
       </c>
     </row>
     <row r="223">
@@ -14480,7 +14480,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H223" t="n">
-        <v>41.7</v>
+        <v>5.388888888888891</v>
       </c>
       <c r="I223" t="n">
         <v>102.73</v>
@@ -14513,7 +14513,7 @@
         <v>0.01016</v>
       </c>
       <c r="S223" t="n">
-        <v>588.268426043256</v>
+        <v>65.11685647057054</v>
       </c>
     </row>
     <row r="224">
@@ -14543,7 +14543,7 @@
         <v>13.5</v>
       </c>
       <c r="H224" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I224" t="n">
         <v>102.81</v>
@@ -14576,7 +14576,7 @@
         <v>0.01016</v>
       </c>
       <c r="S224" t="n">
-        <v>569.4839332918124</v>
+        <v>61.6262317871105</v>
       </c>
     </row>
     <row r="225">
@@ -14606,7 +14606,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H225" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I225" t="n">
         <v>102.54</v>
@@ -14639,7 +14639,7 @@
         <v>0.01016</v>
       </c>
       <c r="S225" t="n">
-        <v>785.2172717359161</v>
+        <v>76.14228962878019</v>
       </c>
     </row>
     <row r="226">
@@ -14669,7 +14669,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H226" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I226" t="n">
         <v>102.22</v>
@@ -14702,7 +14702,7 @@
         <v>0.01016</v>
       </c>
       <c r="S226" t="n">
-        <v>1025.18720285435</v>
+        <v>91.78980996332477</v>
       </c>
     </row>
     <row r="227">
@@ -14732,7 +14732,7 @@
         <v>17.61111111111111</v>
       </c>
       <c r="H227" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I227" t="n">
         <v>102.28</v>
@@ -14765,7 +14765,7 @@
         <v>0.01016</v>
       </c>
       <c r="S227" t="n">
-        <v>953.1432859725047</v>
+        <v>84.66680150272683</v>
       </c>
     </row>
     <row r="228">
@@ -14795,7 +14795,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H228" t="n">
-        <v>49.8</v>
+        <v>9.888888888888888</v>
       </c>
       <c r="I228" t="n">
         <v>102.54</v>
@@ -14828,7 +14828,7 @@
         <v>0.01016</v>
       </c>
       <c r="S228" t="n">
-        <v>889.0491817164218</v>
+        <v>88.19288608501333</v>
       </c>
     </row>
     <row r="229">
@@ -14858,7 +14858,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H229" t="n">
-        <v>58.8</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="I229" t="n">
         <v>102.42</v>
@@ -14891,7 +14891,7 @@
         <v>0.01016</v>
       </c>
       <c r="S229" t="n">
-        <v>1060.898186511938</v>
+        <v>94.45110686728502</v>
       </c>
     </row>
     <row r="230">
@@ -14921,7 +14921,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H230" t="n">
-        <v>56.6</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I230" t="n">
         <v>102.67</v>
@@ -14954,7 +14954,7 @@
         <v>0.01016</v>
       </c>
       <c r="S230" t="n">
-        <v>868.7688644014713</v>
+        <v>79.31988207805568</v>
       </c>
     </row>
     <row r="231">
@@ -14984,7 +14984,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H231" t="n">
-        <v>49.2</v>
+        <v>9.555555555555557</v>
       </c>
       <c r="I231" t="n">
         <v>102.8</v>
@@ -15017,7 +15017,7 @@
         <v>0.01016</v>
       </c>
       <c r="S231" t="n">
-        <v>748.6193946454001</v>
+        <v>74.83671266510875</v>
       </c>
     </row>
     <row r="232">
@@ -15047,7 +15047,7 @@
         <v>14.5</v>
       </c>
       <c r="H232" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I232" t="n">
         <v>102.58</v>
@@ -15080,7 +15080,7 @@
         <v>0.01016</v>
       </c>
       <c r="S232" t="n">
-        <v>690.1463885308193</v>
+        <v>69.80174170276334</v>
       </c>
     </row>
     <row r="233">
@@ -15110,7 +15110,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H233" t="n">
-        <v>57.9</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="I233" t="n">
         <v>102.4</v>
@@ -15143,7 +15143,7 @@
         <v>0.01016</v>
       </c>
       <c r="S233" t="n">
-        <v>1005.972479369911</v>
+        <v>90.48074044047438</v>
       </c>
     </row>
     <row r="234">
@@ -15173,7 +15173,7 @@
         <v>15.55555555555556</v>
       </c>
       <c r="H234" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I234" t="n">
         <v>102.38</v>
@@ -15206,7 +15206,7 @@
         <v>0.01016</v>
       </c>
       <c r="S234" t="n">
-        <v>1002.378076801544</v>
+        <v>90.78007247303405</v>
       </c>
     </row>
     <row r="235">
@@ -15236,7 +15236,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H235" t="n">
-        <v>46.4</v>
+        <v>8</v>
       </c>
       <c r="I235" t="n">
         <v>102.45</v>
@@ -15269,7 +15269,7 @@
         <v>0.01016</v>
       </c>
       <c r="S235" t="n">
-        <v>658.9785543002262</v>
+        <v>68.34602143535061</v>
       </c>
     </row>
     <row r="236">
@@ -15299,7 +15299,7 @@
         <v>10.22222222222222</v>
       </c>
       <c r="H236" t="n">
-        <v>46.7</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="I236" t="n">
         <v>102.13</v>
@@ -15332,7 +15332,7 @@
         <v>0.01016</v>
       </c>
       <c r="S236" t="n">
-        <v>842.843495723983</v>
+        <v>87.06547109160255</v>
       </c>
     </row>
     <row r="237">
@@ -15362,7 +15362,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H237" t="n">
-        <v>47.9</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I237" t="n">
         <v>102.42</v>
@@ -15395,7 +15395,7 @@
         <v>0.01016</v>
       </c>
       <c r="S237" t="n">
-        <v>701.1006308947441</v>
+        <v>71.28198799335779</v>
       </c>
     </row>
     <row r="238">
@@ -15425,7 +15425,7 @@
         <v>9.722222222222223</v>
       </c>
       <c r="H238" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I238" t="n">
         <v>102.78</v>
@@ -15458,7 +15458,7 @@
         <v>0.01016</v>
       </c>
       <c r="S238" t="n">
-        <v>661.4593827539821</v>
+        <v>73.53419498840226</v>
       </c>
     </row>
     <row r="239">
@@ -15488,7 +15488,7 @@
         <v>13.05555555555556</v>
       </c>
       <c r="H239" t="n">
-        <v>51.1</v>
+        <v>10.61111111111111</v>
       </c>
       <c r="I239" t="n">
         <v>102.28</v>
@@ -15521,7 +15521,7 @@
         <v>0.01016</v>
       </c>
       <c r="S239" t="n">
-        <v>872.1326140117279</v>
+        <v>85.1012621874161</v>
       </c>
     </row>
     <row r="240">
@@ -15551,7 +15551,7 @@
         <v>16.16666666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I240" t="n">
         <v>102.17</v>
@@ -15584,7 +15584,7 @@
         <v>0.01016</v>
       </c>
       <c r="S240" t="n">
-        <v>1010.73988070015</v>
+        <v>90.49627357180456</v>
       </c>
     </row>
     <row r="241">
@@ -15614,7 +15614,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H241" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I241" t="n">
         <v>102.2</v>
@@ -15647,7 +15647,7 @@
         <v>0.01016</v>
       </c>
       <c r="S241" t="n">
-        <v>1154.734712180483</v>
+        <v>98.60207510765032</v>
       </c>
     </row>
     <row r="242">
@@ -15677,7 +15677,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H242" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I242" t="n">
         <v>101.9</v>
@@ -15710,7 +15710,7 @@
         <v>0.01016</v>
       </c>
       <c r="S242" t="n">
-        <v>1148.453203361197</v>
+        <v>94.93477374754279</v>
       </c>
     </row>
     <row r="243">
@@ -15740,7 +15740,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H243" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I243" t="n">
         <v>101.78</v>
@@ -15773,7 +15773,7 @@
         <v>0.01016</v>
       </c>
       <c r="S243" t="n">
-        <v>996.4565690730554</v>
+        <v>90.1399779095325</v>
       </c>
     </row>
     <row r="244">
@@ -15803,7 +15803,7 @@
         <v>9.611111111111111</v>
       </c>
       <c r="H244" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I244" t="n">
         <v>102.56</v>
@@ -15836,7 +15836,7 @@
         <v>0.01016</v>
       </c>
       <c r="S244" t="n">
-        <v>635.2687709958122</v>
+        <v>71.54765554051193</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H245" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I245" t="n">
         <v>102.17</v>
@@ -15899,7 +15899,7 @@
         <v>0.01016</v>
       </c>
       <c r="S245" t="n">
-        <v>652.1896791468457</v>
+        <v>74.97992466511654</v>
       </c>
     </row>
     <row r="246">
@@ -15929,7 +15929,7 @@
         <v>10.5</v>
       </c>
       <c r="H246" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I246" t="n">
         <v>102.09</v>
@@ -15962,7 +15962,7 @@
         <v>0.01016</v>
       </c>
       <c r="S246" t="n">
-        <v>608.225548083076</v>
+        <v>68.20414887752194</v>
       </c>
     </row>
     <row r="247">
@@ -15992,7 +15992,7 @@
         <v>15.22222222222222</v>
       </c>
       <c r="H247" t="n">
-        <v>55</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="I247" t="n">
         <v>102.23</v>
@@ -16025,7 +16025,7 @@
         <v>0.01016</v>
       </c>
       <c r="S247" t="n">
-        <v>917.1895177013438</v>
+        <v>85.33164892512858</v>
       </c>
     </row>
     <row r="248">
@@ -16055,7 +16055,7 @@
         <v>14.33333333333333</v>
       </c>
       <c r="H248" t="n">
-        <v>57.8</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="I248" t="n">
         <v>101.89</v>
@@ -16088,7 +16088,7 @@
         <v>0.01016</v>
       </c>
       <c r="S248" t="n">
-        <v>1110.538290058129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249">
@@ -16118,7 +16118,7 @@
         <v>14.88888888888889</v>
       </c>
       <c r="H249" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I249" t="n">
         <v>101.94</v>
@@ -16151,7 +16151,7 @@
         <v>0.01016</v>
       </c>
       <c r="S249" t="n">
-        <v>1091.87686138589</v>
+        <v>97.8720329966545</v>
       </c>
     </row>
     <row r="250">
@@ -16181,7 +16181,7 @@
         <v>15.88888888888889</v>
       </c>
       <c r="H250" t="n">
-        <v>58.4</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="I250" t="n">
         <v>102.08</v>
@@ -16214,7 +16214,7 @@
         <v>0.01016</v>
       </c>
       <c r="S250" t="n">
-        <v>1033.705047857109</v>
+        <v>92.44745664847245</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>13.88888888888889</v>
       </c>
       <c r="H251" t="n">
-        <v>56.4</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="I251" t="n">
         <v>101.89</v>
@@ -16277,7 +16277,7 @@
         <v>0.01016</v>
       </c>
       <c r="S251" t="n">
-        <v>1069.2919858008</v>
+        <v>97.85563410451705</v>
       </c>
     </row>
     <row r="252">
@@ -16307,7 +16307,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H252" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I252" t="n">
         <v>102.13</v>
@@ -16340,7 +16340,7 @@
         <v>0.01016</v>
       </c>
       <c r="S252" t="n">
-        <v>914.8904271295658</v>
+        <v>88.60616894507768</v>
       </c>
     </row>
     <row r="253">
@@ -16370,7 +16370,7 @@
         <v>12.72222222222222</v>
       </c>
       <c r="H253" t="n">
-        <v>52.4</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I253" t="n">
         <v>102.06</v>
@@ -16403,7 +16403,7 @@
         <v>0.01016</v>
       </c>
       <c r="S253" t="n">
-        <v>950.4399528758228</v>
+        <v>91.25403769427014</v>
       </c>
     </row>
     <row r="254">
@@ -16433,7 +16433,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I254" t="n">
         <v>101.71</v>
@@ -16466,7 +16466,7 @@
         <v>0.01016</v>
       </c>
       <c r="S254" t="n">
-        <v>926.7611761880245</v>
+        <v>88.65266796082288</v>
       </c>
     </row>
     <row r="255">
@@ -16496,7 +16496,7 @@
         <v>13.05555555555556</v>
       </c>
       <c r="H255" t="n">
-        <v>49.8</v>
+        <v>9.888888888888888</v>
       </c>
       <c r="I255" t="n">
         <v>101.84</v>
@@ -16529,7 +16529,7 @@
         <v>0.01016</v>
       </c>
       <c r="S255" t="n">
-        <v>817.4643157853826</v>
+        <v>81.09173121495482</v>
       </c>
     </row>
     <row r="256">
@@ -16559,7 +16559,7 @@
         <v>15</v>
       </c>
       <c r="H256" t="n">
-        <v>58.1</v>
+        <v>14.5</v>
       </c>
       <c r="I256" t="n">
         <v>101.22</v>
@@ -16592,7 +16592,7 @@
         <v>0.01016</v>
       </c>
       <c r="S256" t="n">
-        <v>1078.975621162303</v>
+        <v>96.82576149677935</v>
       </c>
     </row>
     <row r="257">
@@ -16622,7 +16622,7 @@
         <v>6.444444444444446</v>
       </c>
       <c r="H257" t="n">
-        <v>33.4</v>
+        <v>0.777777777777777</v>
       </c>
       <c r="I257" t="n">
         <v>102.85</v>
@@ -16655,7 +16655,7 @@
         <v>0.01016</v>
       </c>
       <c r="S257" t="n">
-        <v>534.2968361238458</v>
+        <v>67.0766970329645</v>
       </c>
     </row>
     <row r="258">
@@ -16685,7 +16685,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H258" t="n">
-        <v>16.3</v>
+        <v>-8.722222222222221</v>
       </c>
       <c r="I258" t="n">
         <v>103.71</v>
@@ -16718,7 +16718,7 @@
         <v>0.01016</v>
       </c>
       <c r="S258" t="n">
-        <v>307.9497817534514</v>
+        <v>52.71253137133672</v>
       </c>
     </row>
     <row r="259">
@@ -16748,7 +16748,7 @@
         <v>0.1111111111111127</v>
       </c>
       <c r="H259" t="n">
-        <v>13.1</v>
+        <v>-10.5</v>
       </c>
       <c r="I259" t="n">
         <v>103.41</v>
@@ -16781,7 +16781,7 @@
         <v>0.01016</v>
       </c>
       <c r="S259" t="n">
-        <v>244.4971480201452</v>
+        <v>44.73800389040019</v>
       </c>
     </row>
     <row r="260">
@@ -16811,7 +16811,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I260" t="n">
         <v>103.33</v>
@@ -16844,7 +16844,7 @@
         <v>0.01016</v>
       </c>
       <c r="S260" t="n">
-        <v>459.3794607073309</v>
+        <v>60.37710082770895</v>
       </c>
     </row>
     <row r="261">
@@ -16874,7 +16874,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H261" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I261" t="n">
         <v>103</v>
@@ -16907,7 +16907,7 @@
         <v>0.01016</v>
       </c>
       <c r="S261" t="n">
-        <v>529.6618301118693</v>
+        <v>71.15588573540296</v>
       </c>
     </row>
     <row r="262">
@@ -16937,7 +16937,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H262" t="n">
-        <v>28.7</v>
+        <v>-1.833333333333334</v>
       </c>
       <c r="I262" t="n">
         <v>102.8</v>
@@ -16970,7 +16970,7 @@
         <v>0.01016</v>
       </c>
       <c r="S262" t="n">
-        <v>493.8354844300071</v>
+        <v>67.02590681247931</v>
       </c>
     </row>
     <row r="263">
@@ -17000,7 +17000,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="H263" t="n">
-        <v>32.6</v>
+        <v>0.3333333333333341</v>
       </c>
       <c r="I263" t="n">
         <v>102.7</v>
@@ -17033,7 +17033,7 @@
         <v>0.01016</v>
       </c>
       <c r="S263" t="n">
-        <v>543.1400781170493</v>
+        <v>69.07344306883959</v>
       </c>
     </row>
     <row r="264">
@@ -17063,7 +17063,7 @@
         <v>10</v>
       </c>
       <c r="H264" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I264" t="n">
         <v>102.17</v>
@@ -17096,7 +17096,7 @@
         <v>0.01016</v>
       </c>
       <c r="S264" t="n">
-        <v>1010.651277213183</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265">
@@ -17126,7 +17126,7 @@
         <v>7.222222222222222</v>
       </c>
       <c r="H265" t="n">
-        <v>38.9</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I265" t="n">
         <v>102.46</v>
@@ -17159,7 +17159,7 @@
         <v>0.01016</v>
       </c>
       <c r="S265" t="n">
-        <v>685.5208473237718</v>
+        <v>79.04640925206945</v>
       </c>
     </row>
     <row r="266">
@@ -17189,7 +17189,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="H266" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I266" t="n">
         <v>102.86</v>
@@ -17222,7 +17222,7 @@
         <v>0.01016</v>
       </c>
       <c r="S266" t="n">
-        <v>487.1995508502634</v>
+        <v>66.46689248675709</v>
       </c>
     </row>
     <row r="267">
@@ -17252,7 +17252,7 @@
         <v>0.1111111111111127</v>
       </c>
       <c r="H267" t="n">
-        <v>28.2</v>
+        <v>-2.111111111111112</v>
       </c>
       <c r="I267" t="n">
         <v>102.47</v>
@@ -17285,7 +17285,7 @@
         <v>0.01016</v>
       </c>
       <c r="S267" t="n">
-        <v>620.8545943484625</v>
+        <v>84.99348822024166</v>
       </c>
     </row>
     <row r="268">
@@ -17315,7 +17315,7 @@
         <v>4.111111111111111</v>
       </c>
       <c r="H268" t="n">
-        <v>16.1</v>
+        <v>-8.833333333333332</v>
       </c>
       <c r="I268" t="n">
         <v>103.06</v>
@@ -17348,7 +17348,7 @@
         <v>0.01016</v>
       </c>
       <c r="S268" t="n">
-        <v>223.1089446566089</v>
+        <v>38.34631873780384</v>
       </c>
     </row>
     <row r="269">
@@ -17378,7 +17378,7 @@
         <v>0.2222222222222214</v>
       </c>
       <c r="H269" t="n">
-        <v>13.1</v>
+        <v>-10.5</v>
       </c>
       <c r="I269" t="n">
         <v>102.92</v>
@@ -17411,7 +17411,7 @@
         <v>0.01016</v>
       </c>
       <c r="S269" t="n">
-        <v>242.5363751153328</v>
+        <v>44.37922233996484</v>
       </c>
     </row>
     <row r="270">
@@ -17441,7 +17441,7 @@
         <v>5.722222222222221</v>
       </c>
       <c r="H270" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I270" t="n">
         <v>102.64</v>
@@ -17474,7 +17474,7 @@
         <v>0.01016</v>
       </c>
       <c r="S270" t="n">
-        <v>487.4892140920117</v>
+        <v>63.75218130126235</v>
       </c>
     </row>
     <row r="271">
@@ -17504,7 +17504,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H271" t="n">
-        <v>28.5</v>
+        <v>-1.944444444444445</v>
       </c>
       <c r="I271" t="n">
         <v>103.41</v>
@@ -17537,7 +17537,7 @@
         <v>0.01016</v>
       </c>
       <c r="S271" t="n">
-        <v>569.3283598010694</v>
+        <v>77.53793756555901</v>
       </c>
     </row>
     <row r="272">
@@ -17567,7 +17567,7 @@
         <v>-3.38888888888889</v>
       </c>
       <c r="H272" t="n">
-        <v>6.5</v>
+        <v>-14.16666666666667</v>
       </c>
       <c r="I272" t="n">
         <v>103.5</v>
@@ -17600,7 +17600,7 @@
         <v>0.01016</v>
       </c>
       <c r="S272" t="n">
-        <v>203.1575266392605</v>
+        <v>43.07868129359759</v>
       </c>
     </row>
     <row r="273">
@@ -17630,7 +17630,7 @@
         <v>-1.555555555555556</v>
       </c>
       <c r="H273" t="n">
-        <v>11.8</v>
+        <v>-11.22222222222222</v>
       </c>
       <c r="I273" t="n">
         <v>102.86</v>
@@ -17663,7 +17663,7 @@
         <v>0.01016</v>
       </c>
       <c r="S273" t="n">
-        <v>253.5313000724902</v>
+        <v>47.70673956412944</v>
       </c>
     </row>
     <row r="274">
@@ -17693,7 +17693,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="H274" t="n">
-        <v>21</v>
+        <v>-6.111111111111112</v>
       </c>
       <c r="I274" t="n">
         <v>102.62</v>
@@ -17726,7 +17726,7 @@
         <v>0.01016</v>
       </c>
       <c r="S274" t="n">
-        <v>312.920925110738</v>
+        <v>48.82096807755937</v>
       </c>
     </row>
     <row r="275">
@@ -17756,7 +17756,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H275" t="n">
-        <v>30</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="I275" t="n">
         <v>102.08</v>
@@ -17789,7 +17789,7 @@
         <v>0.01016</v>
       </c>
       <c r="S275" t="n">
-        <v>504.0893809458653</v>
+        <v>66.92321206776015</v>
       </c>
     </row>
     <row r="276">
@@ -17819,7 +17819,7 @@
         <v>2.11111111111111</v>
       </c>
       <c r="H276" t="n">
-        <v>27.4</v>
+        <v>-2.555555555555556</v>
       </c>
       <c r="I276" t="n">
         <v>101.71</v>
@@ -17852,7 +17852,7 @@
         <v>0.01016</v>
       </c>
       <c r="S276" t="n">
-        <v>513.1205959029393</v>
+        <v>71.22723481648842</v>
       </c>
     </row>
     <row r="277">
@@ -17882,7 +17882,7 @@
         <v>-0.3888888888888885</v>
       </c>
       <c r="H277" t="n">
-        <v>5.9</v>
+        <v>-14.5</v>
       </c>
       <c r="I277" t="n">
         <v>102.24</v>
@@ -17915,7 +17915,7 @@
         <v>0.01016</v>
       </c>
       <c r="S277" t="n">
-        <v>156.2490114476029</v>
+        <v>33.60224669087419</v>
       </c>
     </row>
     <row r="278">
@@ -17945,7 +17945,7 @@
         <v>-1.388888888888889</v>
       </c>
       <c r="H278" t="n">
-        <v>6.3</v>
+        <v>-14.27777777777778</v>
       </c>
       <c r="I278" t="n">
         <v>102.64</v>
@@ -17978,7 +17978,7 @@
         <v>0.01016</v>
       </c>
       <c r="S278" t="n">
-        <v>172.8071103848522</v>
+        <v>36.81508812570048</v>
       </c>
     </row>
     <row r="279">
@@ -18008,7 +18008,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="H279" t="n">
-        <v>19.4</v>
+        <v>-7.000000000000001</v>
       </c>
       <c r="I279" t="n">
         <v>102.89</v>
@@ -18041,7 +18041,7 @@
         <v>0.01016</v>
       </c>
       <c r="S279" t="n">
-        <v>361.0245495823073</v>
+        <v>58.09232842207295</v>
       </c>
     </row>
     <row r="280">
@@ -18071,7 +18071,7 @@
         <v>0.3333333333333341</v>
       </c>
       <c r="H280" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I280" t="n">
         <v>103.04</v>
@@ -18104,7 +18104,7 @@
         <v>0.01016</v>
       </c>
       <c r="S280" t="n">
-        <v>518.0662979846458</v>
+        <v>74.50516167065842</v>
       </c>
     </row>
     <row r="281">
@@ -18134,7 +18134,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H281" t="n">
-        <v>21</v>
+        <v>-6.111111111111112</v>
       </c>
       <c r="I281" t="n">
         <v>103</v>
@@ -18167,7 +18167,7 @@
         <v>0.01016</v>
       </c>
       <c r="S281" t="n">
-        <v>350.7820356469417</v>
+        <v>54.72794303685561</v>
       </c>
     </row>
     <row r="282">
@@ -18197,7 +18197,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H282" t="n">
-        <v>23.4</v>
+        <v>-4.777777777777779</v>
       </c>
       <c r="I282" t="n">
         <v>103.18</v>
@@ -18230,7 +18230,7 @@
         <v>0.01016</v>
       </c>
       <c r="S282" t="n">
-        <v>373.7491307040415</v>
+        <v>55.74295904130086</v>
       </c>
     </row>
     <row r="283">
@@ -18260,7 +18260,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="H283" t="n">
-        <v>23.6</v>
+        <v>-4.666666666666666</v>
       </c>
       <c r="I283" t="n">
         <v>103.47</v>
@@ -18293,7 +18293,7 @@
         <v>0.01016</v>
       </c>
       <c r="S283" t="n">
-        <v>422.549151977564</v>
+        <v>62.78939133927255</v>
       </c>
     </row>
     <row r="284">
@@ -18323,7 +18323,7 @@
         <v>-0.1111111111111107</v>
       </c>
       <c r="H284" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I284" t="n">
         <v>103.53</v>
@@ -18356,7 +18356,7 @@
         <v>0.01016</v>
       </c>
       <c r="S284" t="n">
-        <v>430.6090715702289</v>
+        <v>66.17003569161403</v>
       </c>
     </row>
     <row r="285">
@@ -18386,7 +18386,7 @@
         <v>-0.1111111111111107</v>
       </c>
       <c r="H285" t="n">
-        <v>20.5</v>
+        <v>-6.388888888888889</v>
       </c>
       <c r="I285" t="n">
         <v>103.44</v>
@@ -18419,7 +18419,7 @@
         <v>0.01016</v>
       </c>
       <c r="S285" t="n">
-        <v>397.5573141195542</v>
+        <v>62.62245400571441</v>
       </c>
     </row>
     <row r="286">
@@ -18449,7 +18449,7 @@
         <v>-0.1111111111111107</v>
       </c>
       <c r="H286" t="n">
-        <v>24.4</v>
+        <v>-4.222222222222223</v>
       </c>
       <c r="I286" t="n">
         <v>103.3</v>
@@ -18482,7 +18482,7 @@
         <v>0.01016</v>
       </c>
       <c r="S286" t="n">
-        <v>504.0112249578848</v>
+        <v>73.80580898967526</v>
       </c>
     </row>
     <row r="287">
@@ -18512,7 +18512,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H287" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I287" t="n">
         <v>103.37</v>
@@ -18545,7 +18545,7 @@
         <v>0.01016</v>
       </c>
       <c r="S287" t="n">
-        <v>511.7209228428425</v>
+        <v>67.25643699123601</v>
       </c>
     </row>
     <row r="288">
@@ -18575,7 +18575,7 @@
         <v>1.277777777777776</v>
       </c>
       <c r="H288" t="n">
-        <v>28.8</v>
+        <v>-1.777777777777777</v>
       </c>
       <c r="I288" t="n">
         <v>103.48</v>
@@ -18608,7 +18608,7 @@
         <v>0.01016</v>
       </c>
       <c r="S288" t="n">
-        <v>590.9964264374039</v>
+        <v>80.07580327765116</v>
       </c>
     </row>
     <row r="289">
@@ -18638,7 +18638,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H289" t="n">
-        <v>27.3</v>
+        <v>-2.611111111111111</v>
       </c>
       <c r="I289" t="n">
         <v>103.34</v>
@@ -18671,7 +18671,7 @@
         <v>0.01016</v>
       </c>
       <c r="S289" t="n">
-        <v>498.1509343424558</v>
+        <v>69.27015826621916</v>
       </c>
     </row>
     <row r="290">
@@ -18701,7 +18701,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="H290" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I290" t="n">
         <v>103.08</v>
@@ -18734,7 +18734,7 @@
         <v>0.01016</v>
       </c>
       <c r="S290" t="n">
-        <v>648.4667853503915</v>
+        <v>85.80186560217346</v>
       </c>
     </row>
     <row r="291">
@@ -18764,7 +18764,7 @@
         <v>3.055555555555556</v>
       </c>
       <c r="H291" t="n">
-        <v>31</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="I291" t="n">
         <v>102.45</v>
@@ -18797,7 +18797,7 @@
         <v>0.01016</v>
       </c>
       <c r="S291" t="n">
-        <v>590.93470862023</v>
+        <v>77.15214383412032</v>
       </c>
     </row>
     <row r="292">
@@ -18827,7 +18827,7 @@
         <v>7.277777777777779</v>
       </c>
       <c r="H292" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I292" t="n">
         <v>102.2</v>
@@ -18860,7 +18860,7 @@
         <v>0.01016</v>
       </c>
       <c r="S292" t="n">
-        <v>780.6080535278094</v>
+        <v>86.77990865991009</v>
       </c>
     </row>
     <row r="293">
@@ -18890,7 +18890,7 @@
         <v>12.05555555555556</v>
       </c>
       <c r="H293" t="n">
-        <v>53.6</v>
+        <v>12</v>
       </c>
       <c r="I293" t="n">
         <v>101.12</v>
@@ -18923,7 +18923,7 @@
         <v>0.01016</v>
       </c>
       <c r="S293" t="n">
-        <v>1053.067995602031</v>
+        <v>99.63458020546703</v>
       </c>
     </row>
     <row r="294">
@@ -18953,7 +18953,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H294" t="n">
-        <v>50.3</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="I294" t="n">
         <v>101.37</v>
@@ -18986,7 +18986,7 @@
         <v>0.01016</v>
       </c>
       <c r="S294" t="n">
-        <v>1014.516704580911</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295">
@@ -19016,7 +19016,7 @@
         <v>0.7222222222222207</v>
       </c>
       <c r="H295" t="n">
-        <v>28.5</v>
+        <v>-1.944444444444445</v>
       </c>
       <c r="I295" t="n">
         <v>102.48</v>
@@ -19049,7 +19049,7 @@
         <v>0.01016</v>
       </c>
       <c r="S295" t="n">
-        <v>604.4796889626532</v>
+        <v>82.32526550901443</v>
       </c>
     </row>
     <row r="296">
@@ -19079,7 +19079,7 @@
         <v>-2.444444444444444</v>
       </c>
       <c r="H296" t="n">
-        <v>12.4</v>
+        <v>-10.88888888888889</v>
       </c>
       <c r="I296" t="n">
         <v>103.05</v>
@@ -19112,7 +19112,7 @@
         <v>0.01016</v>
       </c>
       <c r="S296" t="n">
-        <v>281.6258502194396</v>
+        <v>52.31034077336331</v>
       </c>
     </row>
     <row r="297">
@@ -19142,7 +19142,7 @@
         <v>-2.444444444444444</v>
       </c>
       <c r="H297" t="n">
-        <v>14.9</v>
+        <v>-9.500000000000002</v>
       </c>
       <c r="I297" t="n">
         <v>103.2</v>
@@ -19175,7 +19175,7 @@
         <v>0.01016</v>
       </c>
       <c r="S297" t="n">
-        <v>331.3752399203486</v>
+        <v>58.38053531799658</v>
       </c>
     </row>
     <row r="298">
@@ -19205,7 +19205,7 @@
         <v>-1.222222222222222</v>
       </c>
       <c r="H298" t="n">
-        <v>20.5</v>
+        <v>-6.388888888888889</v>
       </c>
       <c r="I298" t="n">
         <v>103.01</v>
@@ -19238,7 +19238,7 @@
         <v>0.01016</v>
       </c>
       <c r="S298" t="n">
-        <v>431.1312483134982</v>
+        <v>67.91095474555712</v>
       </c>
     </row>
     <row r="299">
@@ -19268,7 +19268,7 @@
         <v>-1.166666666666667</v>
       </c>
       <c r="H299" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I299" t="n">
         <v>102.88</v>
@@ -19301,7 +19301,7 @@
         <v>0.01016</v>
       </c>
       <c r="S299" t="n">
-        <v>557.5459728939395</v>
+        <v>81.05469220544833</v>
       </c>
     </row>
     <row r="300">
@@ -19331,7 +19331,7 @@
         <v>-0.05555555555555635</v>
       </c>
       <c r="H300" t="n">
-        <v>21.7</v>
+        <v>-5.722222222222223</v>
       </c>
       <c r="I300" t="n">
         <v>103.14</v>
@@ -19364,7 +19364,7 @@
         <v>0.01016</v>
       </c>
       <c r="S300" t="n">
-        <v>426.2606474207944</v>
+        <v>65.62564897292089</v>
       </c>
     </row>
     <row r="301">
@@ -19394,7 +19394,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H301" t="n">
-        <v>29</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="I301" t="n">
         <v>102.58</v>
@@ -19427,7 +19427,7 @@
         <v>0.01016</v>
       </c>
       <c r="S301" t="n">
-        <v>516.4738705742604</v>
+        <v>69.73968675171682</v>
       </c>
     </row>
     <row r="302">
@@ -19457,7 +19457,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H302" t="n">
-        <v>39.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I302" t="n">
         <v>102.35</v>
@@ -19490,7 +19490,7 @@
         <v>0.01016</v>
       </c>
       <c r="S302" t="n">
-        <v>861.4604167794205</v>
+        <v>98.45467107656009</v>
       </c>
     </row>
     <row r="303">
@@ -19520,7 +19520,7 @@
         <v>0.4444444444444429</v>
       </c>
       <c r="H303" t="n">
-        <v>25.2</v>
+        <v>-3.777777777777778</v>
       </c>
       <c r="I303" t="n">
         <v>103.22</v>
@@ -19553,7 +19553,7 @@
         <v>0.01016</v>
       </c>
       <c r="S303" t="n">
-        <v>507.8347369780822</v>
+        <v>73.29672157515489</v>
       </c>
     </row>
     <row r="304">
@@ -19583,7 +19583,7 @@
         <v>-7.000000000000001</v>
       </c>
       <c r="H304" t="n">
-        <v>-1.6</v>
+        <v>-18.66666666666667</v>
       </c>
       <c r="I304" t="n">
         <v>103.8</v>
@@ -19616,7 +19616,7 @@
         <v>0.01016</v>
       </c>
       <c r="S304" t="n">
-        <v>150.099372566021</v>
+        <v>38.90528282337557</v>
       </c>
     </row>
     <row r="305">
@@ -19646,7 +19646,7 @@
         <v>-4.222222222222223</v>
       </c>
       <c r="H305" t="n">
-        <v>12.5</v>
+        <v>-10.83333333333333</v>
       </c>
       <c r="I305" t="n">
         <v>102.97</v>
@@ -19679,7 +19679,7 @@
         <v>0.01016</v>
       </c>
       <c r="S305" t="n">
-        <v>323.6823232701576</v>
+        <v>59.99288844682174</v>
       </c>
     </row>
     <row r="306">
@@ -19709,7 +19709,7 @@
         <v>-1</v>
       </c>
       <c r="H306" t="n">
-        <v>17.9</v>
+        <v>-7.833333333333335</v>
       </c>
       <c r="I306" t="n">
         <v>102.81</v>
@@ -19742,7 +19742,7 @@
         <v>0.01016</v>
       </c>
       <c r="S306" t="n">
-        <v>360.6948607488671</v>
+        <v>59.78186538656972</v>
       </c>
     </row>
     <row r="307">
@@ -19772,7 +19772,7 @@
         <v>-5.111111111111111</v>
       </c>
       <c r="H307" t="n">
-        <v>12.6</v>
+        <v>-10.77777777777778</v>
       </c>
       <c r="I307" t="n">
         <v>103.14</v>
@@ -19805,7 +19805,7 @@
         <v>0.01016</v>
       </c>
       <c r="S307" t="n">
-        <v>348.40815775463</v>
+        <v>64.43712759251561</v>
       </c>
     </row>
     <row r="308">
@@ -19835,7 +19835,7 @@
         <v>-1.333333333333333</v>
       </c>
       <c r="H308" t="n">
-        <v>12.4</v>
+        <v>-10.88888888888889</v>
       </c>
       <c r="I308" t="n">
         <v>102.71</v>
@@ -19868,7 +19868,7 @@
         <v>0.01016</v>
       </c>
       <c r="S308" t="n">
-        <v>259.481041674212</v>
+        <v>48.19707318638884</v>
       </c>
     </row>
     <row r="309">
@@ -19898,7 +19898,7 @@
         <v>2.11111111111111</v>
       </c>
       <c r="H309" t="n">
-        <v>16.9</v>
+        <v>-8.388888888888889</v>
       </c>
       <c r="I309" t="n">
         <v>102.41</v>
@@ -19931,7 +19931,7 @@
         <v>0.01016</v>
       </c>
       <c r="S309" t="n">
-        <v>270.4470241799071</v>
+        <v>45.73279100275231</v>
       </c>
     </row>
     <row r="310">
@@ -19961,7 +19961,7 @@
         <v>5.611111111111112</v>
       </c>
       <c r="H310" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I310" t="n">
         <v>102.08</v>
@@ -19994,7 +19994,7 @@
         <v>0.01016</v>
       </c>
       <c r="S310" t="n">
-        <v>286.8976482828986</v>
+        <v>44.08645539559514</v>
       </c>
     </row>
     <row r="311">
@@ -20024,7 +20024,7 @@
         <v>4.222222222222223</v>
       </c>
       <c r="H311" t="n">
-        <v>31.2</v>
+        <v>-0.4444444444444449</v>
       </c>
       <c r="I311" t="n">
         <v>101.69</v>
@@ -20057,7 +20057,7 @@
         <v>0.01016</v>
       </c>
       <c r="S311" t="n">
-        <v>550.5571236290816</v>
+        <v>71.64251357533963</v>
       </c>
     </row>
     <row r="312">
@@ -20087,7 +20087,7 @@
         <v>2.666666666666665</v>
       </c>
       <c r="H312" t="n">
-        <v>20.5</v>
+        <v>-6.388888888888889</v>
       </c>
       <c r="I312" t="n">
         <v>103.04</v>
@@ -20120,7 +20120,7 @@
         <v>0.01016</v>
       </c>
       <c r="S312" t="n">
-        <v>325.6611515071791</v>
+        <v>51.29751046555637</v>
       </c>
     </row>
     <row r="313">
@@ -20150,7 +20150,7 @@
         <v>2.277777777777779</v>
       </c>
       <c r="H313" t="n">
-        <v>23.7</v>
+        <v>-4.611111111111112</v>
       </c>
       <c r="I313" t="n">
         <v>102.61</v>
@@ -20183,7 +20183,7 @@
         <v>0.01016</v>
       </c>
       <c r="S313" t="n">
-        <v>406.9530493978255</v>
+        <v>60.36074952337621</v>
       </c>
     </row>
     <row r="314">
@@ -20213,7 +20213,7 @@
         <v>-0.5555555555555556</v>
       </c>
       <c r="H314" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I314" t="n">
         <v>102.64</v>
@@ -20246,7 +20246,7 @@
         <v>0.01016</v>
       </c>
       <c r="S314" t="n">
-        <v>659.3217490236277</v>
+        <v>89.94890847098246</v>
       </c>
     </row>
     <row r="315">
@@ -20276,7 +20276,7 @@
         <v>4.944444444444444</v>
       </c>
       <c r="H315" t="n">
-        <v>34.9</v>
+        <v>1.61111111111111</v>
       </c>
       <c r="I315" t="n">
         <v>102.25</v>
@@ -20309,7 +20309,7 @@
         <v>0.01016</v>
       </c>
       <c r="S315" t="n">
-        <v>644.584368864668</v>
+        <v>79.0162353880031</v>
       </c>
     </row>
     <row r="316">
@@ -20339,7 +20339,7 @@
         <v>7.166666666666666</v>
       </c>
       <c r="H316" t="n">
-        <v>43.7</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="I316" t="n">
         <v>102.02</v>
@@ -20372,7 +20372,7 @@
         <v>0.01016</v>
       </c>
       <c r="S316" t="n">
-        <v>887.6902903375685</v>
+        <v>95.52589540837553</v>
       </c>
     </row>
     <row r="317">
@@ -20402,7 +20402,7 @@
         <v>5</v>
       </c>
       <c r="H317" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I317" t="n">
         <v>102.55</v>
@@ -20435,7 +20435,7 @@
         <v>0.01016</v>
       </c>
       <c r="S317" t="n">
-        <v>761.2258235353155</v>
+        <v>88.96646839400016</v>
       </c>
     </row>
     <row r="318">
@@ -20465,7 +20465,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H318" t="n">
-        <v>36.9</v>
+        <v>2.722222222222221</v>
       </c>
       <c r="I318" t="n">
         <v>102.9</v>
@@ -20498,7 +20498,7 @@
         <v>0.01016</v>
       </c>
       <c r="S318" t="n">
-        <v>676.6129856135419</v>
+        <v>80.40903408257073</v>
       </c>
     </row>
     <row r="319">
@@ -20528,7 +20528,7 @@
         <v>5.222222222222221</v>
       </c>
       <c r="H319" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I319" t="n">
         <v>102.33</v>
@@ -20561,7 +20561,7 @@
         <v>0.01016</v>
       </c>
       <c r="S319" t="n">
-        <v>795.4873677631673</v>
+        <v>91.45434957658149</v>
       </c>
     </row>
     <row r="320">
@@ -20591,7 +20591,7 @@
         <v>4.333333333333332</v>
       </c>
       <c r="H320" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I320" t="n">
         <v>102.31</v>
@@ -20624,7 +20624,7 @@
         <v>0.01016</v>
       </c>
       <c r="S320" t="n">
-        <v>763.5235271055865</v>
+        <v>90.32297060570778</v>
       </c>
     </row>
     <row r="321">
@@ -20654,7 +20654,7 @@
         <v>2.277777777777779</v>
       </c>
       <c r="H321" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I321" t="n">
         <v>102.82</v>
@@ -20687,7 +20687,7 @@
         <v>0.01016</v>
       </c>
       <c r="S321" t="n">
-        <v>419.3785043678804</v>
+        <v>61.63672230866602</v>
       </c>
     </row>
     <row r="322">
@@ -20717,7 +20717,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H322" t="n">
-        <v>23.7</v>
+        <v>-4.611111111111112</v>
       </c>
       <c r="I322" t="n">
         <v>103.08</v>
@@ -20750,7 +20750,7 @@
         <v>0.01016</v>
       </c>
       <c r="S322" t="n">
-        <v>428.5004639185017</v>
+        <v>63.55674005025257</v>
       </c>
     </row>
     <row r="323">
@@ -20780,7 +20780,7 @@
         <v>0.777777777777777</v>
       </c>
       <c r="H323" t="n">
-        <v>23.2</v>
+        <v>-4.888888888888889</v>
       </c>
       <c r="I323" t="n">
         <v>103.39</v>
@@ -20813,7 +20813,7 @@
         <v>0.01016</v>
       </c>
       <c r="S323" t="n">
-        <v>439.6623129335489</v>
+        <v>65.81643097172567</v>
       </c>
     </row>
     <row r="324">
@@ -20843,7 +20843,7 @@
         <v>6.611111111111111</v>
       </c>
       <c r="H324" t="n">
-        <v>39.9</v>
+        <v>4.388888888888888</v>
       </c>
       <c r="I324" t="n">
         <v>102.32</v>
@@ -20876,7 +20876,7 @@
         <v>0.01016</v>
       </c>
       <c r="S324" t="n">
-        <v>754.3608582296386</v>
+        <v>85.70857987868665</v>
       </c>
     </row>
     <row r="325">
@@ -20906,7 +20906,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H325" t="n">
-        <v>44.5</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="I325" t="n">
         <v>102.13</v>
@@ -20939,7 +20939,7 @@
         <v>0.01016</v>
       </c>
       <c r="S325" t="n">
-        <v>911.4477179217819</v>
+        <v>97.00243747383986</v>
       </c>
     </row>
     <row r="326">
@@ -20969,7 +20969,7 @@
         <v>2.5</v>
       </c>
       <c r="H326" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I326" t="n">
         <v>102.86</v>
@@ -21002,7 +21002,7 @@
         <v>0.01016</v>
       </c>
       <c r="S326" t="n">
-        <v>443.4947197787611</v>
+        <v>63.78072830782606</v>
       </c>
     </row>
     <row r="327">
@@ -21032,7 +21032,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H327" t="n">
-        <v>32.6</v>
+        <v>0.3333333333333341</v>
       </c>
       <c r="I327" t="n">
         <v>102.58</v>
@@ -21065,7 +21065,7 @@
         <v>0.01016</v>
       </c>
       <c r="S327" t="n">
-        <v>571.1262023119381</v>
+        <v>72.63255798997517</v>
       </c>
     </row>
     <row r="328">
@@ -21095,7 +21095,7 @@
         <v>4.666666666666666</v>
       </c>
       <c r="H328" t="n">
-        <v>33.9</v>
+        <v>1.055555555555555</v>
       </c>
       <c r="I328" t="n">
         <v>103.21</v>
@@ -21128,7 +21128,7 @@
         <v>0.01016</v>
       </c>
       <c r="S328" t="n">
-        <v>621.587725267592</v>
+        <v>77.41349317690953</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>-0.1111111111111107</v>
       </c>
       <c r="H329" t="n">
-        <v>22.8</v>
+        <v>-5.111111111111111</v>
       </c>
       <c r="I329" t="n">
         <v>104.12</v>
@@ -21191,7 +21191,7 @@
         <v>0.01016</v>
       </c>
       <c r="S329" t="n">
-        <v>457.6487768141615</v>
+        <v>69.01943173053793</v>
       </c>
     </row>
     <row r="330">
@@ -21221,7 +21221,7 @@
         <v>0.4444444444444429</v>
       </c>
       <c r="H330" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I330" t="n">
         <v>103.84</v>
@@ -21254,7 +21254,7 @@
         <v>0.01016</v>
       </c>
       <c r="S330" t="n">
-        <v>513.9191432955153</v>
+        <v>73.90874296558363</v>
       </c>
     </row>
     <row r="331">
@@ -21284,7 +21284,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H331" t="n">
-        <v>35.6</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="I331" t="n">
         <v>103.08</v>
@@ -21317,7 +21317,7 @@
         <v>0.01016</v>
       </c>
       <c r="S331" t="n">
-        <v>738.5783881792429</v>
+        <v>89.55200604686429</v>
       </c>
     </row>
     <row r="332">
@@ -21347,7 +21347,7 @@
         <v>8.166666666666668</v>
       </c>
       <c r="H332" t="n">
-        <v>42.4</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="I332" t="n">
         <v>102.48</v>
@@ -21380,7 +21380,7 @@
         <v>0.01016</v>
       </c>
       <c r="S332" t="n">
-        <v>774.561833985974</v>
+        <v>84.8877106146698</v>
       </c>
     </row>
     <row r="333">
@@ -21410,7 +21410,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="H333" t="n">
-        <v>32.1</v>
+        <v>0.05555555555555635</v>
       </c>
       <c r="I333" t="n">
         <v>102.93</v>
@@ -21443,7 +21443,7 @@
         <v>0.01016</v>
       </c>
       <c r="S333" t="n">
-        <v>477.9366930595014</v>
+        <v>61.27845399614795</v>
       </c>
     </row>
     <row r="334">
@@ -21473,7 +21473,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H334" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I334" t="n">
         <v>102.66</v>
@@ -21506,7 +21506,7 @@
         <v>0.01016</v>
       </c>
       <c r="S334" t="n">
-        <v>483.7530894980785</v>
+        <v>63.26358363470642</v>
       </c>
     </row>
     <row r="335">
@@ -21536,7 +21536,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H335" t="n">
-        <v>36.6</v>
+        <v>2.555555555555556</v>
       </c>
       <c r="I335" t="n">
         <v>102.65</v>
@@ -21569,7 +21569,7 @@
         <v>0.01016</v>
       </c>
       <c r="S335" t="n">
-        <v>426.2057576615733</v>
+        <v>50.88395490632826</v>
       </c>
     </row>
     <row r="336">
@@ -21599,7 +21599,7 @@
         <v>6.388888888888889</v>
       </c>
       <c r="H336" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I336" t="n">
         <v>102.31</v>
@@ -21632,7 +21632,7 @@
         <v>0.01016</v>
       </c>
       <c r="S336" t="n">
-        <v>861.0211945628187</v>
+        <v>94.76604863597586</v>
       </c>
     </row>
     <row r="337">
@@ -21662,7 +21662,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H337" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I337" t="n">
         <v>101.9</v>
@@ -21695,7 +21695,7 @@
         <v>0.01016</v>
       </c>
       <c r="S337" t="n">
-        <v>432.3719221845336</v>
+        <v>48.4845778742368</v>
       </c>
     </row>
     <row r="338">
@@ -21725,7 +21725,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H338" t="n">
-        <v>42.5</v>
+        <v>5.833333333333334</v>
       </c>
       <c r="I338" t="n">
         <v>101.83</v>
@@ -21758,7 +21758,7 @@
         <v>0.01016</v>
       </c>
       <c r="S338" t="n">
-        <v>426.9728711268763</v>
+        <v>46.72765486555429</v>
       </c>
     </row>
     <row r="339">
@@ -21788,7 +21788,7 @@
         <v>16.5</v>
       </c>
       <c r="H339" t="n">
-        <v>47.6</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="I339" t="n">
         <v>101.62</v>
@@ -21821,7 +21821,7 @@
         <v>0.01016</v>
       </c>
       <c r="S339" t="n">
-        <v>585.9077830834387</v>
+        <v>59.805735203679</v>
       </c>
     </row>
     <row r="340">
@@ -21851,7 +21851,7 @@
         <v>14.38888888888889</v>
       </c>
       <c r="H340" t="n">
-        <v>45.7</v>
+        <v>7.611111111111113</v>
       </c>
       <c r="I340" t="n">
         <v>101.68</v>
@@ -21884,7 +21884,7 @@
         <v>0.01016</v>
       </c>
       <c r="S340" t="n">
-        <v>608.8214613935047</v>
+        <v>63.74221311687721</v>
       </c>
     </row>
     <row r="341">
@@ -21914,7 +21914,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H341" t="n">
-        <v>47.1</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="I341" t="n">
         <v>101.66</v>
@@ -21947,7 +21947,7 @@
         <v>0.01016</v>
       </c>
       <c r="S341" t="n">
-        <v>517.6560749145661</v>
+        <v>53.18971682941693</v>
       </c>
     </row>
     <row r="342">
@@ -21977,7 +21977,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H342" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I342" t="n">
         <v>102.03</v>
@@ -22010,7 +22010,7 @@
         <v>0.01016</v>
       </c>
       <c r="S342" t="n">
-        <v>711.7606875225304</v>
+        <v>73.03721472966306</v>
       </c>
     </row>
     <row r="343">
@@ -22040,7 +22040,7 @@
         <v>3.166666666666668</v>
       </c>
       <c r="H343" t="n">
-        <v>29.1</v>
+        <v>-1.61111111111111</v>
       </c>
       <c r="I343" t="n">
         <v>103.08</v>
@@ -22073,7 +22073,7 @@
         <v>0.01016</v>
       </c>
       <c r="S343" t="n">
-        <v>525.6285845927578</v>
+        <v>70.85487801903939</v>
       </c>
     </row>
     <row r="344">
@@ -22103,7 +22103,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H344" t="n">
-        <v>29.6</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="I344" t="n">
         <v>101.93</v>
@@ -22136,7 +22136,7 @@
         <v>0.01016</v>
       </c>
       <c r="S344" t="n">
-        <v>360.2386109368081</v>
+        <v>48.14954292734507</v>
       </c>
     </row>
     <row r="345">
@@ -22166,7 +22166,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H345" t="n">
-        <v>39.4</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="I345" t="n">
         <v>101.37</v>
@@ -22199,7 +22199,7 @@
         <v>0.01016</v>
       </c>
       <c r="S345" t="n">
-        <v>577.0392053285339</v>
+        <v>66.04614932631874</v>
       </c>
     </row>
     <row r="346">
@@ -22229,7 +22229,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="H346" t="n">
-        <v>33.7</v>
+        <v>0.9444444444444461</v>
       </c>
       <c r="I346" t="n">
         <v>102.89</v>
@@ -22262,7 +22262,7 @@
         <v>0.01016</v>
       </c>
       <c r="S346" t="n">
-        <v>472.1755866007987</v>
+        <v>58.99358656869178</v>
       </c>
     </row>
     <row r="347">
@@ -22292,7 +22292,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H347" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I347" t="n">
         <v>102.47</v>
@@ -22325,7 +22325,7 @@
         <v>0.01016</v>
       </c>
       <c r="S347" t="n">
-        <v>734.304799782191</v>
+        <v>87.53289905938689</v>
       </c>
     </row>
     <row r="348">
@@ -22355,7 +22355,7 @@
         <v>7.11111111111111</v>
       </c>
       <c r="H348" t="n">
-        <v>27.8</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="I348" t="n">
         <v>102.35</v>
@@ -22388,7 +22388,7 @@
         <v>0.01016</v>
       </c>
       <c r="S348" t="n">
-        <v>370.3394944657199</v>
+        <v>51.05083285248671</v>
       </c>
     </row>
     <row r="349">
@@ -22418,7 +22418,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H349" t="n">
-        <v>36.6</v>
+        <v>2.555555555555556</v>
       </c>
       <c r="I349" t="n">
         <v>101.97</v>
@@ -22451,7 +22451,7 @@
         <v>0.01016</v>
       </c>
       <c r="S349" t="n">
-        <v>584.5929236761973</v>
+        <v>69.79351975464915</v>
       </c>
     </row>
     <row r="350">
@@ -22481,7 +22481,7 @@
         <v>10.38888888888889</v>
       </c>
       <c r="H350" t="n">
-        <v>46.9</v>
+        <v>8.277777777777777</v>
       </c>
       <c r="I350" t="n">
         <v>101.36</v>
@@ -22514,7 +22514,7 @@
         <v>0.01016</v>
       </c>
       <c r="S350" t="n">
-        <v>842.0674665047165</v>
+        <v>86.75369291607325</v>
       </c>
     </row>
     <row r="351">
@@ -22544,7 +22544,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H351" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I351" t="n">
         <v>101.88</v>
@@ -22577,7 +22577,7 @@
         <v>0.01016</v>
       </c>
       <c r="S351" t="n">
-        <v>250.0360404405383</v>
+        <v>35.95867109862782</v>
       </c>
     </row>
     <row r="352">
@@ -22607,7 +22607,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H352" t="n">
-        <v>34.8</v>
+        <v>1.555555555555554</v>
       </c>
       <c r="I352" t="n">
         <v>102.25</v>
@@ -22640,7 +22640,7 @@
         <v>0.01016</v>
       </c>
       <c r="S352" t="n">
-        <v>586.655627157712</v>
+        <v>72.02831934062517</v>
       </c>
     </row>
     <row r="353">
@@ -22670,7 +22670,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H353" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I353" t="n">
         <v>102.31</v>
@@ -22703,7 +22703,7 @@
         <v>0.01016</v>
       </c>
       <c r="S353" t="n">
-        <v>676.9107234157984</v>
+        <v>79.83364513702941</v>
       </c>
     </row>
     <row r="354">
@@ -22733,7 +22733,7 @@
         <v>8.944444444444446</v>
       </c>
       <c r="H354" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I354" t="n">
         <v>102.28</v>
@@ -22766,7 +22766,7 @@
         <v>0.01016</v>
       </c>
       <c r="S354" t="n">
-        <v>646.9183806968725</v>
+        <v>73.39355046716203</v>
       </c>
     </row>
     <row r="355">
@@ -22796,7 +22796,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H355" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I355" t="n">
         <v>102.33</v>
@@ -22829,7 +22829,7 @@
         <v>0.01016</v>
       </c>
       <c r="S355" t="n">
-        <v>591.9671121535523</v>
+        <v>66.67077143628889</v>
       </c>
     </row>
     <row r="356">
@@ -22859,7 +22859,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H356" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I356" t="n">
         <v>100.87</v>
@@ -22892,7 +22892,7 @@
         <v>0.01016</v>
       </c>
       <c r="S356" t="n">
-        <v>810.9509911023108</v>
+        <v>76.35672149226613</v>
       </c>
     </row>
     <row r="357">
@@ -22922,7 +22922,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H357" t="n">
-        <v>32.3</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="I357" t="n">
         <v>101.8</v>
@@ -22955,7 +22955,7 @@
         <v>0.01016</v>
       </c>
       <c r="S357" t="n">
-        <v>316.4754004789951</v>
+        <v>40.44447144423225</v>
       </c>
     </row>
     <row r="358">
@@ -22985,7 +22985,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H358" t="n">
-        <v>46.7</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="I358" t="n">
         <v>100.75</v>
@@ -23018,7 +23018,7 @@
         <v>0.01016</v>
       </c>
       <c r="S358" t="n">
-        <v>592.347633219911</v>
+        <v>61.18932636715351</v>
       </c>
     </row>
     <row r="359">
@@ -23048,7 +23048,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H359" t="n">
-        <v>59.4</v>
+        <v>15.22222222222222</v>
       </c>
       <c r="I359" t="n">
         <v>101.02</v>
@@ -23081,7 +23081,7 @@
         <v>0.01016</v>
       </c>
       <c r="S359" t="n">
-        <v>981.4913761637081</v>
+        <v>86.79463102046955</v>
       </c>
     </row>
     <row r="360">
@@ -23111,7 +23111,7 @@
         <v>14</v>
       </c>
       <c r="H360" t="n">
-        <v>56.6</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I360" t="n">
         <v>100.87</v>
@@ -23144,7 +23144,7 @@
         <v>0.01016</v>
       </c>
       <c r="S360" t="n">
-        <v>1071.805920024964</v>
+        <v>97.85746551300802</v>
       </c>
     </row>
     <row r="361">
@@ -23174,7 +23174,7 @@
         <v>12.5</v>
       </c>
       <c r="H361" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I361" t="n">
         <v>102.41</v>
@@ -23207,7 +23207,7 @@
         <v>0.01016</v>
       </c>
       <c r="S361" t="n">
-        <v>710.1179247676863</v>
+        <v>73.74881213683045</v>
       </c>
     </row>
     <row r="362">
@@ -23237,7 +23237,7 @@
         <v>12.66666666666667</v>
       </c>
       <c r="H362" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I362" t="n">
         <v>102.34</v>
@@ -23270,7 +23270,7 @@
         <v>0.01016</v>
       </c>
       <c r="S362" t="n">
-        <v>591.9866175657794</v>
+        <v>64.3314368494737</v>
       </c>
     </row>
     <row r="363">
@@ -23300,7 +23300,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H363" t="n">
-        <v>43.7</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="I363" t="n">
         <v>101.88</v>
@@ -23333,7 +23333,7 @@
         <v>0.01016</v>
       </c>
       <c r="S363" t="n">
-        <v>648.6581259979077</v>
+        <v>69.80322864217162</v>
       </c>
     </row>
     <row r="364">
@@ -23363,7 +23363,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H364" t="n">
-        <v>47.1</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="I364" t="n">
         <v>101.68</v>
@@ -23396,7 +23396,7 @@
         <v>0.01016</v>
       </c>
       <c r="S364" t="n">
-        <v>453.7736210245741</v>
+        <v>46.62572618497651</v>
       </c>
     </row>
     <row r="365">
@@ -23426,7 +23426,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H365" t="n">
-        <v>51.9</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="I365" t="n">
         <v>101.46</v>
@@ -23459,7 +23459,7 @@
         <v>0.01016</v>
       </c>
       <c r="S365" t="n">
-        <v>538.9947289396667</v>
+        <v>52.07139663402747</v>
       </c>
     </row>
     <row r="366">
@@ -23489,7 +23489,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H366" t="n">
-        <v>64.2</v>
+        <v>17.88888888888889</v>
       </c>
       <c r="I366" t="n">
         <v>101.08</v>
@@ -23522,7 +23522,7 @@
         <v>0.01016</v>
       </c>
       <c r="S366" t="n">
-        <v>1178.665382542541</v>
+        <v>98.95658390617676</v>
       </c>
     </row>
     <row r="367">
@@ -23552,7 +23552,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H367" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I367" t="n">
         <v>100.16</v>
@@ -23585,7 +23585,7 @@
         <v>0.01016</v>
       </c>
       <c r="S367" t="n">
-        <v>1262.428773610906</v>
+        <v>99.3218240520355</v>
       </c>
     </row>
     <row r="368">
@@ -23615,7 +23615,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H368" t="n">
-        <v>47.1</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="I368" t="n">
         <v>102.01</v>
@@ -23648,7 +23648,7 @@
         <v>0.01016</v>
       </c>
       <c r="S368" t="n">
-        <v>577.2907644863776</v>
+        <v>59.31724513488179</v>
       </c>
     </row>
     <row r="369">
@@ -23678,7 +23678,7 @@
         <v>14.44444444444444</v>
       </c>
       <c r="H369" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I369" t="n">
         <v>101.92</v>
@@ -23711,7 +23711,7 @@
         <v>0.01016</v>
       </c>
       <c r="S369" t="n">
-        <v>665.1143510478651</v>
+        <v>67.9802643003049</v>
       </c>
     </row>
     <row r="370">
@@ -23741,7 +23741,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H370" t="n">
-        <v>46.6</v>
+        <v>8.111111111111112</v>
       </c>
       <c r="I370" t="n">
         <v>101.79</v>
@@ -23774,7 +23774,7 @@
         <v>0.01016</v>
       </c>
       <c r="S370" t="n">
-        <v>470.6928717158465</v>
+        <v>48.68742541831331</v>
       </c>
     </row>
     <row r="371">
@@ -23804,7 +23804,7 @@
         <v>17.83333333333333</v>
       </c>
       <c r="H371" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I371" t="n">
         <v>101.47</v>
@@ -23837,7 +23837,7 @@
         <v>0.01016</v>
       </c>
       <c r="S371" t="n">
-        <v>657.9166008039197</v>
+        <v>63.797980728629</v>
       </c>
     </row>
     <row r="372">
@@ -23867,7 +23867,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H372" t="n">
-        <v>59.8</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I372" t="n">
         <v>100.98</v>
@@ -23900,7 +23900,7 @@
         <v>0.01016</v>
       </c>
       <c r="S372" t="n">
-        <v>926.0575276345819</v>
+        <v>81.5279668545286</v>
       </c>
     </row>
     <row r="373">
@@ -23930,7 +23930,7 @@
         <v>19.61111111111111</v>
       </c>
       <c r="H373" t="n">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="I373" t="n">
         <v>100.56</v>
@@ -23963,7 +23963,7 @@
         <v>0.01016</v>
       </c>
       <c r="S373" t="n">
-        <v>1079.188543438224</v>
+        <v>90.41579806904747</v>
       </c>
     </row>
     <row r="374">
@@ -23993,7 +23993,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H374" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I374" t="n">
         <v>101.15</v>
@@ -24026,7 +24026,7 @@
         <v>0.01016</v>
       </c>
       <c r="S374" t="n">
-        <v>1140.372279313646</v>
+        <v>99.29288127897648</v>
       </c>
     </row>
     <row r="375">
@@ -24056,7 +24056,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H375" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I375" t="n">
         <v>101.02</v>
@@ -24089,7 +24089,7 @@
         <v>0.01016</v>
       </c>
       <c r="S375" t="n">
-        <v>963.5288742521249</v>
+        <v>83.89502257768299</v>
       </c>
     </row>
     <row r="376">
@@ -24119,7 +24119,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H376" t="n">
-        <v>53.5</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="I376" t="n">
         <v>101.11</v>
@@ -24152,7 +24152,7 @@
         <v>0.01016</v>
       </c>
       <c r="S376" t="n">
-        <v>641.7541468803258</v>
+        <v>60.79242260532563</v>
       </c>
     </row>
     <row r="377">
@@ -24182,7 +24182,7 @@
         <v>20</v>
       </c>
       <c r="H377" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I377" t="n">
         <v>101.21</v>
@@ -24215,7 +24215,7 @@
         <v>0.01016</v>
       </c>
       <c r="S377" t="n">
-        <v>1189.520269869342</v>
+        <v>96.94335077258116</v>
       </c>
     </row>
     <row r="378">
@@ -24245,7 +24245,7 @@
         <v>22.61111111111111</v>
       </c>
       <c r="H378" t="n">
-        <v>72.7</v>
+        <v>22.61111111111111</v>
       </c>
       <c r="I378" t="n">
         <v>100.97</v>
@@ -24278,7 +24278,7 @@
         <v>0.01016</v>
       </c>
       <c r="S378" t="n">
-        <v>1295.20023668548</v>
+        <v>100</v>
       </c>
     </row>
     <row r="379">
@@ -24308,7 +24308,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H379" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I379" t="n">
         <v>100.89</v>
@@ -24341,7 +24341,7 @@
         <v>0.01016</v>
       </c>
       <c r="S379" t="n">
-        <v>1173.073811668441</v>
+        <v>89.57636282323114</v>
       </c>
     </row>
     <row r="380">
@@ -24371,7 +24371,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H380" t="n">
-        <v>54.7</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="I380" t="n">
         <v>101.34</v>
@@ -24404,7 +24404,7 @@
         <v>0.01016</v>
       </c>
       <c r="S380" t="n">
-        <v>552.6521299611799</v>
+        <v>51.60072261411843</v>
       </c>
     </row>
     <row r="381">
@@ -24434,7 +24434,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H381" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I381" t="n">
         <v>101.12</v>
@@ -24467,7 +24467,7 @@
         <v>0.01016</v>
       </c>
       <c r="S381" t="n">
-        <v>1162.535528318254</v>
+        <v>98.95082628802705</v>
       </c>
     </row>
     <row r="382">
@@ -24497,7 +24497,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H382" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I382" t="n">
         <v>99.97</v>
@@ -24530,7 +24530,7 @@
         <v>0.01016</v>
       </c>
       <c r="S382" t="n">
-        <v>699.3968214747872</v>
+        <v>59.40363093326123</v>
       </c>
     </row>
     <row r="383">
@@ -24560,7 +24560,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H383" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I383" t="n">
         <v>100.19</v>
@@ -24593,7 +24593,7 @@
         <v>0.01016</v>
       </c>
       <c r="S383" t="n">
-        <v>963.4572830313607</v>
+        <v>78.05002762808904</v>
       </c>
     </row>
     <row r="384">
@@ -24623,7 +24623,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H384" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I384" t="n">
         <v>100.65</v>
@@ -24656,7 +24656,7 @@
         <v>0.01016</v>
       </c>
       <c r="S384" t="n">
-        <v>922.2782300280169</v>
+        <v>76.55226165570275</v>
       </c>
     </row>
     <row r="385">
@@ -24686,7 +24686,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H385" t="n">
-        <v>63.6</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="I385" t="n">
         <v>100.6</v>
@@ -24719,7 +24719,7 @@
         <v>0.01016</v>
       </c>
       <c r="S385" t="n">
-        <v>935.6278657383872</v>
+        <v>79.04859309733808</v>
       </c>
     </row>
     <row r="386">
@@ -24749,7 +24749,7 @@
         <v>23</v>
       </c>
       <c r="H386" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I386" t="n">
         <v>100.49</v>
@@ -24782,7 +24782,7 @@
         <v>0.01016</v>
       </c>
       <c r="S386" t="n">
-        <v>860.7792670458306</v>
+        <v>72.41952703106135</v>
       </c>
     </row>
     <row r="387">
@@ -24812,7 +24812,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H387" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I387" t="n">
         <v>100.69</v>
@@ -24845,7 +24845,7 @@
         <v>0.01016</v>
       </c>
       <c r="S387" t="n">
-        <v>860.6225256970667</v>
+        <v>67.9693853602313</v>
       </c>
     </row>
     <row r="388">
@@ -24875,7 +24875,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H388" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I388" t="n">
         <v>100.9</v>
@@ -24908,7 +24908,7 @@
         <v>0.01016</v>
       </c>
       <c r="S388" t="n">
-        <v>1147.249388265206</v>
+        <v>90.34631957642138</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H389" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I389" t="n">
         <v>100.53</v>
@@ -24971,7 +24971,7 @@
         <v>0.01016</v>
       </c>
       <c r="S389" t="n">
-        <v>1308.384637319881</v>
+        <v>100</v>
       </c>
     </row>
     <row r="390">
@@ -25001,7 +25001,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H390" t="n">
-        <v>73.09999999999999</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I390" t="n">
         <v>100.66</v>
@@ -25034,7 +25034,7 @@
         <v>0.01016</v>
       </c>
       <c r="S390" t="n">
-        <v>1219.684066425192</v>
+        <v>93.82164515633565</v>
       </c>
     </row>
     <row r="391">
@@ -25064,7 +25064,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H391" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I391" t="n">
         <v>100.72</v>
@@ -25097,7 +25097,7 @@
         <v>0.01016</v>
       </c>
       <c r="S391" t="n">
-        <v>1085.304837727797</v>
+        <v>81.54145889411257</v>
       </c>
     </row>
     <row r="392">
@@ -25127,7 +25127,7 @@
         <v>31.77777777777778</v>
       </c>
       <c r="H392" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I392" t="n">
         <v>100.34</v>
@@ -25160,7 +25160,7 @@
         <v>0.01016</v>
       </c>
       <c r="S392" t="n">
-        <v>922.7039732501296</v>
+        <v>68.29708826710976</v>
       </c>
     </row>
     <row r="393">
@@ -25190,7 +25190,7 @@
         <v>26</v>
       </c>
       <c r="H393" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I393" t="n">
         <v>100.03</v>
@@ -25223,7 +25223,7 @@
         <v>0.01016</v>
       </c>
       <c r="S393" t="n">
-        <v>1263.294606953898</v>
+        <v>93.915249274434</v>
       </c>
     </row>
     <row r="394">
@@ -25253,7 +25253,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H394" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I394" t="n">
         <v>100.6</v>
@@ -25286,7 +25286,7 @@
         <v>0.01016</v>
       </c>
       <c r="S394" t="n">
-        <v>1335.122304117726</v>
+        <v>97.72485893866305</v>
       </c>
     </row>
     <row r="395">
@@ -25316,7 +25316,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H395" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I395" t="n">
         <v>100.01</v>
@@ -25349,7 +25349,7 @@
         <v>0.01016</v>
       </c>
       <c r="S395" t="n">
-        <v>962.4438098072447</v>
+        <v>74.65528176811385</v>
       </c>
     </row>
     <row r="396">
@@ -25379,7 +25379,7 @@
         <v>31.16666666666666</v>
       </c>
       <c r="H396" t="n">
-        <v>81</v>
+        <v>27.22222222222222</v>
       </c>
       <c r="I396" t="n">
         <v>100.04</v>
@@ -25412,7 +25412,7 @@
         <v>0.01016</v>
       </c>
       <c r="S396" t="n">
-        <v>1108.577810061828</v>
+        <v>79.59333230482937</v>
       </c>
     </row>
     <row r="397">
@@ -25442,7 +25442,7 @@
         <v>30.88888888888889</v>
       </c>
       <c r="H397" t="n">
-        <v>81.40000000000001</v>
+        <v>27.44444444444445</v>
       </c>
       <c r="I397" t="n">
         <v>100.22</v>
@@ -25475,7 +25475,7 @@
         <v>0.01016</v>
       </c>
       <c r="S397" t="n">
-        <v>1144.83503652232</v>
+        <v>81.92662268703249</v>
       </c>
     </row>
     <row r="398">
@@ -25505,7 +25505,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H398" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I398" t="n">
         <v>100.3</v>
@@ -25538,7 +25538,7 @@
         <v>0.01016</v>
       </c>
       <c r="S398" t="n">
-        <v>1108.874413419759</v>
+        <v>81.93496088537844</v>
       </c>
     </row>
     <row r="399">
@@ -25568,7 +25568,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H399" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I399" t="n">
         <v>100.03</v>
@@ -25601,7 +25601,7 @@
         <v>0.01016</v>
       </c>
       <c r="S399" t="n">
-        <v>1171.423488577236</v>
+        <v>85.02046188843818</v>
       </c>
     </row>
     <row r="400">
@@ -25631,7 +25631,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H400" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I400" t="n">
         <v>99.94</v>
@@ -25664,7 +25664,7 @@
         <v>0.01016</v>
       </c>
       <c r="S400" t="n">
-        <v>1189.485899777595</v>
+        <v>86.91689550847882</v>
       </c>
     </row>
     <row r="401">
@@ -25694,7 +25694,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H401" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I401" t="n">
         <v>100.22</v>
@@ -25727,7 +25727,7 @@
         <v>0.01016</v>
       </c>
       <c r="S401" t="n">
-        <v>1206.706967695668</v>
+        <v>88.3254424217624</v>
       </c>
     </row>
     <row r="402">
@@ -25757,7 +25757,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H402" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I402" t="n">
         <v>100.72</v>
@@ -25790,7 +25790,7 @@
         <v>0.01016</v>
       </c>
       <c r="S402" t="n">
-        <v>1292.612132648215</v>
+        <v>95.18219437322489</v>
       </c>
     </row>
     <row r="403">
@@ -25820,7 +25820,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H403" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I403" t="n">
         <v>100.93</v>
@@ -25853,7 +25853,7 @@
         <v>0.01016</v>
       </c>
       <c r="S403" t="n">
-        <v>1267.459987199115</v>
+        <v>94.22490999957213</v>
       </c>
     </row>
     <row r="404">
@@ -25883,7 +25883,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H404" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I404" t="n">
         <v>101.03</v>
@@ -25916,7 +25916,7 @@
         <v>0.01016</v>
       </c>
       <c r="S404" t="n">
-        <v>1217.362730208747</v>
+        <v>90.57981457770796</v>
       </c>
     </row>
     <row r="405">
@@ -25946,7 +25946,7 @@
         <v>27</v>
       </c>
       <c r="H405" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I405" t="n">
         <v>100.91</v>
@@ -25979,7 +25979,7 @@
         <v>0.01016</v>
       </c>
       <c r="S405" t="n">
-        <v>1185.908389731689</v>
+        <v>88.23940423215105</v>
       </c>
     </row>
     <row r="406">
@@ -26009,7 +26009,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H406" t="n">
-        <v>80.90000000000001</v>
+        <v>27.16666666666667</v>
       </c>
       <c r="I406" t="n">
         <v>100.61</v>
@@ -26042,7 +26042,7 @@
         <v>0.01016</v>
       </c>
       <c r="S406" t="n">
-        <v>1338.346576358279</v>
+        <v>96.16952466179829</v>
       </c>
     </row>
     <row r="407">
@@ -26072,7 +26072,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H407" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I407" t="n">
         <v>100.57</v>
@@ -26105,7 +26105,7 @@
         <v>0.01016</v>
       </c>
       <c r="S407" t="n">
-        <v>1221.516617361015</v>
+        <v>88.65615895970537</v>
       </c>
     </row>
     <row r="408">
@@ -26135,7 +26135,7 @@
         <v>29.5</v>
       </c>
       <c r="H408" t="n">
-        <v>79.8</v>
+        <v>26.55555555555555</v>
       </c>
       <c r="I408" t="n">
         <v>100.7</v>
@@ -26168,7 +26168,7 @@
         <v>0.01016</v>
       </c>
       <c r="S408" t="n">
-        <v>1161.250922500718</v>
+        <v>84.21142829579874</v>
       </c>
     </row>
     <row r="409">
@@ -26198,7 +26198,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H409" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I409" t="n">
         <v>100.89</v>
@@ -26231,7 +26231,7 @@
         <v>0.01016</v>
       </c>
       <c r="S409" t="n">
-        <v>1259.481860877885</v>
+        <v>91.56555962430105</v>
       </c>
     </row>
     <row r="410">
@@ -26261,7 +26261,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H410" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I410" t="n">
         <v>101.06</v>
@@ -26294,7 +26294,7 @@
         <v>0.01016</v>
       </c>
       <c r="S410" t="n">
-        <v>1353.359300398032</v>
+        <v>100</v>
       </c>
     </row>
     <row r="411">
@@ -26324,7 +26324,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H411" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I411" t="n">
         <v>100.85</v>
@@ -26357,7 +26357,7 @@
         <v>0.01016</v>
       </c>
       <c r="S411" t="n">
-        <v>1259.481860877885</v>
+        <v>91.56555962430105</v>
       </c>
     </row>
     <row r="412">
@@ -26387,7 +26387,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H412" t="n">
-        <v>80.59999999999999</v>
+        <v>27</v>
       </c>
       <c r="I412" t="n">
         <v>100.71</v>
@@ -26420,7 +26420,7 @@
         <v>0.01016</v>
       </c>
       <c r="S412" t="n">
-        <v>1288.174151434655</v>
+        <v>92.7943749955589</v>
       </c>
     </row>
     <row r="413">
@@ -26450,7 +26450,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H413" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I413" t="n">
         <v>100.89</v>
@@ -26483,7 +26483,7 @@
         <v>0.01016</v>
       </c>
       <c r="S413" t="n">
-        <v>1295.188351071261</v>
+        <v>94.88275115085801</v>
       </c>
     </row>
     <row r="414">
@@ -26513,7 +26513,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H414" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I414" t="n">
         <v>100.68</v>
@@ -26546,7 +26546,7 @@
         <v>0.01016</v>
       </c>
       <c r="S414" t="n">
-        <v>1176.940894945829</v>
+        <v>86.07337737605296</v>
       </c>
     </row>
     <row r="415">
@@ -26576,7 +26576,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H415" t="n">
-        <v>80.59999999999999</v>
+        <v>27</v>
       </c>
       <c r="I415" t="n">
         <v>100.42</v>
@@ -26609,7 +26609,7 @@
         <v>0.01016</v>
       </c>
       <c r="S415" t="n">
-        <v>1207.757576466724</v>
+        <v>87.00152019784235</v>
       </c>
     </row>
     <row r="416">
@@ -26639,7 +26639,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H416" t="n">
-        <v>80.40000000000001</v>
+        <v>26.88888888888889</v>
       </c>
       <c r="I416" t="n">
         <v>100.28</v>
@@ -26672,7 +26672,7 @@
         <v>0.01016</v>
       </c>
       <c r="S416" t="n">
-        <v>1249.080175853765</v>
+        <v>90.12779704136608</v>
       </c>
     </row>
     <row r="417">
@@ -26702,7 +26702,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H417" t="n">
-        <v>79.8</v>
+        <v>26.55555555555555</v>
       </c>
       <c r="I417" t="n">
         <v>100.01</v>
@@ -26735,7 +26735,7 @@
         <v>0.01016</v>
       </c>
       <c r="S417" t="n">
-        <v>1356.579095099275</v>
+        <v>98.37620877710135</v>
       </c>
     </row>
     <row r="418">
@@ -26765,7 +26765,7 @@
         <v>25.05555555555555</v>
       </c>
       <c r="H418" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I418" t="n">
         <v>100.25</v>
@@ -26798,7 +26798,7 @@
         <v>0.01016</v>
       </c>
       <c r="S418" t="n">
-        <v>1147.134464762235</v>
+        <v>88.07846382465027</v>
       </c>
     </row>
     <row r="419">
@@ -26828,7 +26828,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H419" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I419" t="n">
         <v>100.49</v>
@@ -26861,7 +26861,7 @@
         <v>0.01016</v>
       </c>
       <c r="S419" t="n">
-        <v>1061.342667859998</v>
+        <v>79.24872293512796</v>
       </c>
     </row>
     <row r="420">
@@ -26891,7 +26891,7 @@
         <v>30.61111111111111</v>
       </c>
       <c r="H420" t="n">
-        <v>79.8</v>
+        <v>26.55555555555555</v>
       </c>
       <c r="I420" t="n">
         <v>100.12</v>
@@ -26924,7 +26924,7 @@
         <v>0.01016</v>
       </c>
       <c r="S420" t="n">
-        <v>1089.38367071461</v>
+        <v>78.99976921046597</v>
       </c>
     </row>
     <row r="421">
@@ -26954,7 +26954,7 @@
         <v>27.5</v>
       </c>
       <c r="H421" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I421" t="n">
         <v>100.51</v>
@@ -26987,7 +26987,7 @@
         <v>0.01016</v>
       </c>
       <c r="S421" t="n">
-        <v>1267.358065269568</v>
+        <v>92.45007168598721</v>
       </c>
     </row>
     <row r="422">
@@ -27017,7 +27017,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H422" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I422" t="n">
         <v>100.6</v>
@@ -27050,7 +27050,7 @@
         <v>0.01016</v>
       </c>
       <c r="S422" t="n">
-        <v>1210.179799940179</v>
+        <v>88.8829427515501</v>
       </c>
     </row>
     <row r="423">
@@ -27080,7 +27080,7 @@
         <v>27.5</v>
       </c>
       <c r="H423" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I423" t="n">
         <v>100.51</v>
@@ -27113,7 +27113,7 @@
         <v>0.01016</v>
       </c>
       <c r="S423" t="n">
-        <v>1137.198863254809</v>
+        <v>84.83810245225439</v>
       </c>
     </row>
     <row r="424">
@@ -27143,7 +27143,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H424" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I424" t="n">
         <v>100.55</v>
@@ -27176,7 +27176,7 @@
         <v>0.01016</v>
       </c>
       <c r="S424" t="n">
-        <v>1150.927119896207</v>
+        <v>86.47181250349665</v>
       </c>
     </row>
     <row r="425">
@@ -27206,7 +27206,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H425" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I425" t="n">
         <v>100.78</v>
@@ -27239,7 +27239,7 @@
         <v>0.01016</v>
       </c>
       <c r="S425" t="n">
-        <v>1244.241923247465</v>
+        <v>92.09681861273876</v>
       </c>
     </row>
     <row r="426">
@@ -27269,7 +27269,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H426" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I426" t="n">
         <v>101</v>
@@ -27302,7 +27302,7 @@
         <v>0.01016</v>
       </c>
       <c r="S426" t="n">
-        <v>1224.488701004425</v>
+        <v>90.3214500104289</v>
       </c>
     </row>
     <row r="427">
@@ -27332,7 +27332,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H427" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I427" t="n">
         <v>100.88</v>
@@ -27365,7 +27365,7 @@
         <v>0.01016</v>
       </c>
       <c r="S427" t="n">
-        <v>1106.116795783851</v>
+        <v>80.96270094828063</v>
       </c>
     </row>
     <row r="428">
@@ -27395,7 +27395,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H428" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I428" t="n">
         <v>100.27</v>
@@ -27428,7 +27428,7 @@
         <v>0.01016</v>
       </c>
       <c r="S428" t="n">
-        <v>1248.001707766866</v>
+        <v>91.81827864659782</v>
       </c>
     </row>
     <row r="429">
@@ -27458,7 +27458,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H429" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I429" t="n">
         <v>100.35</v>
@@ -27491,7 +27491,7 @@
         <v>0.01016</v>
       </c>
       <c r="S429" t="n">
-        <v>1341.81699585305</v>
+        <v>98.04787735766082</v>
       </c>
     </row>
     <row r="430">
@@ -27521,7 +27521,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H430" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I430" t="n">
         <v>100.71</v>
@@ -27554,7 +27554,7 @@
         <v>0.01016</v>
       </c>
       <c r="S430" t="n">
-        <v>1029.706063212627</v>
+        <v>79.72377983836049</v>
       </c>
     </row>
     <row r="431">
@@ -27584,7 +27584,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H431" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I431" t="n">
         <v>100.84</v>
@@ -27617,7 +27617,7 @@
         <v>0.01016</v>
       </c>
       <c r="S431" t="n">
-        <v>1046.028358940633</v>
+        <v>80.31540660894272</v>
       </c>
     </row>
     <row r="432">
@@ -27647,7 +27647,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H432" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I432" t="n">
         <v>100.32</v>
@@ -27680,7 +27680,7 @@
         <v>0.01016</v>
       </c>
       <c r="S432" t="n">
-        <v>1126.616170705494</v>
+        <v>85.56121675525614</v>
       </c>
     </row>
     <row r="433">
@@ -27710,7 +27710,7 @@
         <v>22.5</v>
       </c>
       <c r="H433" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I433" t="n">
         <v>100.37</v>
@@ -27743,7 +27743,7 @@
         <v>0.01016</v>
       </c>
       <c r="S433" t="n">
-        <v>1287.235179088187</v>
+        <v>99.66266848778203</v>
       </c>
     </row>
     <row r="434">
@@ -27773,7 +27773,7 @@
         <v>23</v>
       </c>
       <c r="H434" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I434" t="n">
         <v>101.27</v>
@@ -27806,7 +27806,7 @@
         <v>0.01016</v>
       </c>
       <c r="S434" t="n">
-        <v>989.7884384066389</v>
+        <v>80.66563488290932</v>
       </c>
     </row>
     <row r="435">
@@ -27836,7 +27836,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H435" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I435" t="n">
         <v>101.33</v>
@@ -27869,7 +27869,7 @@
         <v>0.01016</v>
       </c>
       <c r="S435" t="n">
-        <v>1006.950871572766</v>
+        <v>80.5338302772594</v>
       </c>
     </row>
     <row r="436">
@@ -27899,7 +27899,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H436" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I436" t="n">
         <v>101.12</v>
@@ -27932,7 +27932,7 @@
         <v>0.01016</v>
       </c>
       <c r="S436" t="n">
-        <v>1123.560892586849</v>
+        <v>87.15288535805938</v>
       </c>
     </row>
     <row r="437">
@@ -27962,7 +27962,7 @@
         <v>26</v>
       </c>
       <c r="H437" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I437" t="n">
         <v>101.3</v>
@@ -27995,7 +27995,7 @@
         <v>0.01016</v>
       </c>
       <c r="S437" t="n">
-        <v>1226.690162632169</v>
+        <v>91.75661852510289</v>
       </c>
     </row>
     <row r="438">
@@ -28025,7 +28025,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H438" t="n">
-        <v>72.59999999999999</v>
+        <v>22.55555555555555</v>
       </c>
       <c r="I438" t="n">
         <v>101.39</v>
@@ -28058,7 +28058,7 @@
         <v>0.01016</v>
       </c>
       <c r="S438" t="n">
-        <v>1213.88889313313</v>
+        <v>93.8091700484871</v>
       </c>
     </row>
     <row r="439">
@@ -28088,7 +28088,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H439" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I439" t="n">
         <v>101.28</v>
@@ -28121,7 +28121,7 @@
         <v>0.01016</v>
       </c>
       <c r="S439" t="n">
-        <v>1105.064597967455</v>
+        <v>84.92644233867522</v>
       </c>
     </row>
     <row r="440">
@@ -28151,7 +28151,7 @@
         <v>26</v>
       </c>
       <c r="H440" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I440" t="n">
         <v>100.93</v>
@@ -28184,7 +28184,7 @@
         <v>0.01016</v>
       </c>
       <c r="S440" t="n">
-        <v>1003.518174688059</v>
+        <v>78.35476537840374</v>
       </c>
     </row>
     <row r="441">
@@ -28214,7 +28214,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H441" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I441" t="n">
         <v>101.09</v>
@@ -28247,7 +28247,7 @@
         <v>0.01016</v>
       </c>
       <c r="S441" t="n">
-        <v>1185.899134422225</v>
+        <v>93.74876642594559</v>
       </c>
     </row>
     <row r="442">
@@ -28277,7 +28277,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H442" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I442" t="n">
         <v>101.3</v>
@@ -28310,7 +28310,7 @@
         <v>0.01016</v>
       </c>
       <c r="S442" t="n">
-        <v>1050.191675460218</v>
+        <v>83.58399879374161</v>
       </c>
     </row>
     <row r="443">
@@ -28340,7 +28340,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H443" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I443" t="n">
         <v>101.24</v>
@@ -28373,7 +28373,7 @@
         <v>0.01016</v>
       </c>
       <c r="S443" t="n">
-        <v>1079.525304450538</v>
+        <v>84.52890579703265</v>
       </c>
     </row>
     <row r="444">
@@ -28403,7 +28403,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H444" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I444" t="n">
         <v>101.13</v>
@@ -28436,7 +28436,7 @@
         <v>0.01016</v>
       </c>
       <c r="S444" t="n">
-        <v>1189.24557938574</v>
+        <v>94.37651930531337</v>
       </c>
     </row>
     <row r="445">
@@ -28466,7 +28466,7 @@
         <v>23.5</v>
       </c>
       <c r="H445" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I445" t="n">
         <v>101.12</v>
@@ -28499,7 +28499,7 @@
         <v>0.01016</v>
       </c>
       <c r="S445" t="n">
-        <v>990.6950408325317</v>
+        <v>80.17675153628649</v>
       </c>
     </row>
     <row r="446">
@@ -28529,7 +28529,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H446" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I446" t="n">
         <v>101.23</v>
@@ -28562,7 +28562,7 @@
         <v>0.01016</v>
       </c>
       <c r="S446" t="n">
-        <v>1141.241533185928</v>
+        <v>85.89696694185692</v>
       </c>
     </row>
     <row r="447">
@@ -28592,7 +28592,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H447" t="n">
-        <v>58</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="I447" t="n">
         <v>101.81</v>
@@ -28625,7 +28625,7 @@
         <v>0.01016</v>
       </c>
       <c r="S447" t="n">
-        <v>690.0768970491087</v>
+        <v>61.99716203996766</v>
       </c>
     </row>
     <row r="448">
@@ -28655,7 +28655,7 @@
         <v>16</v>
       </c>
       <c r="H448" t="n">
-        <v>59.7</v>
+        <v>15.38888888888889</v>
       </c>
       <c r="I448" t="n">
         <v>102.2</v>
@@ -28688,7 +28688,7 @@
         <v>0.01016</v>
       </c>
       <c r="S448" t="n">
-        <v>1091.064118971932</v>
+        <v>96.16174514018984</v>
       </c>
     </row>
     <row r="449">
@@ -28718,7 +28718,7 @@
         <v>19</v>
       </c>
       <c r="H449" t="n">
-        <v>58.4</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="I449" t="n">
         <v>102.15</v>
@@ -28751,7 +28751,7 @@
         <v>0.01016</v>
       </c>
       <c r="S449" t="n">
-        <v>849.2135747313499</v>
+        <v>75.94781054616952</v>
       </c>
     </row>
     <row r="450">
@@ -28781,7 +28781,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H450" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I450" t="n">
         <v>102.28</v>
@@ -28814,7 +28814,7 @@
         <v>0.01016</v>
       </c>
       <c r="S450" t="n">
-        <v>850.6088426397228</v>
+        <v>76.68200612028095</v>
       </c>
     </row>
     <row r="451">
@@ -28844,7 +28844,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H451" t="n">
-        <v>56.4</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="I451" t="n">
         <v>101.83</v>
@@ -28877,7 +28877,7 @@
         <v>0.01016</v>
       </c>
       <c r="S451" t="n">
-        <v>788.4799004967068</v>
+        <v>72.15727945813437</v>
       </c>
     </row>
     <row r="452">
@@ -28907,7 +28907,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H452" t="n">
-        <v>55.5</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="I452" t="n">
         <v>101.37</v>
@@ -28940,7 +28940,7 @@
         <v>0.01016</v>
       </c>
       <c r="S452" t="n">
-        <v>768.4148464483325</v>
+        <v>71.06782970677598</v>
       </c>
     </row>
     <row r="453">
@@ -28970,7 +28970,7 @@
         <v>11</v>
       </c>
       <c r="H453" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I453" t="n">
         <v>102.51</v>
@@ -29003,7 +29003,7 @@
         <v>0.01016</v>
       </c>
       <c r="S453" t="n">
-        <v>792.1339291704171</v>
+        <v>82.04625918605029</v>
       </c>
     </row>
     <row r="454">
@@ -29033,7 +29033,7 @@
         <v>12.94444444444444</v>
       </c>
       <c r="H454" t="n">
-        <v>49.8</v>
+        <v>9.888888888888888</v>
       </c>
       <c r="I454" t="n">
         <v>102.31</v>
@@ -29066,7 +29066,7 @@
         <v>0.01016</v>
       </c>
       <c r="S454" t="n">
-        <v>823.425958176772</v>
+        <v>81.68312082434439</v>
       </c>
     </row>
     <row r="455">
@@ -29096,7 +29096,7 @@
         <v>20.83333333333334</v>
       </c>
       <c r="H455" t="n">
-        <v>60.1</v>
+        <v>15.61111111111111</v>
       </c>
       <c r="I455" t="n">
         <v>101.77</v>
@@ -29129,7 +29129,7 @@
         <v>0.01016</v>
       </c>
       <c r="S455" t="n">
-        <v>820.9241592174452</v>
+        <v>72.03200093872158</v>
       </c>
     </row>
     <row r="456">
@@ -29159,7 +29159,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H456" t="n">
-        <v>49.5</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="I456" t="n">
         <v>102</v>
@@ -29192,7 +29192,7 @@
         <v>0.01016</v>
       </c>
       <c r="S456" t="n">
-        <v>590.564270810092</v>
+        <v>58.8090789353091</v>
       </c>
     </row>
     <row r="457">
@@ -29222,7 +29222,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H457" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I457" t="n">
         <v>101.42</v>
@@ -29255,7 +29255,7 @@
         <v>0.01016</v>
       </c>
       <c r="S457" t="n">
-        <v>479.9607634830295</v>
+        <v>45.91237019045283</v>
       </c>
     </row>
     <row r="458">
@@ -29285,7 +29285,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H458" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I458" t="n">
         <v>101.66</v>
@@ -29318,7 +29318,7 @@
         <v>0.01016</v>
       </c>
       <c r="S458" t="n">
-        <v>975.9226850198069</v>
+        <v>82.89049824113887</v>
       </c>
     </row>
     <row r="459">
@@ -29348,7 +29348,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H459" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I459" t="n">
         <v>101.76</v>
@@ -29381,7 +29381,7 @@
         <v>0.01016</v>
       </c>
       <c r="S459" t="n">
-        <v>1034.352321395645</v>
+        <v>86.74985455589217</v>
       </c>
     </row>
     <row r="460">
@@ -29411,7 +29411,7 @@
         <v>22</v>
       </c>
       <c r="H460" t="n">
-        <v>68.40000000000001</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I460" t="n">
         <v>100.9</v>
@@ -29444,7 +29444,7 @@
         <v>0.01016</v>
       </c>
       <c r="S460" t="n">
-        <v>1114.363969776306</v>
+        <v>89.65107077438816</v>
       </c>
     </row>
     <row r="461">
@@ -29474,7 +29474,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H461" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I461" t="n">
         <v>102.12</v>
@@ -29507,7 +29507,7 @@
         <v>0.01016</v>
       </c>
       <c r="S461" t="n">
-        <v>555.6653120699236</v>
+        <v>65.33566143931601</v>
       </c>
     </row>
     <row r="462">
@@ -29537,7 +29537,7 @@
         <v>15</v>
       </c>
       <c r="H462" t="n">
-        <v>52.1</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I462" t="n">
         <v>101.81</v>
@@ -29570,7 +29570,7 @@
         <v>0.01016</v>
       </c>
       <c r="S462" t="n">
-        <v>807.7067690442786</v>
+        <v>77.83792771142147</v>
       </c>
     </row>
     <row r="463">
@@ -29600,7 +29600,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H463" t="n">
-        <v>48.1</v>
+        <v>8.944444444444446</v>
       </c>
       <c r="I463" t="n">
         <v>102.29</v>
@@ -29633,7 +29633,7 @@
         <v>0.01016</v>
       </c>
       <c r="S463" t="n">
-        <v>659.1538191069885</v>
+        <v>66.84169196338284</v>
       </c>
     </row>
     <row r="464">
@@ -29663,7 +29663,7 @@
         <v>11.22222222222222</v>
       </c>
       <c r="H464" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I464" t="n">
         <v>103.07</v>
@@ -29696,7 +29696,7 @@
         <v>0.01016</v>
       </c>
       <c r="S464" t="n">
-        <v>506.869269429788</v>
+        <v>58.97259207253799</v>
       </c>
     </row>
     <row r="465">
@@ -29726,7 +29726,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H465" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I465" t="n">
         <v>103.16</v>
@@ -29759,7 +29759,7 @@
         <v>0.01016</v>
       </c>
       <c r="S465" t="n">
-        <v>699.629620093178</v>
+        <v>77.77756615893104</v>
       </c>
     </row>
     <row r="466">
@@ -29789,7 +29789,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H466" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I466" t="n">
         <v>103.28</v>
@@ -29822,7 +29822,7 @@
         <v>0.01016</v>
       </c>
       <c r="S466" t="n">
-        <v>500.1151837193883</v>
+        <v>66.17272734471803</v>
       </c>
     </row>
     <row r="467">
@@ -29852,7 +29852,7 @@
         <v>5.277777777777778</v>
       </c>
       <c r="H467" t="n">
-        <v>18.2</v>
+        <v>-7.666666666666667</v>
       </c>
       <c r="I467" t="n">
         <v>102.55</v>
@@ -29885,7 +29885,7 @@
         <v>0.01016</v>
       </c>
       <c r="S467" t="n">
-        <v>234.9022069981412</v>
+        <v>38.70129565642142</v>
       </c>
     </row>
     <row r="468">
@@ -29915,7 +29915,7 @@
         <v>3.111111111111112</v>
       </c>
       <c r="H468" t="n">
-        <v>27.1</v>
+        <v>-2.722222222222221</v>
       </c>
       <c r="I468" t="n">
         <v>102.31</v>
@@ -29948,7 +29948,7 @@
         <v>0.01016</v>
       </c>
       <c r="S468" t="n">
-        <v>469.593341074477</v>
+        <v>65.52809138109656</v>
       </c>
     </row>
     <row r="469">
@@ -29978,7 +29978,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H469" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I469" t="n">
         <v>102.29</v>
@@ -30011,7 +30011,7 @@
         <v>0.01016</v>
       </c>
       <c r="S469" t="n">
-        <v>751.51530354901</v>
+        <v>80.64738180185074</v>
       </c>
     </row>
     <row r="470">
@@ -30041,7 +30041,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H470" t="n">
-        <v>44.5</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="I470" t="n">
         <v>101.83</v>
@@ -30074,7 +30074,7 @@
         <v>0.01016</v>
       </c>
       <c r="S470" t="n">
-        <v>663.9509389916208</v>
+        <v>70.66215448109666</v>
       </c>
     </row>
     <row r="471">
@@ -30104,7 +30104,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H471" t="n">
-        <v>28.2</v>
+        <v>-2.111111111111112</v>
       </c>
       <c r="I471" t="n">
         <v>103.35</v>
@@ -30137,7 +30137,7 @@
         <v>0.01016</v>
       </c>
       <c r="S471" t="n">
-        <v>406.0798940204759</v>
+        <v>55.5913526340675</v>
       </c>
     </row>
     <row r="472">
@@ -30167,7 +30167,7 @@
         <v>7.666666666666665</v>
       </c>
       <c r="H472" t="n">
-        <v>37.3</v>
+        <v>2.944444444444443</v>
       </c>
       <c r="I472" t="n">
         <v>103.03</v>
@@ -30200,7 +30200,7 @@
         <v>0.01016</v>
       </c>
       <c r="S472" t="n">
-        <v>609.7185054201891</v>
+        <v>72.01850380918987</v>
       </c>
     </row>
     <row r="473">
@@ -30230,7 +30230,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H473" t="n">
-        <v>16.2</v>
+        <v>-8.777777777777779</v>
       </c>
       <c r="I473" t="n">
         <v>103.21</v>
@@ -30263,7 +30263,7 @@
         <v>0.01016</v>
       </c>
       <c r="S473" t="n">
-        <v>289.2223739799335</v>
+        <v>49.60798643182373</v>
       </c>
     </row>
     <row r="474">
@@ -30293,7 +30293,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="H474" t="n">
-        <v>21.2</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="I474" t="n">
         <v>102.85</v>
@@ -30326,7 +30326,7 @@
         <v>0.01016</v>
       </c>
       <c r="S474" t="n">
-        <v>305.8509032736344</v>
+        <v>47.53639477308459</v>
       </c>
     </row>
     <row r="475">
@@ -30356,7 +30356,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H475" t="n">
-        <v>29.5</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="I475" t="n">
         <v>102.54</v>
@@ -30389,7 +30389,7 @@
         <v>0.01016</v>
       </c>
       <c r="S475" t="n">
-        <v>603.2916521934688</v>
+        <v>80.77276475655491</v>
       </c>
     </row>
     <row r="476">
@@ -30419,7 +30419,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H476" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I476" t="n">
         <v>101.52</v>
@@ -30452,7 +30452,7 @@
         <v>0.01016</v>
       </c>
       <c r="S476" t="n">
-        <v>586.4076851904955</v>
+        <v>67.71855450168248</v>
       </c>
     </row>
     <row r="477">
@@ -30482,7 +30482,7 @@
         <v>6.888888888888888</v>
       </c>
       <c r="H477" t="n">
-        <v>33.6</v>
+        <v>0.8888888888888897</v>
       </c>
       <c r="I477" t="n">
         <v>101.42</v>
@@ -30515,7 +30515,7 @@
         <v>0.01016</v>
       </c>
       <c r="S477" t="n">
-        <v>524.0624599871817</v>
+        <v>65.58118923793231</v>
       </c>
     </row>
     <row r="478">
@@ -30545,7 +30545,7 @@
         <v>10</v>
       </c>
       <c r="H478" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I478" t="n">
         <v>102.13</v>
@@ -30578,7 +30578,7 @@
         <v>0.01016</v>
       </c>
       <c r="S478" t="n">
-        <v>779.8565884949946</v>
+        <v>82.54318286106954</v>
       </c>
     </row>
     <row r="479">
@@ -30608,7 +30608,7 @@
         <v>9.833333333333336</v>
       </c>
       <c r="H479" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I479" t="n">
         <v>101.8</v>
@@ -30641,7 +30641,7 @@
         <v>0.01016</v>
       </c>
       <c r="S479" t="n">
-        <v>972.0407720076679</v>
+        <v>97.4225769267465</v>
       </c>
     </row>
     <row r="480">
@@ -30671,7 +30671,7 @@
         <v>0.777777777777777</v>
       </c>
       <c r="H480" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I480" t="n">
         <v>102.71</v>
@@ -30704,7 +30704,7 @@
         <v>0.01016</v>
       </c>
       <c r="S480" t="n">
-        <v>630.6493532315194</v>
+        <v>84.72276227299577</v>
       </c>
     </row>
     <row r="481">
@@ -30734,7 +30734,7 @@
         <v>-4.944444444444444</v>
       </c>
       <c r="H481" t="n">
-        <v>7.3</v>
+        <v>-13.72222222222222</v>
       </c>
       <c r="I481" t="n">
         <v>103.87</v>
@@ -30767,7 +30767,7 @@
         <v>0.01016</v>
       </c>
       <c r="S481" t="n">
-        <v>241.2243240771408</v>
+        <v>50.20752554660788</v>
       </c>
     </row>
     <row r="482">
@@ -30797,7 +30797,7 @@
         <v>-3.277777777777777</v>
       </c>
       <c r="H482" t="n">
-        <v>11.9</v>
+        <v>-11.16666666666667</v>
       </c>
       <c r="I482" t="n">
         <v>103.86</v>
@@ -30830,7 +30830,7 @@
         <v>0.01016</v>
       </c>
       <c r="S482" t="n">
-        <v>289.9132866901355</v>
+        <v>54.43448480819229</v>
       </c>
     </row>
     <row r="483">
@@ -30860,7 +30860,7 @@
         <v>0.3333333333333341</v>
       </c>
       <c r="H483" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I483" t="n">
         <v>103.35</v>
@@ -30893,7 +30893,7 @@
         <v>0.01016</v>
       </c>
       <c r="S483" t="n">
-        <v>549.7083217633942</v>
+        <v>77.65914701622644</v>
       </c>
     </row>
     <row r="484">
@@ -30923,7 +30923,7 @@
         <v>-0.1111111111111107</v>
       </c>
       <c r="H484" t="n">
-        <v>21.7</v>
+        <v>-5.722222222222223</v>
       </c>
       <c r="I484" t="n">
         <v>103.47</v>
@@ -30956,7 +30956,7 @@
         <v>0.01016</v>
       </c>
       <c r="S484" t="n">
-        <v>427.9837611942676</v>
+        <v>65.89093374720764</v>
       </c>
     </row>
     <row r="485">
@@ -30986,7 +30986,7 @@
         <v>-5.277777777777778</v>
       </c>
       <c r="H485" t="n">
-        <v>8.6</v>
+        <v>-13</v>
       </c>
       <c r="I485" t="n">
         <v>104.24</v>
@@ -31019,7 +31019,7 @@
         <v>0.01016</v>
       </c>
       <c r="S485" t="n">
-        <v>270.2725807192624</v>
+        <v>54.60217573382946</v>
       </c>
     </row>
     <row r="486">
@@ -31049,7 +31049,7 @@
         <v>-2.944444444444445</v>
       </c>
       <c r="H486" t="n">
-        <v>13.8</v>
+        <v>-10.11111111111111</v>
       </c>
       <c r="I486" t="n">
         <v>103.87</v>
@@ -31082,7 +31082,7 @@
         <v>0.01016</v>
       </c>
       <c r="S486" t="n">
-        <v>320.2702254669158</v>
+        <v>57.73921142396458</v>
       </c>
     </row>
     <row r="487">
@@ -31112,7 +31112,7 @@
         <v>-2.888888888888889</v>
       </c>
       <c r="H487" t="n">
-        <v>14.8</v>
+        <v>-9.555555555555555</v>
       </c>
       <c r="I487" t="n">
         <v>103.47</v>
@@ -31145,7 +31145,7 @@
         <v>0.01016</v>
       </c>
       <c r="S487" t="n">
-        <v>340.2821279712153</v>
+        <v>60.07453963632148</v>
       </c>
     </row>
     <row r="488">
@@ -31175,7 +31175,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H488" t="n">
-        <v>29.5</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="I488" t="n">
         <v>103</v>
@@ -31208,7 +31208,7 @@
         <v>0.01016</v>
       </c>
       <c r="S488" t="n">
-        <v>531.6275967182299</v>
+        <v>71.17789654752843</v>
       </c>
     </row>
     <row r="489">
@@ -31238,7 +31238,7 @@
         <v>1.61111111111111</v>
       </c>
       <c r="H489" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I489" t="n">
         <v>103.05</v>
@@ -31271,7 +31271,7 @@
         <v>0.01016</v>
       </c>
       <c r="S489" t="n">
-        <v>563.777688681047</v>
+        <v>76.91417398599457</v>
       </c>
     </row>
   </sheetData>
